--- a/app/download_dir/парфюм_по наборам.xlsx
+++ b/app/download_dir/парфюм_по наборам.xlsx
@@ -115,7 +115,7 @@
     <t xml:space="preserve">здесь ничего заполнять не нужно,. После внесения всех остальных колонок проверьте правильность заполнения данной колонки</t>
   </si>
   <si>
-    <t xml:space="preserve">Укажите торговую марку или бренд. Если ничего нет т укажите "Без торгового знака"</t>
+    <t xml:space="preserve">Укажите торговую марку или бренд. Если ничего нет т укажите "Без товарного знака"</t>
   </si>
   <si>
     <t xml:space="preserve">Укажите единицу измерения объема (справочник)</t>
@@ -3163,10 +3163,10 @@
   <dimension ref="A1:Q1723"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1686" activeCellId="0" sqref="H1686"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="46.42"/>
@@ -26100,7 +26100,7 @@
       <selection pane="topLeft" activeCell="H100" activeCellId="0" sqref="H100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="108.55"/>
@@ -29162,7 +29162,7 @@
       <selection pane="topLeft" activeCell="B59" activeCellId="0" sqref="B59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.48"/>

--- a/app/download_dir/парфюм_по наборам.xlsx
+++ b/app/download_dir/парфюм_по наборам.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="646">
   <si>
     <t xml:space="preserve">Код ТНВЭД</t>
   </si>
@@ -198,1331 +198,1267 @@
     <t xml:space="preserve">АЛЮМИНИЙ</t>
   </si>
   <si>
+    <t xml:space="preserve">АБХАЗИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Декларация соответствия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Наименование атрибута</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Значение атрибута</t>
+  </si>
+  <si>
+    <t xml:space="preserve">л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НЕТ В СПРАВОЧНИКЕ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АЦЕТАТ ЦЕЛЛЮЛОЗЫ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ДУШИСТАЯ ВОДА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АВСТРАЛИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НЕ КЛАССИФИЦИРОВАНО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НЕ УКАЗАН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БИОПЛАСТИК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЛАВАНДОВАЯ ВОДА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АВСТРИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сертификат</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АМПУЛА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БРЕЗЕНТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОДЕКОЛОН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АЗЕРБАЙДЖАН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Заявленный объем(тип)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">---</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АЭРОЗОЛЬНАЯ УПАКОВКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПАРФЮМЕРНАЯ ВОДА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АЛАНДСКИЕ ОСТРОВА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БАЛЛОН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БУМАГА - ДРУГОЕ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СПРЕЙ ДЛЯ ТЕЛА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АЛБАНИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БАНКА МЕТАЛЛИЧЕСКАЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БУМАГА ВИСКОЗНАЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТУАЛЕТНАЯ ВОДА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АЛЖИР</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БАНКА НЕМЕТАЛЛИЧЕСКАЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БУМАГА ГОФРИРОВАННАЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КОМПЛЕКТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АМЕРИКАНСКИЕ ВИРГИНСКИЕ ОСТРОВА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БАРАБАН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВИНИЛ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АМЕРИКАНСКОЕ САМОА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БЛИСТЕРНАЯ УПАКОВКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВОЛОКНО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АНГИЛЬЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БЛОК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВСПЕНЕННЫЙ ПОЛИСТИРОЛ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АНГОЛА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БОЧКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОФРОКАРТОН ДВУХСЛОЙНЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АНДОРРА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БОЧОНОК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОФРОКАРТОН ПЯТИСЛОЙНЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АНТАРКТИДА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БУТЫЛКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОФРОКАРТОН СЕМИСЛОЙНЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АНТИГУА И БАРБУДА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БЭГ-ИН-БОКС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОФРОКАРТОН ТРЕХСЛОЙНЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АРГЕНТИНА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВЕДРО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ДЖУТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АРМЕНИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОРШОК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ДРЕВЕСИНА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АРУБА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОФРОКОРОБ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ДРЕВЕСИНА МЯГКАЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АФГАНИСТАН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БАНКА МЕТАЛЛИЧЕСКАЯ ДЛЯ КОНСЕРВИРОВАНИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ДВОЙНОЙ БЛИСТЕР/CLAMSHELL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ДРЕВЕСИНА ТВЁРДАЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БАГАМЫ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БАНКА МЕТАЛЛИЧЕСКАЯ ДЛЯ НАПИТКОВ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КАДКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ДРЕВЕСНОВОЛОКНИСТАЯ ПЛИТА (ДВП)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БАНГЛАДЕШ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КАНИСТРА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ДРЕВЕСНОВОЛОКНИСТАЯ ПЛИТА СРЕДНЕЙ ПЛОТНОСТИ (МДФ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БАРБАДОС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БАНКА СТЕКЛЯННАЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КАРТОЧКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ДРЕВЕСНО-СТРУЖЕЧНАЯ ПЛИТА (ДСтП)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БАХРЕЙН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КАТУШКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЖЕЛЕЗО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БЕЛИЗ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БИГ-БЭГ (МЯГКИЙ КОНТЕЙНЕР)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КЕГ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЖЕСТЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БЕЛОРУССИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КЕЙС ДЛЯ БАНОК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЗАМША</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БЕЛЬГИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КЕЙС/ЧЕХОЛ/ФУТЛЯР</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КАРБОНАТ КАЛЬЦИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БЕНИН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КЛЕТЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КАРТОН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БЕРМУДЫ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КОНВЕРТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КАРТОН ЛАМИНИРОВАННЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БОЛГАРИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КОНТЕЙНЕР ДЛЯ ПРОДУКТОВ ПИТАНИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КЕРАМИКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БОЛИВИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КОНТЕЙНЕР МЕДИЦИНСКИЙ МЯГКИЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КОЖА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БОСНИЯ И ГЕРЦЕГОВИНА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВАКУУМНАЯ УПАКОВКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КОНТУРНАЯ БЕЗЪЯЧЕЙКОВАЯ УПАКОВКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КОМБИНИРОВАННЫЙ МАТЕРИАЛ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БОТСВАНА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КОРЗИНА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЛАТУНЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БРАЗИЛИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КОРОБКА С ПОДДОНОМ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЛЁН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БРИТАНСКАЯ ТЕРРИТОРИЯ В ИНДИЙСКОМ ОКЕАНЕ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КОРОБКА/БОКС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЛИНЕЙНЫЙ ПОЛИЭТИЛЕН НИЗКОЙ ПЛОТНОСТИ (LLDPE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БРИТАНСКИЕ ВИРГИНСКИЕ ОСТРОВА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КУБОВЫЙ КОНТЕЙНЕР (IBC) ГИБКИЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МЕТАЛЛ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БРУНЕЙ ДАРУССАЛАМ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ДОЙПАК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КУБОВЫЙ КОНТЕЙНЕР (IBC) ЖЁСТКИЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МЕШКОВИНА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БУРКИНА-ФАСО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КУВШИН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МИНЕРАЛ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БУРУНДИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЛОТОК/ПОДНОС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МНОГОСЛОЙНЫЙ ПОДЕЛОЧНЫЙ КАРТОН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БУТАН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НАТУРАЛЬНЫЙ КАУЧУК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВАНУАТУ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МУЛЬТИПАК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НЕЙЛОН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВАТИКАНСКОЕ ГОСУДАРСТВО (ПАПСКИЙ ПРЕСТОЛ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБВЯЗОЧНОЕ СРЕДСТВО/ОБВЯЗКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОЛОВО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВЕЛИКОБРИТАНИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЁРНУТО В ПЛЁНКУ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОРИЕНТИРОВАННО-СТРУЖЕЧНАЯ ПЛИТА (ОСП)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВЕНГРИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЁРТКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПЕНОМАТЕРИАЛ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВЕНЕСУЭЛА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КИПА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОДНОРАЗОВАЯ ОБОЛОЧКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПЕНЬКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВНЕШНИЕ МАЛЫЕ ОСТРОВА (США)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПАКЕТ БЕЗ ФОРМЫ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПЕРГАМЕНТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВОСТОЧНЫЙ ТИМОР</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КОЛБАСНАЯ ОБОЛОЧКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПАКЕТ ПРЯМОУГОЛЬНЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПЛАСТМАССА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВЬЕТНАМ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПАКЕТ С ДОННОЙ СКЛАДКОЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПЛЕНОЧНЫЕ МАТЕРИАЛЫ ВЫСОКОБАРЬЕРНЫЕ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГАБОН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КОНТЕЙНЕР (ПОТРЕБИТЕЛЬСКИЙ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПАКЕТ ТРЕУГОЛЬНЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПЛЕНОЧНЫЕ МАТЕРИАЛЫ СРЕДНЕБАРЬЕРНЫЕ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГАИТИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПАЧКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПОЛИАКРИЛОНИТРИЛ (PAN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГАМБИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПОДДОН/ПАЛЛЕТА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПОЛИАМИД</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГАНА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПОДДОН/ПАЛЛЕТА ВОЗВРАТНАЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПОЛИВИНИЛИДЕНХЛОРИД (PVDC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГВАДЕЛУПА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КОНУС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПОДДОН/ПАЛЛЕТА НЕВОЗВРАТНАЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПОЛИВИНИЛОВЫЙ СПИРТ (PVA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГВАТЕМАЛА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПРОБИРКА МЕДИЦИНСКАЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПОЛИВИНИЛХЛОРИД (PVC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГВИНЕЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">РУКАВ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПОЛИГИДРОКСИАЛКАНОАТ (PHA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГВИНЕЯ-БИСАУ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СВЯЗКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПОЛИКАПРОЛАКТОН (PCL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГЕРМАНИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СЕТКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПОЛИКАРБОНАТ (PC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГИБРАЛТАР</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СТАКАН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПОЛИЛАКТИД (PLA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОНДУРАС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СТРЕТЧ-ПЛЁНКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПОЛИМЕР</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОНКОНГ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЛОТОК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СУМКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПОЛИОЛЕФИН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГРЕНАДА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТЕЛЕЖКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПОЛИПРОПИЛЕН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГРЕНЛАНДИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТЕРМОУСАДОЧНАЯ/УСАДОЧНАЯ УПАКОВКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПОЛИСТИРОЛ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГРЕЦИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТОРТНИЦА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПОЛИУРЕТАН (PU)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГРУЗИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НА ВЕШАЛКЕ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТУБА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПОЛИЭТИЛЕН (PE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГУАМ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЛАКОН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПОЛИЭТИЛЕН ВЫСОКОЙ ПЛОТНОСТИ (HDPE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ДАНИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЕРНУТО В ПЛЕНКУ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЛЯГА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПОЛИЭТИЛЕН НИЗКОЙ ПЛОТНОСТИ (LDPE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ДЕМОКРАТИЧЕСКАЯ РЕСПУБЛИКА КОНГО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЕРТКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЦИЛИНДР/ТУБУС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПОЛИЭТИЛЕН СРЕДНЕЙ ПЛОТНОСТИ (MDPE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ДЖИБУТИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ШОУ-БОКС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПОЛИЭТИЛЕННАФТАЛАН (PEN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ДОМИНИКАНА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПАКЕТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ШПРИЦ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПОЛИЭТИЛЕНТЕРЕФТАЛАТ (ПЭТ/ПЭТФ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ДОМИНИКАНСКАЯ РЕСПУБЛИКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЯЩИК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПРОВОЛОКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЕГИПЕТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">РЕЗИНА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЗАМБИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПАКЕТ С БОКОВЫМИ СКЛАДКАМИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СВИНЕЦ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЗАПАДНАЯ САХАРА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СТАЛЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЗИМБАБВЕ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СТАЛЬ НЕРЖАВЕЮЩАЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИЗРАИЛЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СТЕКЛО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИНДИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПОВТОРНО ЗАКРЫВАЕМАЯ УПАКОВКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СТЕКЛО ЦВЕТНОЕ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИНДОНЕЗИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТАЛЬК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИОРДАНИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТЕРМОПЛАСТИК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИРАК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТЕРМОПЛАСТИЧНЫЙ КРАХМАЛ (TPS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИРАН (ИСЛАМСКАЯ РЕСПУБЛИКА)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТКАНЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИРЛАНДИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФАНЕРА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИСЛАНДИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">РУЛОН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФАРФОР</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИСПАНИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">САШЕ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФОЛЬГА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИТАЛИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФОРМОВАННОЕ БУМАЖНОЕ ВОЛОКНО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЙЕМЕН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ХЛОПОК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КАБО-ВЕРДЕ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЦЕЛЛОФАН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КАЗАХСТАН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СТАКАНЧИК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЧУГУН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КАЙМАНОВЫ ОСТРОВА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЭПОКСИДНАЯ СМОЛА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КАМБОДЖА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЭТИЛЕНВИНИЛАЦЕТАТ (EVA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КАМЕРУН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТАРА С ОКОШКОМ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЭТИЛЕНВИНИЛОВЫЙ СПИРТ (EVOH)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КАНАДА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НЕ ПРИМЕНИМО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КАТАР</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КЕНИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТЕТРА ПАК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КИПР</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТЕТРА ФИНО АСЕПТИК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КИРГИЗИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КИРИБАТИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРАНСПОРТНЫЙ ПАКЕТ</t>
+  </si>
+  <si>
     <t xml:space="preserve">КИТАЙ</t>
   </si>
   <si>
-    <t xml:space="preserve">Декларация соответствия</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Наименование атрибута</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Значение атрибута</t>
-  </si>
-  <si>
-    <t xml:space="preserve">л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">НЕТ В СПРАВОЧНИКЕ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АЦЕТАТ ЦЕЛЛЮЛОЗЫ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ДУШИСТАЯ ВОДА</t>
+    <t xml:space="preserve">КОКОСОВЫЕ ОСТРОВА (ОСТРОВА КИЛИНГ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТУБУС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КОЛУМБИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">УПАКОВКА ИЗ УСАДОЧНОЙ ПЛЕНКИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КОМОРСКИЕ ОСТРОВА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">УПАКОВКА С ПУЛЬВЕРИЗАТОРОМ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КОРЕЯ, ДЕМОКРАТИЧЕСКАЯ НАРОДНАЯ РЕСПУБЛИКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КОСТА-РИКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЛОУПАК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КОТ-Д'ИВУАР</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КУБА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФУТЛЯР</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КУВЕЙТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЛАОССКАЯ НАРОДНАЯ ДЕМОКРАТИЧЕСКАЯ РЕСПУБЛИКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЛАТВИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЛЕСОТО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЯЧЕИСТАЯ УПАКОВКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЛИБЕРИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЛИВАН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЛИВИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЛИТВА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЛИХТЕНШТЕЙН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЛЮКСЕМБУРГ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МАВРИКИЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МАВРИТАНИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МАДАГАСКАР</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МАЙОТТА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МАКАО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МАЛАВИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МАЛАЙЗИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МАЛИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МАЛЬДИВЫ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МАЛЬТА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МАРОККО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МАРТИНИКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МАРШАЛЛОВЫ ОСТРОВА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МЕКСИКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МИКРОНЕЗИЯ, ОБЪЕДИНЕННЫЕ ГОСУДАРСТВА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МОЗАМБИК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МОЛДАВИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МОНАКО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МОНГОЛИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ДРЕВЕСИНА ТВЕРДАЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МОНТСЕРРАТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МЬЯНМА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НАМИБИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НАУРУ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НЕПАЛ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НИГЕР</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НИГЕРИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИСКУССТВЕННАЯ ОБОЛОЧКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НИДЕРЛАНДЫ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НИДЕРЛАНДЫ АНТИЛЬСКИЕ ОСТРОВА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НИКАРАГУА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НИУЭ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НОВАЯ ЗЕЛАНДИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НОВАЯ КАЛЕДОНИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НОРВЕГИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЪЕДИНЕННЫЕ АРАБСКИЕ ЭМИРАТЫ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОМАН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОСТРОВ БУВЕ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОСТРОВ НОРФОЛК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОСТРОВ РОЖДЕСТВА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОСТРОВ СВЯТОЙ ЕЛЕНЫ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОСТРОВА КУКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НАТУРАЛЬНАЯ ОБОЛОЧКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОСТРОВА ПИТКЭРН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПАКИСТАН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПАЛАУ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПАЛЕСТИНА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПАНАМА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПАПУА-НОВАЯ ГВИНЕЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПАРАГВАЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПЕРУ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПОЛЬША</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПОРТУГАЛИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПУЭРТО-РИКО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">РЕСПУБЛИКА КОНГО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">РЕСПУБЛИКА КОРЕЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">РЕЮНЬОН</t>
   </si>
   <si>
     <t xml:space="preserve">РОССИЯ</t>
   </si>
   <si>
-    <t xml:space="preserve">НЕ КЛАССИФИЦИРОВАНО</t>
-  </si>
-  <si>
-    <t xml:space="preserve">НЕ УКАЗАН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БИОПЛАСТИК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЛАВАНДОВАЯ ВОДА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВЬЕТНАМ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сертификат</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АМПУЛА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БРЕЗЕНТ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОДЕКОЛОН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ИТАЛИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Заявленный объем(тип)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">---</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АЭРОЗОЛЬНАЯ УПАКОВКА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПАРФЮМЕРНАЯ ВОДА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БАЛЛОН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БУМАГА - ДРУГОЕ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СПРЕЙ ДЛЯ ТЕЛА</t>
+    <t xml:space="preserve">РУАНДА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">РУМЫНИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">САЛЬВАДОР</t>
+  </si>
+  <si>
+    <t xml:space="preserve">САМОА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">САН-МАРИНО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">САН-ТОМЕ И ПРИНСИПИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">САУДОВСКАЯ АРАВИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СВАЗИЛЕНД</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СЕВЕРНЫЕ МАРИАНСКИЕ ОСТРОВА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СЕЙШЕЛЬСКИЕ ОСТРОВА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СЕН-БАРТЕЛЕМИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СЕН-МАРТЕН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СЕН-ПЬЕР И МИКЕЛОН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СЕНЕГАЛ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СЕНТ-ВИНСЕНТ И ГРЕНАДИНЫ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СЕНТ-КИТС И НЕВИС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СЕНТ-ЛЮСИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СЕРБИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СИНГАПУР</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СИРИЙСКАЯ АРАБСКАЯ РЕСПУБЛИКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СЛОВАКИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СТАЛЬ/ЖЕЛЕЗО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СЛОВЕНИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СОЛОМОНОВЫ ОСТРОВА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СОМАЛИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СУДАН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СУРИНАМ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СЬЕРРА-ЛЕОНЕ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТАДЖИКИСТАН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТАЙВАНЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТАЙЛАНД</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТАНЗАНИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТОГО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТОКЕЛАУ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТОНГА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРИНИДАД И ТОБАГО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТУВАЛУ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТУНИС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТУРКМЕНИСТАН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">УГАНДА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">УЗБЕКИСТАН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">УКРАИНА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">УОЛЛИС И ФУТУНА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">УРУГВАЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФАРЕРСКИЕ ОСТРОВА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФИДЖИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФИЛИППИНЫ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФИНЛЯНДИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФОЛКЛЕНДСКИЕ ОСТРОВА (МАЛЬВИНСКИЕ)</t>
   </si>
   <si>
     <t xml:space="preserve">ФРАНЦИЯ</t>
   </si>
   <si>
-    <t xml:space="preserve">БАНКА МЕТАЛЛИЧЕСКАЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БУМАГА ВИСКОЗНАЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТУАЛЕТНАЯ ВОДА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АВСТРАЛИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БАНКА НЕМЕТАЛЛИЧЕСКАЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БУМАГА ГОФРИРОВАННАЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КОМПЛЕКТ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АВСТРИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БАРАБАН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВИНИЛ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АЗЕРБАЙДЖАН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БЛИСТЕРНАЯ УПАКОВКА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВОЛОКНО</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АЛАНДСКИЕ ОСТРОВА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БЛОК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВСПЕНЕННЫЙ ПОЛИСТИРОЛ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АЛБАНИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БОЧКА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ГОФРОКАРТОН ДВУХСЛОЙНЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АЛЖИР</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БОЧОНОК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ГОФРОКАРТОН ПЯТИСЛОЙНЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АМЕРИКАНСКИЕ ВИРГИНСКИЕ ОСТРОВА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БУТЫЛКА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ГОФРОКАРТОН СЕМИСЛОЙНЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АМЕРИКАНСКОЕ САМОА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БЭГ-ИН-БОКС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ГОФРОКАРТОН ТРЕХСЛОЙНЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АНГИЛЬЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВЕДРО</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ДЖУТ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АНГОЛА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ГОРШОК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ДРЕВЕСИНА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АНДОРРА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ГОФРОКОРОБ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ДРЕВЕСИНА МЯГКАЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АНТАРКТИДА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БАНКА МЕТАЛЛИЧЕСКАЯ ДЛЯ КОНСЕРВИРОВАНИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ДВОЙНОЙ БЛИСТЕР/CLAMSHELL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ДРЕВЕСИНА ТВЁРДАЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АНТИГУА И БАРБУДА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БАНКА МЕТАЛЛИЧЕСКАЯ ДЛЯ НАПИТКОВ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КАДКА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ДРЕВЕСНОВОЛОКНИСТАЯ ПЛИТА (ДВП)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АРГЕНТИНА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КАНИСТРА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ДРЕВЕСНОВОЛОКНИСТАЯ ПЛИТА СРЕДНЕЙ ПЛОТНОСТИ (МДФ)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АРМЕНИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БАНКА СТЕКЛЯННАЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КАРТОЧКА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ДРЕВЕСНО-СТРУЖЕЧНАЯ ПЛИТА (ДСтП)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АРУБА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КАТУШКА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЖЕЛЕЗО</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АФГАНИСТАН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БИГ-БЭГ (МЯГКИЙ КОНТЕЙНЕР)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КЕГ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЖЕСТЬ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БАГАМЫ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КЕЙС ДЛЯ БАНОК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЗАМША</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БАНГЛАДЕШ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КЕЙС/ЧЕХОЛ/ФУТЛЯР</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КАРБОНАТ КАЛЬЦИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БАРБАДОС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КЛЕТЬ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КАРТОН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БАХРЕЙН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КОНВЕРТ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КАРТОН ЛАМИНИРОВАННЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БЕЛИЗ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КОНТЕЙНЕР ДЛЯ ПРОДУКТОВ ПИТАНИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КЕРАМИКА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БЕЛОРУССИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КОНТЕЙНЕР МЕДИЦИНСКИЙ МЯГКИЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КОЖА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БЕЛЬГИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВАКУУМНАЯ УПАКОВКА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КОНТУРНАЯ БЕЗЪЯЧЕЙКОВАЯ УПАКОВКА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КОМБИНИРОВАННЫЙ МАТЕРИАЛ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БЕНИН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КОРЗИНА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЛАТУНЬ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БЕРМУДЫ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КОРОБКА С ПОДДОНОМ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЛЁН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БОЛГАРИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КОРОБКА/БОКС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЛИНЕЙНЫЙ ПОЛИЭТИЛЕН НИЗКОЙ ПЛОТНОСТИ (LLDPE)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БОЛИВИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КУБОВЫЙ КОНТЕЙНЕР (IBC) ГИБКИЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МЕТАЛЛ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БОСНИЯ И ГЕРЦЕГОВИНА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ДОЙПАК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КУБОВЫЙ КОНТЕЙНЕР (IBC) ЖЁСТКИЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МЕШКОВИНА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БОТСВАНА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КУВШИН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МИНЕРАЛ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БРАЗИЛИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЛОТОК/ПОДНОС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МНОГОСЛОЙНЫЙ ПОДЕЛОЧНЫЙ КАРТОН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БРИТАНСКАЯ ТЕРРИТОРИЯ В ИНДИЙСКОМ ОКЕАНЕ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">НАТУРАЛЬНЫЙ КАУЧУК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БРИТАНСКИЕ ВИРГИНСКИЕ ОСТРОВА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МУЛЬТИПАК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">НЕЙЛОН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БРУНЕЙ ДАРУССАЛАМ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОБВЯЗОЧНОЕ СРЕДСТВО/ОБВЯЗКА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОЛОВО</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БУРКИНА-ФАСО</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОБЁРНУТО В ПЛЁНКУ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОРИЕНТИРОВАННО-СТРУЖЕЧНАЯ ПЛИТА (ОСП)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БУРУНДИ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОБЁРТКА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПЕНОМАТЕРИАЛ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БУТАН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КИПА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОДНОРАЗОВАЯ ОБОЛОЧКА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПЕНЬКА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВАНУАТУ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПАКЕТ БЕЗ ФОРМЫ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПЕРГАМЕНТ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВАТИКАНСКОЕ ГОСУДАРСТВО (ПАПСКИЙ ПРЕСТОЛ)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КОЛБАСНАЯ ОБОЛОЧКА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПАКЕТ ПРЯМОУГОЛЬНЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПЛАСТМАССА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВЕЛИКОБРИТАНИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПАКЕТ С ДОННОЙ СКЛАДКОЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПЛЕНОЧНЫЕ МАТЕРИАЛЫ ВЫСОКОБАРЬЕРНЫЕ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВЕНГРИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КОНТЕЙНЕР (ПОТРЕБИТЕЛЬСКИЙ)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПАКЕТ ТРЕУГОЛЬНЫЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПЛЕНОЧНЫЕ МАТЕРИАЛЫ СРЕДНЕБАРЬЕРНЫЕ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВЕНЕСУЭЛА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПАЧКА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПОЛИАКРИЛОНИТРИЛ (PAN)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВНЕШНИЕ МАЛЫЕ ОСТРОВА (США)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПОДДОН/ПАЛЛЕТА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПОЛИАМИД</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВОСТОЧНЫЙ ТИМОР</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПОДДОН/ПАЛЛЕТА ВОЗВРАТНАЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПОЛИВИНИЛИДЕНХЛОРИД (PVDC)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КОНУС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПОДДОН/ПАЛЛЕТА НЕВОЗВРАТНАЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПОЛИВИНИЛОВЫЙ СПИРТ (PVA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ГАБОН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПРОБИРКА МЕДИЦИНСКАЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПОЛИВИНИЛХЛОРИД (PVC)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ГАИТИ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">РУКАВ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПОЛИГИДРОКСИАЛКАНОАТ (PHA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ГАМБИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СВЯЗКА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПОЛИКАПРОЛАКТОН (PCL)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ГАНА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СЕТКА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПОЛИКАРБОНАТ (PC)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ГВАДЕЛУПА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СТАКАН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПОЛИЛАКТИД (PLA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ГВАТЕМАЛА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СТРЕТЧ-ПЛЁНКА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПОЛИМЕР</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ГВИНЕЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЛОТОК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СУМКА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПОЛИОЛЕФИН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ГВИНЕЯ-БИСАУ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТЕЛЕЖКА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПОЛИПРОПИЛЕН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ГЕРМАНИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТЕРМОУСАДОЧНАЯ/УСАДОЧНАЯ УПАКОВКА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПОЛИСТИРОЛ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ГИБРАЛТАР</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТОРТНИЦА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПОЛИУРЕТАН (PU)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ГОНДУРАС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">НА ВЕШАЛКЕ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТУБА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПОЛИЭТИЛЕН (PE)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ГОНКОНГ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ФЛАКОН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПОЛИЭТИЛЕН ВЫСОКОЙ ПЛОТНОСТИ (HDPE)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ГРЕНАДА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОБЕРНУТО В ПЛЕНКУ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ФЛЯГА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПОЛИЭТИЛЕН НИЗКОЙ ПЛОТНОСТИ (LDPE)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ГРЕНЛАНДИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОБЕРТКА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЦИЛИНДР/ТУБУС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПОЛИЭТИЛЕН СРЕДНЕЙ ПЛОТНОСТИ (MDPE)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ГРЕЦИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ШОУ-БОКС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПОЛИЭТИЛЕННАФТАЛАН (PEN)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ГРУЗИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПАКЕТ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ШПРИЦ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПОЛИЭТИЛЕНТЕРЕФТАЛАТ (ПЭТ/ПЭТФ)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ГУАМ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЯЩИК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПРОВОЛОКА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ДАНИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">РЕЗИНА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ДЕМОКРАТИЧЕСКАЯ РЕСПУБЛИКА КОНГО</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПАКЕТ С БОКОВЫМИ СКЛАДКАМИ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СВИНЕЦ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ДЖИБУТИ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СТАЛЬ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ДОМИНИКАНА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СТАЛЬ НЕРЖАВЕЮЩАЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ДОМИНИКАНСКАЯ РЕСПУБЛИКА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СТЕКЛО</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЕГИПЕТ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПОВТОРНО ЗАКРЫВАЕМАЯ УПАКОВКА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СТЕКЛО ЦВЕТНОЕ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЗАМБИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТАЛЬК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЗАПАДНАЯ САХАРА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТЕРМОПЛАСТИК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЗИМБАБВЕ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТЕРМОПЛАСТИЧНЫЙ КРАХМАЛ (TPS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ИЗРАИЛЬ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТКАНЬ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ИНДИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ФАНЕРА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ИНДОНЕЗИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">РУЛОН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ФАРФОР</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ИОРДАНИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">САШЕ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ФОЛЬГА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ИРАК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ФОРМОВАННОЕ БУМАЖНОЕ ВОЛОКНО</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ИРАН (ИСЛАМСКАЯ РЕСПУБЛИКА)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ХЛОПОК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ИРЛАНДИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЦЕЛЛОФАН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ИСЛАНДИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СТАКАНЧИК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЧУГУН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ИСПАНИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЭПОКСИДНАЯ СМОЛА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЭТИЛЕНВИНИЛАЦЕТАТ (EVA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЙЕМЕН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТАРА С ОКОШКОМ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЭТИЛЕНВИНИЛОВЫЙ СПИРТ (EVOH)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КАБО-ВЕРДЕ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">НЕ ПРИМЕНИМО</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КАЗАХСТАН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КАЙМАНОВЫ ОСТРОВА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТЕТРА ПАК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КАМБОДЖА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТЕТРА ФИНО АСЕПТИК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КАМЕРУН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КАНАДА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТРАНСПОРТНЫЙ ПАКЕТ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КАТАР</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КЕНИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТУБУС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КИПР</t>
-  </si>
-  <si>
-    <t xml:space="preserve">УПАКОВКА ИЗ УСАДОЧНОЙ ПЛЕНКИ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КИРГИЗИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">УПАКОВКА С ПУЛЬВЕРИЗАТОРОМ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КИРИБАТИ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ФЛОУПАК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КОКОСОВЫЕ ОСТРОВА (ОСТРОВА КИЛИНГ)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КОЛУМБИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ФУТЛЯР</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КОМОРСКИЕ ОСТРОВА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КОСТА-РИКА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КОТ-Д'ИВУАР</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КУБА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЯЧЕИСТАЯ УПАКОВКА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КУВЕЙТ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЛАОССКАЯ НАРОДНАЯ ДЕМОКРАТИЧЕСКАЯ РЕСПУБЛИКА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЛАТВИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЛЕСОТО</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЛИБЕРИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЛИВАН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЛИВИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЛИТВА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЛИХТЕНШТЕЙН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЛЮКСЕМБУРГ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МАВРИКИЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МАВРИТАНИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МАДАГАСКАР</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МАЙОТТА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МАКАО</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МАЛАВИ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МАЛАЙЗИИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МАЛИ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МАЛЬДИВЫ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МАЛЬТА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МАРОККО</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МАРТИНИКА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МАРШАЛЛОВЫ ОСТРОВА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МЕКСИКА</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">МИКРОНЕЗИЯ, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">ОБЪЕДИНЕННЫЕ ГОСУДАРСТВА </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">ДРЕВЕСИНА ТВЕРДАЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МОЗАМБИК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МОЛДАВИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МОНАКО</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МОНГОЛИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МОНТСЕРРАТ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МЬЯНМА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">НАМИБИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ИСКУССТВЕННАЯ ОБОЛОЧКА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">НАУРУ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">НЕПАЛ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">НИГЕР</t>
-  </si>
-  <si>
-    <t xml:space="preserve">НИГЕРИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">НИДЕРЛАНДЫ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">НИДЕРЛАНДЫ АНТИЛЬСКИЕ ОСТРОВА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">НИКАРАГУА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">НИУЭ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">НОВАЯ ЗЕЛАНДИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">НОВАЯ КАЛЕДОНИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">НОРВЕГИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОАЭ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОМАН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОСТРОВ БУВЕ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">НАТУРАЛЬНАЯ ОБОЛОЧКА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОСТРОВ НОРФОЛК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОСТРОВ РОЖДЕСТВА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОСТРОВ СВЯТОЙ ЕЛЕНЫ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОСТРОВА КУКА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОСТРОВА ПИТКЭРН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПАКИСТАН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПАЛАУ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПАЛЕСТИНА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПАНАМА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПАПУА-НОВАЯ ГВИНЕЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПАРАГВАЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПЕРУ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПОЛЬША</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПОРТУГАЛИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПУЭРТО-РИКО</t>
-  </si>
-  <si>
-    <t xml:space="preserve">РЕСПУБЛИКА КОНГО</t>
-  </si>
-  <si>
-    <t xml:space="preserve">РЕСПУБЛИКА КОРЕЯ</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">РЕСПУБЛИКА МАКЕДОНИЯ,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> БЫВШАЯ ЮГОСЛАВСКАЯ РЕСПУБЛИКА</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">РЕЮНЬОН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">РУАНДА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">РУМЫНИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">САЛЬВАДОР</t>
-  </si>
-  <si>
-    <t xml:space="preserve">САМОА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">САН-МАРИНО</t>
-  </si>
-  <si>
-    <t xml:space="preserve">САН-ТОМЕ И ПРИНСИПИ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">САУДОВСКАЯ АРАВИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СВАЗИЛЕНД</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СЕВЕРНЫЕ МАРИАНСКИЕ ОСТРОВА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СЕЙШЕЛЬСКИЕ ОСТОРВА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СЕНЕГАЛ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СЕН-ПЬЕР И МИКЕЛОН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СЕНТ-ВИНСЕНТ И ГРЕНАДИНЫ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СЕНТ-КИТТС И НЕВИС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СЕНТ-ЛЮСИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СЕРБИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СИНГАПУР</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СТАЛЬ/ЖЕЛЕЗО</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СИРИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СЛОВАКИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СЛОВЕНИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">США</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СОЛОМОНОВЫ ОСТРОВА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СОМАЛИ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СУДАН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СУРИНАМ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СЬЕРРА-ЛЕОНЕ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТАДЖИКИСТАН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТАИЛАНД</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">ТАЙВАНЬ,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> ПРОВИНЦИЯ КИТАЯ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">ТАНЗАНИЯ,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> ОБЪЕДИНЕННАЯ РЕСПУБЛИКА</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">ТЕРКС И КАЙКОС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТОГО</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТОКЕЛАУ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТОНГА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТРИНИДАД И ТОБАГО</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТУВАЛУ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТУНИС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТУРКМЕНИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">УГАНДА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">УЗБЕКИСТАН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">УКРАИНА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">УОЛЛИС И ФУТУНА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">УРУГВАЙ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ФАРЕРСКИЕ ОСТРОВА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ФИДЖИ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ФИЛИППИНЫ</t>
+    <t xml:space="preserve">ФРАНЦУЗСКАЯ ГВИАНА</t>
   </si>
   <si>
     <t xml:space="preserve">Номер Регламента/стандарта</t>
@@ -1531,34 +1467,22 @@
     <t xml:space="preserve">ТР ТС 009/2011 "О безопасности парфюмерно-косметической продукции"</t>
   </si>
   <si>
-    <t xml:space="preserve">ФИНЛЯНДИЯ</t>
+    <t xml:space="preserve">ФРАНЦУЗСКАЯ ПОЛИНЕЗИЯ</t>
   </si>
   <si>
     <t xml:space="preserve">ТР ТС 005/2011 "О безопасности упаковки"</t>
   </si>
   <si>
-    <t xml:space="preserve">ФОЛКЛЕНДСКИЕ ОСТРОВА (МАЛЬВИНСКИЕ)</t>
+    <t xml:space="preserve">ФРАНЦУЗСКИЕ ЮЖНЫЕ ТЕРРИТОРИИ</t>
   </si>
   <si>
     <t xml:space="preserve">ТР ТС 029/2012 "Требования к безопасности пищевых добавок, ароматизаторов и технологических вспомогательных средств"</t>
   </si>
   <si>
-    <t xml:space="preserve">ФРАНЦУЗСКАЯ ГВИАНА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ФРАНЦУЗСКАЯ ПОЛИНЕЗИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ФРАНЦУЗСКИЕ ЮЖНЫЕ ТЕРРИТОРИИ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ХЕРДА И МАКДОНАЛЬДА ОСТРОВА</t>
-  </si>
-  <si>
     <t xml:space="preserve">ХОРВАТИЯ</t>
   </si>
   <si>
-    <t xml:space="preserve">ЦЕНТРАЛЬНОАФРИКАНСКАЯ РЕСПУБЛИКА</t>
+    <t xml:space="preserve">ЦЕНТРАЛЬНО-АФРИКАНСКАЯ РЕСПУБЛИКА</t>
   </si>
   <si>
     <t xml:space="preserve">ЧАД</t>
@@ -1579,10 +1503,7 @@
     <t xml:space="preserve">ШВЕЦИЯ</t>
   </si>
   <si>
-    <t xml:space="preserve">ШПИЦБЕРГЕН И ЯН-МАЙЕН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ШРИ ЛАНКА</t>
+    <t xml:space="preserve">ШРИ-ЛАНКА</t>
   </si>
   <si>
     <t xml:space="preserve">ЭКВАДОР</t>
@@ -1603,10 +1524,7 @@
     <t xml:space="preserve">ЮЖНАЯ АФРИКА</t>
   </si>
   <si>
-    <t xml:space="preserve">ЮЖНАЯ ГЕОРГИЯ И ЮЖНЫЕ САНДВИЧЕВЫ ОСТРОВА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЮЖНАЯ КОРЕЯ</t>
+    <t xml:space="preserve">ЮЖНАЯ ДЖОРДЖИЯ И ЮЖНЫЕ САНДВИЧЕВЫЕ ОСТРОВА</t>
   </si>
   <si>
     <t xml:space="preserve">ЯМАЙКА</t>
@@ -2705,7 +2623,7 @@
     <numFmt numFmtId="164" formatCode="@"/>
     <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2797,13 +2715,6 @@
       <color rgb="FF000000"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -3055,7 +2966,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3063,11 +2974,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3075,7 +2986,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3166,7 +3077,7 @@
       <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="46.42"/>
@@ -26097,10 +26008,10 @@
   <dimension ref="A1:J246"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H100" activeCellId="0" sqref="H100"/>
+      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="108.55"/>
@@ -26233,7 +26144,7 @@
         <v>78</v>
       </c>
       <c r="I6" s="28" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26244,16 +26155,16 @@
         <v>60</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I7" s="28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26264,16 +26175,16 @@
         <v>42</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I8" s="28" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26284,49 +26195,49 @@
         <v>65</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F10" s="27" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I10" s="28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F11" s="27" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I11" s="28" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F12" s="27" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I12" s="28" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26337,13 +26248,13 @@
         <v>54</v>
       </c>
       <c r="F13" s="27" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I13" s="28" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26354,13 +26265,13 @@
         <v>61</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I14" s="28" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26371,13 +26282,13 @@
         <v>66</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G15" s="27" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I15" s="28" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26388,13 +26299,13 @@
         <v>71</v>
       </c>
       <c r="F16" s="27" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I16" s="28" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26405,13 +26316,13 @@
         <v>77</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G17" s="27" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I17" s="28" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26419,16 +26330,16 @@
         <v>4</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G18" s="27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I18" s="28" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26436,16 +26347,16 @@
         <v>4</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G19" s="27" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I19" s="28" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26453,16 +26364,16 @@
         <v>4</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G20" s="27" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I20" s="28" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26470,16 +26381,16 @@
         <v>4</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F21" s="27" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G21" s="27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I21" s="28" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26487,16 +26398,16 @@
         <v>4</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F22" s="27" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G22" s="27" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I22" s="28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26504,16 +26415,16 @@
         <v>4</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F23" s="27" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G23" s="27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I23" s="28" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26521,16 +26432,16 @@
         <v>4</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F24" s="27" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G24" s="27" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I24" s="28" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26538,16 +26449,16 @@
         <v>4</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F25" s="27" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G25" s="27" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I25" s="28" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26555,16 +26466,16 @@
         <v>4</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F26" s="27" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G26" s="27" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I26" s="28" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26572,16 +26483,16 @@
         <v>4</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F27" s="27" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G27" s="27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I27" s="28" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26589,16 +26500,16 @@
         <v>4</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F28" s="27" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G28" s="27" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I28" s="28" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26606,16 +26517,16 @@
         <v>4</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F29" s="27" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G29" s="27" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I29" s="28" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26623,16 +26534,16 @@
         <v>4</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F30" s="27" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G30" s="27" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I30" s="28" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26640,16 +26551,16 @@
         <v>4</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F31" s="27" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G31" s="27" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I31" s="28" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26657,16 +26568,16 @@
         <v>4</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F32" s="27" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G32" s="27" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I32" s="28" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26674,16 +26585,16 @@
         <v>4</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F33" s="27" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G33" s="27" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I33" s="28" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26691,16 +26602,16 @@
         <v>4</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F34" s="27" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G34" s="27" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I34" s="28" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26708,16 +26619,16 @@
         <v>4</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F35" s="27" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G35" s="27" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I35" s="28" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26725,16 +26636,16 @@
         <v>4</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F36" s="27" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G36" s="27" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I36" s="28" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26742,16 +26653,16 @@
         <v>4</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F37" s="27" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G37" s="27" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I37" s="28" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26759,16 +26670,16 @@
         <v>4</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F38" s="27" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G38" s="27" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I38" s="28" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26776,16 +26687,16 @@
         <v>4</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F39" s="27" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G39" s="27" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I39" s="28" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26793,16 +26704,16 @@
         <v>4</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F40" s="27" t="s">
         <v>44</v>
       </c>
       <c r="G40" s="27" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I40" s="28" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26810,16 +26721,16 @@
         <v>4</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F41" s="27" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G41" s="27" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I41" s="28" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26827,16 +26738,16 @@
         <v>4</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F42" s="27" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G42" s="27" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I42" s="28" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26844,16 +26755,16 @@
         <v>4</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F43" s="27" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G43" s="27" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I43" s="28" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26861,16 +26772,16 @@
         <v>4</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F44" s="27" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G44" s="27" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I44" s="28" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26878,16 +26789,16 @@
         <v>4</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F45" s="27" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G45" s="27" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I45" s="28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26895,16 +26806,16 @@
         <v>4</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F46" s="27" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G46" s="27" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I46" s="28" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26912,16 +26823,16 @@
         <v>4</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F47" s="27" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G47" s="27" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I47" s="28" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26929,16 +26840,16 @@
         <v>4</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F48" s="27" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G48" s="27" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I48" s="28" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26946,16 +26857,16 @@
         <v>4</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F49" s="27" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G49" s="27" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I49" s="28" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26963,16 +26874,16 @@
         <v>4</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F50" s="27" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G50" s="27" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I50" s="28" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26980,16 +26891,16 @@
         <v>4</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F51" s="27" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G51" s="27" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I51" s="28" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26997,16 +26908,16 @@
         <v>4</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F52" s="27" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G52" s="27" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I52" s="28" t="s">
-        <v>69</v>
+        <v>228</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27014,16 +26925,16 @@
         <v>4</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F53" s="27" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G53" s="27" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="I53" s="28" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27031,16 +26942,16 @@
         <v>4</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F54" s="27" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G54" s="27" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="I54" s="28" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27048,16 +26959,16 @@
         <v>4</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F55" s="27" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G55" s="27" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="I55" s="28" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27065,16 +26976,16 @@
         <v>4</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F56" s="27" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G56" s="27" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I56" s="28" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27082,16 +26993,16 @@
         <v>4</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F57" s="27" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G57" s="27" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="I57" s="28" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27099,16 +27010,16 @@
         <v>4</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F58" s="27" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G58" s="27" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="I58" s="28" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27116,16 +27027,16 @@
         <v>4</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F59" s="27" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G59" s="27" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="I59" s="28" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27133,16 +27044,16 @@
         <v>4</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F60" s="27" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G60" s="27" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="I60" s="28" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27150,16 +27061,16 @@
         <v>4</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F61" s="27" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G61" s="27" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="I61" s="28" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27170,13 +27081,13 @@
         <v>44</v>
       </c>
       <c r="F62" s="27" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G62" s="27" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I62" s="28" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27184,16 +27095,16 @@
         <v>4</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F63" s="27" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G63" s="27" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="I63" s="28" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27201,16 +27112,16 @@
         <v>4</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F64" s="27" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G64" s="27" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="I64" s="28" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27218,16 +27129,16 @@
         <v>4</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F65" s="27" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G65" s="27" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="I65" s="28" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27235,16 +27146,16 @@
         <v>4</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F66" s="27" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G66" s="27" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="I66" s="28" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27252,16 +27163,16 @@
         <v>4</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F67" s="27" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="G67" s="27" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="I67" s="28" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27269,16 +27180,16 @@
         <v>4</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F68" s="27" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="G68" s="27" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="I68" s="28" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27286,16 +27197,16 @@
         <v>4</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F69" s="27" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="G69" s="27" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="I69" s="28" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27303,16 +27214,16 @@
         <v>4</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F70" s="27" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="G70" s="27" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="I70" s="28" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27320,14 +27231,14 @@
         <v>4</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F71" s="27"/>
       <c r="G71" s="27" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="I71" s="28" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27335,14 +27246,14 @@
         <v>4</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F72" s="27"/>
       <c r="G72" s="27" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="I72" s="28" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27350,14 +27261,14 @@
         <v>4</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F73" s="27"/>
       <c r="G73" s="27" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="I73" s="28" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27365,13 +27276,13 @@
         <v>4</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G74" s="27" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="I74" s="28" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27379,13 +27290,13 @@
         <v>4</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G75" s="27" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I75" s="28" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27393,13 +27304,13 @@
         <v>4</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="G76" s="27" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="I76" s="28" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27407,13 +27318,13 @@
         <v>4</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G77" s="27" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="I77" s="28" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27421,13 +27332,13 @@
         <v>4</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G78" s="27" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="I78" s="28" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27435,13 +27346,13 @@
         <v>4</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G79" s="27" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="I79" s="28" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27449,13 +27360,13 @@
         <v>4</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G80" s="27" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="I80" s="28" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27463,13 +27374,13 @@
         <v>4</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G81" s="27" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="I81" s="28" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27477,13 +27388,13 @@
         <v>4</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="G82" s="27" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="I82" s="28" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27491,13 +27402,13 @@
         <v>4</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G83" s="27" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="I83" s="28" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27505,13 +27416,13 @@
         <v>4</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G84" s="27" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="I84" s="28" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27519,13 +27430,13 @@
         <v>4</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G85" s="27" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="I85" s="28" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27533,13 +27444,13 @@
         <v>4</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G86" s="27" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="I86" s="28" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27547,13 +27458,13 @@
         <v>4</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G87" s="27" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="I87" s="28" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27561,13 +27472,13 @@
         <v>4</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G88" s="27" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="I88" s="28" t="s">
-        <v>74</v>
+        <v>329</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27575,13 +27486,13 @@
         <v>4</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G89" s="27" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="I89" s="28" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27589,13 +27500,13 @@
         <v>4</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="G90" s="27" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="I90" s="28" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27603,13 +27514,13 @@
         <v>4</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G91" s="27" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="I91" s="28" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27617,13 +27528,13 @@
         <v>4</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G92" s="27" t="s">
         <v>66</v>
       </c>
       <c r="I92" s="28" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27631,13 +27542,13 @@
         <v>4</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="G93" s="27" t="s">
         <v>61</v>
       </c>
       <c r="I93" s="28" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27645,10 +27556,10 @@
         <v>4</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="I94" s="28" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27656,10 +27567,10 @@
         <v>4</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="I95" s="28" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27667,10 +27578,10 @@
         <v>4</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="I96" s="28" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27678,10 +27589,10 @@
         <v>4</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="I97" s="28" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27689,10 +27600,10 @@
         <v>4</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="I98" s="28" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27700,10 +27611,10 @@
         <v>4</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="I99" s="28" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27711,10 +27622,10 @@
         <v>4</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="I100" s="28" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27722,10 +27633,10 @@
         <v>4</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="I101" s="28" t="s">
-        <v>56</v>
+        <v>352</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27733,10 +27644,10 @@
         <v>4</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="I102" s="28" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27744,10 +27655,10 @@
         <v>4</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="I103" s="28" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27755,10 +27666,10 @@
         <v>4</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="I104" s="28" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27766,10 +27677,10 @@
         <v>4</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="I105" s="28" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27777,10 +27688,10 @@
         <v>4</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="I106" s="28" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27788,10 +27699,10 @@
         <v>4</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="I107" s="28" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27799,10 +27710,10 @@
         <v>4</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="I108" s="28" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27810,20 +27721,20 @@
         <v>4</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="I109" s="28" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I110" s="28" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I111" s="28" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27834,7 +27745,7 @@
         <v>54</v>
       </c>
       <c r="I112" s="28" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27845,7 +27756,7 @@
         <v>66</v>
       </c>
       <c r="I113" s="28" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27856,7 +27767,7 @@
         <v>61</v>
       </c>
       <c r="I114" s="28" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27867,7 +27778,7 @@
         <v>55</v>
       </c>
       <c r="I115" s="28" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27878,7 +27789,7 @@
         <v>62</v>
       </c>
       <c r="I116" s="28" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27889,7 +27800,7 @@
         <v>67</v>
       </c>
       <c r="I117" s="28" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27900,7 +27811,7 @@
         <v>72</v>
       </c>
       <c r="I118" s="28" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27911,7 +27822,7 @@
         <v>45</v>
       </c>
       <c r="I119" s="28" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27919,10 +27830,10 @@
         <v>5</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I120" s="28" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27930,10 +27841,10 @@
         <v>5</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I121" s="28" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27941,10 +27852,10 @@
         <v>5</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I122" s="28" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27952,10 +27863,10 @@
         <v>5</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I123" s="28" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27963,10 +27874,10 @@
         <v>5</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I124" s="28" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27974,10 +27885,10 @@
         <v>5</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I125" s="28" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27985,10 +27896,10 @@
         <v>5</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I126" s="28" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27996,10 +27907,10 @@
         <v>5</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I127" s="28" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28007,10 +27918,10 @@
         <v>5</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I128" s="28" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28018,10 +27929,10 @@
         <v>5</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I129" s="28" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28029,10 +27940,10 @@
         <v>5</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I130" s="28" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28040,21 +27951,21 @@
         <v>5</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I131" s="28" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
         <v>5</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I132" s="28" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28062,10 +27973,10 @@
         <v>5</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="I133" s="28" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28073,10 +27984,10 @@
         <v>5</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I134" s="28" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28084,10 +27995,10 @@
         <v>5</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I135" s="28" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28095,10 +28006,10 @@
         <v>5</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I136" s="28" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28106,10 +28017,10 @@
         <v>5</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I137" s="28" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28117,10 +28028,10 @@
         <v>5</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I138" s="28" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28128,10 +28039,10 @@
         <v>5</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I139" s="28" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28139,10 +28050,10 @@
         <v>5</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="I140" s="28" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28150,10 +28061,10 @@
         <v>5</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I141" s="28" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28161,10 +28072,10 @@
         <v>5</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I142" s="28" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28172,10 +28083,10 @@
         <v>5</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I143" s="28" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28183,10 +28094,10 @@
         <v>5</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I144" s="28" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28194,10 +28105,10 @@
         <v>5</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I145" s="28" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28205,10 +28116,10 @@
         <v>5</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I146" s="28" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28216,10 +28127,10 @@
         <v>5</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I147" s="28" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28227,10 +28138,10 @@
         <v>5</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I148" s="28" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28238,10 +28149,10 @@
         <v>5</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I149" s="28" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28249,10 +28160,10 @@
         <v>5</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I150" s="28" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28260,10 +28171,10 @@
         <v>5</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I151" s="28" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28271,10 +28182,10 @@
         <v>5</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I152" s="28" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28282,10 +28193,10 @@
         <v>5</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I153" s="28" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28293,10 +28204,10 @@
         <v>5</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="I154" s="28" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28304,10 +28215,10 @@
         <v>5</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I155" s="28" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28315,10 +28226,10 @@
         <v>5</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I156" s="28" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28326,10 +28237,10 @@
         <v>5</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I157" s="28" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28337,10 +28248,10 @@
         <v>5</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I158" s="28" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28348,10 +28259,10 @@
         <v>5</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I159" s="28" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28359,10 +28270,10 @@
         <v>5</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I160" s="28" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28370,10 +28281,10 @@
         <v>5</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I161" s="28" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28381,10 +28292,10 @@
         <v>5</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I162" s="28" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28392,10 +28303,10 @@
         <v>5</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I163" s="28" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28403,10 +28314,10 @@
         <v>5</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I164" s="28" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28414,10 +28325,10 @@
         <v>5</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I165" s="28" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28425,10 +28336,10 @@
         <v>5</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I166" s="28" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28436,10 +28347,10 @@
         <v>5</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I167" s="28" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28447,10 +28358,10 @@
         <v>5</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="I168" s="28" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28458,10 +28369,10 @@
         <v>5</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="I169" s="28" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28469,21 +28380,21 @@
         <v>5</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="I170" s="28" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
         <v>5</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I171" s="28" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28491,10 +28402,10 @@
         <v>5</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="I172" s="28" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28502,10 +28413,10 @@
         <v>5</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="I173" s="28" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28513,10 +28424,10 @@
         <v>5</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="I174" s="28" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28524,10 +28435,10 @@
         <v>5</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="I175" s="28" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28535,10 +28446,10 @@
         <v>5</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="I176" s="28" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28546,10 +28457,10 @@
         <v>5</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I177" s="28" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28557,10 +28468,10 @@
         <v>5</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="I178" s="28" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28568,10 +28479,10 @@
         <v>5</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="I179" s="28" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28579,10 +28490,10 @@
         <v>5</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="I180" s="28" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28590,10 +28501,10 @@
         <v>5</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="I181" s="28" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28601,10 +28512,10 @@
         <v>5</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="I182" s="28" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28612,10 +28523,10 @@
         <v>5</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="I183" s="28" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28623,10 +28534,10 @@
         <v>5</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="I184" s="28" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28634,10 +28545,10 @@
         <v>5</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="I185" s="28" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28645,10 +28556,10 @@
         <v>5</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="I186" s="28" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28656,10 +28567,10 @@
         <v>5</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="I187" s="28" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28667,10 +28578,10 @@
         <v>5</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="I188" s="28" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28678,10 +28589,10 @@
         <v>5</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="I189" s="28" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28689,10 +28600,10 @@
         <v>5</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="I190" s="28" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28700,10 +28611,10 @@
         <v>5</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I191" s="28" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28711,10 +28622,10 @@
         <v>5</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="I192" s="28" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28722,10 +28633,10 @@
         <v>5</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="I193" s="28" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28733,10 +28644,10 @@
         <v>5</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="I194" s="28" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28744,10 +28655,10 @@
         <v>5</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="I195" s="28" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28755,10 +28666,10 @@
         <v>5</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="I196" s="28" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28766,10 +28677,10 @@
         <v>5</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="I197" s="28" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28777,10 +28688,10 @@
         <v>5</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="I198" s="28" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28788,10 +28699,10 @@
         <v>5</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="I199" s="28" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28799,32 +28710,32 @@
         <v>5</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="I200" s="28" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="201" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
         <v>5</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="I201" s="28" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="202" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
         <v>5</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="I202" s="28" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28832,10 +28743,10 @@
         <v>5</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="I203" s="28" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28843,10 +28754,10 @@
         <v>5</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="I204" s="28" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28854,10 +28765,10 @@
         <v>5</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="I205" s="28" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28865,10 +28776,10 @@
         <v>5</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="I206" s="28" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28876,20 +28787,20 @@
         <v>5</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="I207" s="28" t="s">
-        <v>461</v>
+        <v>48</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I208" s="28" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I209" s="28" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28900,7 +28811,7 @@
         <v>46</v>
       </c>
       <c r="I210" s="28" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28911,7 +28822,7 @@
         <v>68</v>
       </c>
       <c r="I211" s="28" t="s">
-        <v>48</v>
+        <v>468</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28922,7 +28833,7 @@
         <v>73</v>
       </c>
       <c r="I212" s="28" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28933,7 +28844,7 @@
         <v>78</v>
       </c>
       <c r="I213" s="28" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28941,10 +28852,10 @@
         <v>6</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I214" s="28" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28955,7 +28866,7 @@
         <v>63</v>
       </c>
       <c r="I215" s="28" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28963,179 +28874,165 @@
         <v>6</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I216" s="28" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I217" s="28" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I218" s="28" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I219" s="28" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="I220" s="28" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="I221" s="28" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="I222" s="28" t="s">
-        <v>82</v>
+        <v>483</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I223" s="28" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I224" s="28" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I225" s="28" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I226" s="28" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I227" s="28" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I228" s="28" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I229" s="28" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I230" s="28" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I231" s="28" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I232" s="28" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I233" s="28" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I234" s="28" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I235" s="28" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I236" s="28" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I237" s="28" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I238" s="28" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I239" s="28" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I240" s="28" t="s">
-        <v>496</v>
-      </c>
+      <c r="I240" s="28"/>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I241" s="28" t="s">
-        <v>497</v>
-      </c>
+      <c r="I241" s="28"/>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I242" s="28" t="s">
-        <v>498</v>
-      </c>
+      <c r="I242" s="28"/>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I243" s="28" t="s">
-        <v>499</v>
-      </c>
+      <c r="I243" s="28"/>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I244" s="28" t="s">
-        <v>500</v>
-      </c>
+      <c r="I244" s="28"/>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I245" s="28" t="s">
-        <v>501</v>
-      </c>
+      <c r="I245" s="28"/>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I246" s="28" t="s">
-        <v>502</v>
-      </c>
+      <c r="I246" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -29162,7 +29059,7 @@
       <selection pane="topLeft" activeCell="B59" activeCellId="0" sqref="B59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.48"/>
@@ -29170,10 +29067,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="31" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29181,7 +29078,7 @@
         <v>4203</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29189,7 +29086,7 @@
         <v>4203100001</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29197,7 +29094,7 @@
         <v>4203100009</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29205,7 +29102,7 @@
         <v>6106</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29213,7 +29110,7 @@
         <v>6106100000</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29221,7 +29118,7 @@
         <v>6106200000</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29229,7 +29126,7 @@
         <v>6106901000</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29237,7 +29134,7 @@
         <v>6106903000</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29245,7 +29142,7 @@
         <v>6106905000</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29253,7 +29150,7 @@
         <v>6106909000</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29261,7 +29158,7 @@
         <v>6201</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29269,7 +29166,7 @@
         <v>6201200000</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29277,7 +29174,7 @@
         <v>6201300000</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29285,7 +29182,7 @@
         <v>6201400000</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29293,7 +29190,7 @@
         <v>6201900000</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29301,7 +29198,7 @@
         <v>6202</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29309,7 +29206,7 @@
         <v>6202200000</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29317,7 +29214,7 @@
         <v>6202300000</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29325,7 +29222,7 @@
         <v>6202400001</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29333,7 +29230,7 @@
         <v>6202400009</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29341,7 +29238,7 @@
         <v>6202900001</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29349,7 +29246,7 @@
         <v>6202900009</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29357,7 +29254,7 @@
         <v>6302</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29365,7 +29262,7 @@
         <v>6302100001</v>
       </c>
       <c r="B25" s="35" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29373,7 +29270,7 @@
         <v>6302100009</v>
       </c>
       <c r="B26" s="35" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29381,7 +29278,7 @@
         <v>6302210000</v>
       </c>
       <c r="B27" s="35" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29389,7 +29286,7 @@
         <v>6302221000</v>
       </c>
       <c r="B28" s="35" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29397,7 +29294,7 @@
         <v>6302229000</v>
       </c>
       <c r="B29" s="35" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29405,7 +29302,7 @@
         <v>6302310001</v>
       </c>
       <c r="B30" s="35" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29413,7 +29310,7 @@
         <v>6302310009</v>
       </c>
       <c r="B31" s="35" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29421,7 +29318,7 @@
         <v>6302321000</v>
       </c>
       <c r="B32" s="35" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29429,7 +29326,7 @@
         <v>6302329000</v>
       </c>
       <c r="B33" s="35" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29437,7 +29334,7 @@
         <v>6302392001</v>
       </c>
       <c r="B34" s="35" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29445,7 +29342,7 @@
         <v>6302392009</v>
       </c>
       <c r="B35" s="35" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29453,7 +29350,7 @@
         <v>6302399000</v>
       </c>
       <c r="B36" s="35" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29461,7 +29358,7 @@
         <v>6302400000</v>
       </c>
       <c r="B37" s="35" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29469,7 +29366,7 @@
         <v>6302510001</v>
       </c>
       <c r="B38" s="35" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29477,7 +29374,7 @@
         <v>6302510009</v>
       </c>
       <c r="B39" s="35" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29485,7 +29382,7 @@
         <v>6302531000</v>
       </c>
       <c r="B40" s="35" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29493,7 +29390,7 @@
         <v>6302539000</v>
       </c>
       <c r="B41" s="35" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29501,7 +29398,7 @@
         <v>6302591000</v>
       </c>
       <c r="B42" s="35" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29509,7 +29406,7 @@
         <v>6302599000</v>
       </c>
       <c r="B43" s="35" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29517,7 +29414,7 @@
         <v>6302600000</v>
       </c>
       <c r="B44" s="35" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29525,7 +29422,7 @@
         <v>6302910000</v>
       </c>
       <c r="B45" s="35" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29533,7 +29430,7 @@
         <v>6302931000</v>
       </c>
       <c r="B46" s="35" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29541,7 +29438,7 @@
         <v>6302939000</v>
       </c>
       <c r="B47" s="35" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29549,7 +29446,7 @@
         <v>6302991000</v>
       </c>
       <c r="B48" s="35" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29557,7 +29454,7 @@
         <v>6302999000</v>
       </c>
       <c r="B49" s="35" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29565,7 +29462,7 @@
         <v>4303</v>
       </c>
       <c r="B50" s="34" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29573,7 +29470,7 @@
         <v>4303109010</v>
       </c>
       <c r="B51" s="35" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29581,7 +29478,7 @@
         <v>4303109020</v>
       </c>
       <c r="B52" s="35" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29589,7 +29486,7 @@
         <v>4303109030</v>
       </c>
       <c r="B53" s="35" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29597,7 +29494,7 @@
         <v>4303109040</v>
       </c>
       <c r="B54" s="35" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29605,7 +29502,7 @@
         <v>4303109050</v>
       </c>
       <c r="B55" s="35" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29613,7 +29510,7 @@
         <v>4303109060</v>
       </c>
       <c r="B56" s="35" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29621,7 +29518,7 @@
         <v>4303109080</v>
       </c>
       <c r="B57" s="35" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29629,7 +29526,7 @@
         <v>3303</v>
       </c>
       <c r="B58" s="37" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29637,7 +29534,7 @@
         <v>3303001000</v>
       </c>
       <c r="B59" s="35" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29645,7 +29542,7 @@
         <v>3303009000</v>
       </c>
       <c r="B60" s="35" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29653,7 +29550,7 @@
         <v>4011</v>
       </c>
       <c r="B61" s="34" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29661,7 +29558,7 @@
         <v>4011100003</v>
       </c>
       <c r="B62" s="35" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29669,7 +29566,7 @@
         <v>4011100009</v>
       </c>
       <c r="B63" s="35" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29677,7 +29574,7 @@
         <v>4011201000</v>
       </c>
       <c r="B64" s="35" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29685,7 +29582,7 @@
         <v>4011209000</v>
       </c>
       <c r="B65" s="35" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29693,7 +29590,7 @@
         <v>4011400000</v>
       </c>
       <c r="B66" s="35" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29701,7 +29598,7 @@
         <v>4011700000</v>
       </c>
       <c r="B67" s="35" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29709,7 +29606,7 @@
         <v>4011800000</v>
       </c>
       <c r="B68" s="35" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29717,7 +29614,7 @@
         <v>4011900000</v>
       </c>
       <c r="B69" s="35" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29725,7 +29622,7 @@
         <v>6401</v>
       </c>
       <c r="B70" s="34" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29733,7 +29630,7 @@
         <v>6401100000</v>
       </c>
       <c r="B71" s="35" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29741,7 +29638,7 @@
         <v>6401921000</v>
       </c>
       <c r="B72" s="35" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29749,7 +29646,7 @@
         <v>6401929000</v>
       </c>
       <c r="B73" s="35" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29757,7 +29654,7 @@
         <v>6401990000</v>
       </c>
       <c r="B74" s="35" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29765,7 +29662,7 @@
         <v>6402</v>
       </c>
       <c r="B75" s="34" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29773,7 +29670,7 @@
         <v>6402121000</v>
       </c>
       <c r="B76" s="35" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29781,7 +29678,7 @@
         <v>6402129000</v>
       </c>
       <c r="B77" s="35" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29789,7 +29686,7 @@
         <v>6402190000</v>
       </c>
       <c r="B78" s="35" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29797,7 +29694,7 @@
         <v>6402200000</v>
       </c>
       <c r="B79" s="35" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29805,7 +29702,7 @@
         <v>6402911000</v>
       </c>
       <c r="B80" s="35" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29813,7 +29710,7 @@
         <v>6402919000</v>
       </c>
       <c r="B81" s="35" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29821,7 +29718,7 @@
         <v>6402990500</v>
       </c>
       <c r="B82" s="35" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29829,7 +29726,7 @@
         <v>6402991000</v>
       </c>
       <c r="B83" s="35" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29837,7 +29734,7 @@
         <v>6402993100</v>
       </c>
       <c r="B84" s="35" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29845,7 +29742,7 @@
         <v>6402993900</v>
       </c>
       <c r="B85" s="35" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29853,7 +29750,7 @@
         <v>6402995000</v>
       </c>
       <c r="B86" s="35" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29861,7 +29758,7 @@
         <v>6402999100</v>
       </c>
       <c r="B87" s="35" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29869,7 +29766,7 @@
         <v>6402999300</v>
       </c>
       <c r="B88" s="35" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29877,7 +29774,7 @@
         <v>6402999600</v>
       </c>
       <c r="B89" s="35" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29885,7 +29782,7 @@
         <v>6402999800</v>
       </c>
       <c r="B90" s="35" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29893,7 +29790,7 @@
         <v>6403</v>
       </c>
       <c r="B91" s="34" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29901,7 +29798,7 @@
         <v>6403120000</v>
       </c>
       <c r="B92" s="35" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29909,7 +29806,7 @@
         <v>6403190000</v>
       </c>
       <c r="B93" s="35" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29917,7 +29814,7 @@
         <v>6403200000</v>
       </c>
       <c r="B94" s="35" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29925,7 +29822,7 @@
         <v>6403400000</v>
       </c>
       <c r="B95" s="35" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29933,7 +29830,7 @@
         <v>6403510500</v>
       </c>
       <c r="B96" s="35" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29941,7 +29838,7 @@
         <v>6403511100</v>
       </c>
       <c r="B97" s="35" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29949,7 +29846,7 @@
         <v>6403511500</v>
       </c>
       <c r="B98" s="35" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29957,7 +29854,7 @@
         <v>6403511900</v>
       </c>
       <c r="B99" s="35" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29965,7 +29862,7 @@
         <v>6403519100</v>
       </c>
       <c r="B100" s="35" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29973,7 +29870,7 @@
         <v>6403519500</v>
       </c>
       <c r="B101" s="35" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29981,7 +29878,7 @@
         <v>6403519900</v>
       </c>
       <c r="B102" s="35" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29989,7 +29886,7 @@
         <v>6403590500</v>
       </c>
       <c r="B103" s="35" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29997,7 +29894,7 @@
         <v>6403591100</v>
       </c>
       <c r="B104" s="35" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30005,7 +29902,7 @@
         <v>6403593100</v>
       </c>
       <c r="B105" s="35" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30013,7 +29910,7 @@
         <v>6403593500</v>
       </c>
       <c r="B106" s="35" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30021,7 +29918,7 @@
         <v>6403593900</v>
       </c>
       <c r="B107" s="35" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30029,7 +29926,7 @@
         <v>6403595000</v>
       </c>
       <c r="B108" s="35" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30037,7 +29934,7 @@
         <v>6403599100</v>
       </c>
       <c r="B109" s="35" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30045,7 +29942,7 @@
         <v>6403599500</v>
       </c>
       <c r="B110" s="35" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30053,7 +29950,7 @@
         <v>6403599900</v>
       </c>
       <c r="B111" s="35" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30061,7 +29958,7 @@
         <v>6403910500</v>
       </c>
       <c r="B112" s="35" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30069,7 +29966,7 @@
         <v>6403911100</v>
       </c>
       <c r="B113" s="35" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30077,7 +29974,7 @@
         <v>6403911300</v>
       </c>
       <c r="B114" s="35" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30085,7 +29982,7 @@
         <v>6403911600</v>
       </c>
       <c r="B115" s="35" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30093,7 +29990,7 @@
         <v>6403911800</v>
       </c>
       <c r="B116" s="35" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30101,7 +29998,7 @@
         <v>6403919100</v>
       </c>
       <c r="B117" s="35" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30109,7 +30006,7 @@
         <v>6403919300</v>
       </c>
       <c r="B118" s="35" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30117,7 +30014,7 @@
         <v>6403919600</v>
       </c>
       <c r="B119" s="35" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30125,7 +30022,7 @@
         <v>6403919800</v>
       </c>
       <c r="B120" s="35" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30133,7 +30030,7 @@
         <v>6403990500</v>
       </c>
       <c r="B121" s="35" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30141,7 +30038,7 @@
         <v>6403991100</v>
       </c>
       <c r="B122" s="35" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30149,7 +30046,7 @@
         <v>6403993100</v>
       </c>
       <c r="B123" s="35" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30157,7 +30054,7 @@
         <v>6403993300</v>
       </c>
       <c r="B124" s="35" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30165,7 +30062,7 @@
         <v>6403993600</v>
       </c>
       <c r="B125" s="35" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30173,7 +30070,7 @@
         <v>6403993800</v>
       </c>
       <c r="B126" s="35" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30181,7 +30078,7 @@
         <v>6403995000</v>
       </c>
       <c r="B127" s="35" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30189,7 +30086,7 @@
         <v>6403999100</v>
       </c>
       <c r="B128" s="35" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30197,7 +30094,7 @@
         <v>6403999300</v>
       </c>
       <c r="B129" s="35" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30205,7 +30102,7 @@
         <v>6403999600</v>
       </c>
       <c r="B130" s="35" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30213,7 +30110,7 @@
         <v>6403999800</v>
       </c>
       <c r="B131" s="35" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30221,7 +30118,7 @@
         <v>6404</v>
       </c>
       <c r="B132" s="34" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30229,7 +30126,7 @@
         <v>6404110000</v>
       </c>
       <c r="B133" s="35" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30237,7 +30134,7 @@
         <v>6404191000</v>
       </c>
       <c r="B134" s="35" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30245,7 +30142,7 @@
         <v>6404199000</v>
       </c>
       <c r="B135" s="35" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30253,7 +30150,7 @@
         <v>6404191000</v>
       </c>
       <c r="B136" s="35" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30261,7 +30158,7 @@
         <v>6404209000</v>
       </c>
       <c r="B137" s="35" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30269,7 +30166,7 @@
         <v>6405</v>
       </c>
       <c r="B138" s="34" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30277,7 +30174,7 @@
         <v>6405100001</v>
       </c>
       <c r="B139" s="35" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30285,7 +30182,7 @@
         <v>6405100009</v>
       </c>
       <c r="B140" s="35" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30293,7 +30190,7 @@
         <v>6405201000</v>
       </c>
       <c r="B141" s="35" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30301,7 +30198,7 @@
         <v>6405209100</v>
       </c>
       <c r="B142" s="35" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30309,7 +30206,7 @@
         <v>6405209900</v>
       </c>
       <c r="B143" s="35" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30317,7 +30214,7 @@
         <v>6405901000</v>
       </c>
       <c r="B144" s="35" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30325,7 +30222,7 @@
         <v>6405909000</v>
       </c>
       <c r="B145" s="35" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
   </sheetData>

--- a/app/download_dir/парфюм_по наборам.xlsx
+++ b/app/download_dir/парфюм_по наборам.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="650">
   <si>
     <t xml:space="preserve">Код ТНВЭД</t>
   </si>
@@ -1152,7 +1152,7 @@
     <t xml:space="preserve">МАЛАВИ</t>
   </si>
   <si>
-    <t xml:space="preserve">МАЛАЙЗИЯ</t>
+    <t xml:space="preserve">МАЛАЙЗИИЯ</t>
   </si>
   <si>
     <t xml:space="preserve">МАЛИ</t>
@@ -1302,10 +1302,13 @@
     <t xml:space="preserve">РЕСПУБЛИКА КОРЕЯ</t>
   </si>
   <si>
+    <t xml:space="preserve">РЕСПУБЛИКА МАКЕДОНИЯ, БЫВШАЯ ЮГОСЛАВСКАЯ РЕСПУБЛИКА</t>
+  </si>
+  <si>
     <t xml:space="preserve">РЕЮНЬОН</t>
   </si>
   <si>
-    <t xml:space="preserve">РОССИЯ</t>
+    <t xml:space="preserve">РОССИЙСКАЯ ФЕДЕРАЦИЯ</t>
   </si>
   <si>
     <t xml:space="preserve">РУАНДА</t>
@@ -1335,13 +1338,7 @@
     <t xml:space="preserve">СЕВЕРНЫЕ МАРИАНСКИЕ ОСТРОВА</t>
   </si>
   <si>
-    <t xml:space="preserve">СЕЙШЕЛЬСКИЕ ОСТРОВА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СЕН-БАРТЕЛЕМИ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СЕН-МАРТЕН</t>
+    <t xml:space="preserve">СЕЙШЕЛЬСКИЕ ОСТОРВА</t>
   </si>
   <si>
     <t xml:space="preserve">СЕН-ПЬЕР И МИКЕЛОН</t>
@@ -1353,7 +1350,7 @@
     <t xml:space="preserve">СЕНТ-ВИНСЕНТ И ГРЕНАДИНЫ</t>
   </si>
   <si>
-    <t xml:space="preserve">СЕНТ-КИТС И НЕВИС</t>
+    <t xml:space="preserve">СЕНТ-КИТТС И НЕВИС</t>
   </si>
   <si>
     <t xml:space="preserve">СЕНТ-ЛЮСИЯ</t>
@@ -1365,16 +1362,19 @@
     <t xml:space="preserve">СИНГАПУР</t>
   </si>
   <si>
-    <t xml:space="preserve">СИРИЙСКАЯ АРАБСКАЯ РЕСПУБЛИКА</t>
+    <t xml:space="preserve">СИРИЯ</t>
   </si>
   <si>
     <t xml:space="preserve">СЛОВАКИЯ</t>
   </si>
   <si>
+    <t xml:space="preserve">СЛОВЕНИЯ</t>
+  </si>
+  <si>
     <t xml:space="preserve">СТАЛЬ/ЖЕЛЕЗО</t>
   </si>
   <si>
-    <t xml:space="preserve">СЛОВЕНИЯ</t>
+    <t xml:space="preserve">СОЕДИНЕННЫЕ ШТАТЫ</t>
   </si>
   <si>
     <t xml:space="preserve">СОЛОМОНОВЫ ОСТРОВА</t>
@@ -1395,13 +1395,16 @@
     <t xml:space="preserve">ТАДЖИКИСТАН</t>
   </si>
   <si>
-    <t xml:space="preserve">ТАЙВАНЬ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТАЙЛАНД</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТАНЗАНИЯ</t>
+    <t xml:space="preserve">ТАИЛАНД</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТАЙВАНЬ, ПРОВИНЦИЯ КИТАЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТАНЗАНИЯ, ОБЪЕДИНЕННАЯ РЕСПУБЛИКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТЕРКС И КАЙКОС</t>
   </si>
   <si>
     <t xml:space="preserve">ТОГО</t>
@@ -1422,7 +1425,7 @@
     <t xml:space="preserve">ТУНИС</t>
   </si>
   <si>
-    <t xml:space="preserve">ТУРКМЕНИСТАН</t>
+    <t xml:space="preserve">ТУРКМЕНИЯ</t>
   </si>
   <si>
     <t xml:space="preserve">УГАНДА</t>
@@ -1458,31 +1461,34 @@
     <t xml:space="preserve">ФРАНЦИЯ</t>
   </si>
   <si>
+    <t xml:space="preserve">Номер Регламента/стандарта</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТР ТС 009/2011 "О безопасности парфюмерно-косметической продукции"</t>
+  </si>
+  <si>
     <t xml:space="preserve">ФРАНЦУЗСКАЯ ГВИАНА</t>
   </si>
   <si>
-    <t xml:space="preserve">Номер Регламента/стандарта</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТР ТС 009/2011 "О безопасности парфюмерно-косметической продукции"</t>
+    <t xml:space="preserve">ТР ТС 005/2011 "О безопасности упаковки"</t>
   </si>
   <si>
     <t xml:space="preserve">ФРАНЦУЗСКАЯ ПОЛИНЕЗИЯ</t>
   </si>
   <si>
-    <t xml:space="preserve">ТР ТС 005/2011 "О безопасности упаковки"</t>
+    <t xml:space="preserve">ТР ТС 029/2012 "Требования к безопасности пищевых добавок, ароматизаторов и технологических вспомогательных средств"</t>
   </si>
   <si>
     <t xml:space="preserve">ФРАНЦУЗСКИЕ ЮЖНЫЕ ТЕРРИТОРИИ</t>
   </si>
   <si>
-    <t xml:space="preserve">ТР ТС 029/2012 "Требования к безопасности пищевых добавок, ароматизаторов и технологических вспомогательных средств"</t>
+    <t xml:space="preserve">ХЕРДА И МАКДОНАЛЬДА ОСТРОВА</t>
   </si>
   <si>
     <t xml:space="preserve">ХОРВАТИЯ</t>
   </si>
   <si>
-    <t xml:space="preserve">ЦЕНТРАЛЬНО-АФРИКАНСКАЯ РЕСПУБЛИКА</t>
+    <t xml:space="preserve">ЦЕНТРАЛЬНОАФРИКАНСКАЯ РЕСПУБЛИКА</t>
   </si>
   <si>
     <t xml:space="preserve">ЧАД</t>
@@ -1503,7 +1509,10 @@
     <t xml:space="preserve">ШВЕЦИЯ</t>
   </si>
   <si>
-    <t xml:space="preserve">ШРИ-ЛАНКА</t>
+    <t xml:space="preserve">ШПИЦБЕРГЕН И ЯН-МАЙЕН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ШРИ ЛАНКА</t>
   </si>
   <si>
     <t xml:space="preserve">ЭКВАДОР</t>
@@ -1524,7 +1533,10 @@
     <t xml:space="preserve">ЮЖНАЯ АФРИКА</t>
   </si>
   <si>
-    <t xml:space="preserve">ЮЖНАЯ ДЖОРДЖИЯ И ЮЖНЫЕ САНДВИЧЕВЫЕ ОСТРОВА</t>
+    <t xml:space="preserve">ЮЖНАЯ ГЕОРГИЯ И ЮЖНЫЕ САНДВИЧЕВЫ ОСТРОВА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЮЖНАЯ ОСЕТИЯ</t>
   </si>
   <si>
     <t xml:space="preserve">ЯМАЙКА</t>
@@ -3077,7 +3089,7 @@
       <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="46.42"/>
@@ -26007,11 +26019,11 @@
   </sheetPr>
   <dimension ref="A1:J246"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I243" activeCellId="0" sqref="I243"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="108.55"/>
@@ -28790,12 +28802,12 @@
         <v>335</v>
       </c>
       <c r="I207" s="28" t="s">
-        <v>48</v>
+        <v>465</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I208" s="28" t="s">
-        <v>465</v>
+        <v>48</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29014,16 +29026,24 @@
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I240" s="28"/>
+      <c r="I240" s="28" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I241" s="28"/>
+      <c r="I241" s="28" t="s">
+        <v>502</v>
+      </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I242" s="28"/>
+      <c r="I242" s="28" t="s">
+        <v>503</v>
+      </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I243" s="28"/>
+      <c r="I243" s="28" t="s">
+        <v>504</v>
+      </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I244" s="28"/>
@@ -29059,7 +29079,7 @@
       <selection pane="topLeft" activeCell="B59" activeCellId="0" sqref="B59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.48"/>
@@ -29067,10 +29087,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="31" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29078,7 +29098,7 @@
         <v>4203</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29086,7 +29106,7 @@
         <v>4203100001</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29094,7 +29114,7 @@
         <v>4203100009</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29102,7 +29122,7 @@
         <v>6106</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29110,7 +29130,7 @@
         <v>6106100000</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29118,7 +29138,7 @@
         <v>6106200000</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29126,7 +29146,7 @@
         <v>6106901000</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29134,7 +29154,7 @@
         <v>6106903000</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29142,7 +29162,7 @@
         <v>6106905000</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29150,7 +29170,7 @@
         <v>6106909000</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29158,7 +29178,7 @@
         <v>6201</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29166,7 +29186,7 @@
         <v>6201200000</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29174,7 +29194,7 @@
         <v>6201300000</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29182,7 +29202,7 @@
         <v>6201400000</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29190,7 +29210,7 @@
         <v>6201900000</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29198,7 +29218,7 @@
         <v>6202</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29206,7 +29226,7 @@
         <v>6202200000</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29214,7 +29234,7 @@
         <v>6202300000</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29222,7 +29242,7 @@
         <v>6202400001</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29230,7 +29250,7 @@
         <v>6202400009</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29238,7 +29258,7 @@
         <v>6202900001</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29246,7 +29266,7 @@
         <v>6202900009</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29254,7 +29274,7 @@
         <v>6302</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29262,7 +29282,7 @@
         <v>6302100001</v>
       </c>
       <c r="B25" s="35" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29270,7 +29290,7 @@
         <v>6302100009</v>
       </c>
       <c r="B26" s="35" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29278,7 +29298,7 @@
         <v>6302210000</v>
       </c>
       <c r="B27" s="35" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29286,7 +29306,7 @@
         <v>6302221000</v>
       </c>
       <c r="B28" s="35" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29294,7 +29314,7 @@
         <v>6302229000</v>
       </c>
       <c r="B29" s="35" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29302,7 +29322,7 @@
         <v>6302310001</v>
       </c>
       <c r="B30" s="35" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29310,7 +29330,7 @@
         <v>6302310009</v>
       </c>
       <c r="B31" s="35" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29318,7 +29338,7 @@
         <v>6302321000</v>
       </c>
       <c r="B32" s="35" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29326,7 +29346,7 @@
         <v>6302329000</v>
       </c>
       <c r="B33" s="35" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29334,7 +29354,7 @@
         <v>6302392001</v>
       </c>
       <c r="B34" s="35" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29342,7 +29362,7 @@
         <v>6302392009</v>
       </c>
       <c r="B35" s="35" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29350,7 +29370,7 @@
         <v>6302399000</v>
       </c>
       <c r="B36" s="35" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29358,7 +29378,7 @@
         <v>6302400000</v>
       </c>
       <c r="B37" s="35" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29366,7 +29386,7 @@
         <v>6302510001</v>
       </c>
       <c r="B38" s="35" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29374,7 +29394,7 @@
         <v>6302510009</v>
       </c>
       <c r="B39" s="35" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29382,7 +29402,7 @@
         <v>6302531000</v>
       </c>
       <c r="B40" s="35" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29390,7 +29410,7 @@
         <v>6302539000</v>
       </c>
       <c r="B41" s="35" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29398,7 +29418,7 @@
         <v>6302591000</v>
       </c>
       <c r="B42" s="35" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29406,7 +29426,7 @@
         <v>6302599000</v>
       </c>
       <c r="B43" s="35" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29414,7 +29434,7 @@
         <v>6302600000</v>
       </c>
       <c r="B44" s="35" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29422,7 +29442,7 @@
         <v>6302910000</v>
       </c>
       <c r="B45" s="35" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29430,7 +29450,7 @@
         <v>6302931000</v>
       </c>
       <c r="B46" s="35" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29438,7 +29458,7 @@
         <v>6302939000</v>
       </c>
       <c r="B47" s="35" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29446,7 +29466,7 @@
         <v>6302991000</v>
       </c>
       <c r="B48" s="35" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29454,7 +29474,7 @@
         <v>6302999000</v>
       </c>
       <c r="B49" s="35" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29462,7 +29482,7 @@
         <v>4303</v>
       </c>
       <c r="B50" s="34" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29470,7 +29490,7 @@
         <v>4303109010</v>
       </c>
       <c r="B51" s="35" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29478,7 +29498,7 @@
         <v>4303109020</v>
       </c>
       <c r="B52" s="35" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29486,7 +29506,7 @@
         <v>4303109030</v>
       </c>
       <c r="B53" s="35" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29494,7 +29514,7 @@
         <v>4303109040</v>
       </c>
       <c r="B54" s="35" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29502,7 +29522,7 @@
         <v>4303109050</v>
       </c>
       <c r="B55" s="35" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29510,7 +29530,7 @@
         <v>4303109060</v>
       </c>
       <c r="B56" s="35" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29518,7 +29538,7 @@
         <v>4303109080</v>
       </c>
       <c r="B57" s="35" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29526,7 +29546,7 @@
         <v>3303</v>
       </c>
       <c r="B58" s="37" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29534,7 +29554,7 @@
         <v>3303001000</v>
       </c>
       <c r="B59" s="35" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29542,7 +29562,7 @@
         <v>3303009000</v>
       </c>
       <c r="B60" s="35" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29550,7 +29570,7 @@
         <v>4011</v>
       </c>
       <c r="B61" s="34" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29558,7 +29578,7 @@
         <v>4011100003</v>
       </c>
       <c r="B62" s="35" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29566,7 +29586,7 @@
         <v>4011100009</v>
       </c>
       <c r="B63" s="35" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29574,7 +29594,7 @@
         <v>4011201000</v>
       </c>
       <c r="B64" s="35" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29582,7 +29602,7 @@
         <v>4011209000</v>
       </c>
       <c r="B65" s="35" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29590,7 +29610,7 @@
         <v>4011400000</v>
       </c>
       <c r="B66" s="35" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29598,7 +29618,7 @@
         <v>4011700000</v>
       </c>
       <c r="B67" s="35" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29606,7 +29626,7 @@
         <v>4011800000</v>
       </c>
       <c r="B68" s="35" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29614,7 +29634,7 @@
         <v>4011900000</v>
       </c>
       <c r="B69" s="35" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29622,7 +29642,7 @@
         <v>6401</v>
       </c>
       <c r="B70" s="34" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29630,7 +29650,7 @@
         <v>6401100000</v>
       </c>
       <c r="B71" s="35" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29638,7 +29658,7 @@
         <v>6401921000</v>
       </c>
       <c r="B72" s="35" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29646,7 +29666,7 @@
         <v>6401929000</v>
       </c>
       <c r="B73" s="35" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29654,7 +29674,7 @@
         <v>6401990000</v>
       </c>
       <c r="B74" s="35" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29662,7 +29682,7 @@
         <v>6402</v>
       </c>
       <c r="B75" s="34" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29670,7 +29690,7 @@
         <v>6402121000</v>
       </c>
       <c r="B76" s="35" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29678,7 +29698,7 @@
         <v>6402129000</v>
       </c>
       <c r="B77" s="35" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29686,7 +29706,7 @@
         <v>6402190000</v>
       </c>
       <c r="B78" s="35" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29694,7 +29714,7 @@
         <v>6402200000</v>
       </c>
       <c r="B79" s="35" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29702,7 +29722,7 @@
         <v>6402911000</v>
       </c>
       <c r="B80" s="35" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29710,7 +29730,7 @@
         <v>6402919000</v>
       </c>
       <c r="B81" s="35" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29718,7 +29738,7 @@
         <v>6402990500</v>
       </c>
       <c r="B82" s="35" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29726,7 +29746,7 @@
         <v>6402991000</v>
       </c>
       <c r="B83" s="35" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29734,7 +29754,7 @@
         <v>6402993100</v>
       </c>
       <c r="B84" s="35" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29742,7 +29762,7 @@
         <v>6402993900</v>
       </c>
       <c r="B85" s="35" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29750,7 +29770,7 @@
         <v>6402995000</v>
       </c>
       <c r="B86" s="35" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29758,7 +29778,7 @@
         <v>6402999100</v>
       </c>
       <c r="B87" s="35" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29766,7 +29786,7 @@
         <v>6402999300</v>
       </c>
       <c r="B88" s="35" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29774,7 +29794,7 @@
         <v>6402999600</v>
       </c>
       <c r="B89" s="35" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29782,7 +29802,7 @@
         <v>6402999800</v>
       </c>
       <c r="B90" s="35" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29790,7 +29810,7 @@
         <v>6403</v>
       </c>
       <c r="B91" s="34" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29798,7 +29818,7 @@
         <v>6403120000</v>
       </c>
       <c r="B92" s="35" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29806,7 +29826,7 @@
         <v>6403190000</v>
       </c>
       <c r="B93" s="35" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29814,7 +29834,7 @@
         <v>6403200000</v>
       </c>
       <c r="B94" s="35" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29822,7 +29842,7 @@
         <v>6403400000</v>
       </c>
       <c r="B95" s="35" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29830,7 +29850,7 @@
         <v>6403510500</v>
       </c>
       <c r="B96" s="35" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29838,7 +29858,7 @@
         <v>6403511100</v>
       </c>
       <c r="B97" s="35" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29846,7 +29866,7 @@
         <v>6403511500</v>
       </c>
       <c r="B98" s="35" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29854,7 +29874,7 @@
         <v>6403511900</v>
       </c>
       <c r="B99" s="35" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29862,7 +29882,7 @@
         <v>6403519100</v>
       </c>
       <c r="B100" s="35" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29870,7 +29890,7 @@
         <v>6403519500</v>
       </c>
       <c r="B101" s="35" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29878,7 +29898,7 @@
         <v>6403519900</v>
       </c>
       <c r="B102" s="35" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29886,7 +29906,7 @@
         <v>6403590500</v>
       </c>
       <c r="B103" s="35" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29894,7 +29914,7 @@
         <v>6403591100</v>
       </c>
       <c r="B104" s="35" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29902,7 +29922,7 @@
         <v>6403593100</v>
       </c>
       <c r="B105" s="35" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29910,7 +29930,7 @@
         <v>6403593500</v>
       </c>
       <c r="B106" s="35" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29918,7 +29938,7 @@
         <v>6403593900</v>
       </c>
       <c r="B107" s="35" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29926,7 +29946,7 @@
         <v>6403595000</v>
       </c>
       <c r="B108" s="35" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29934,7 +29954,7 @@
         <v>6403599100</v>
       </c>
       <c r="B109" s="35" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29942,7 +29962,7 @@
         <v>6403599500</v>
       </c>
       <c r="B110" s="35" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29950,7 +29970,7 @@
         <v>6403599900</v>
       </c>
       <c r="B111" s="35" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29958,7 +29978,7 @@
         <v>6403910500</v>
       </c>
       <c r="B112" s="35" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29966,7 +29986,7 @@
         <v>6403911100</v>
       </c>
       <c r="B113" s="35" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29974,7 +29994,7 @@
         <v>6403911300</v>
       </c>
       <c r="B114" s="35" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29982,7 +30002,7 @@
         <v>6403911600</v>
       </c>
       <c r="B115" s="35" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29990,7 +30010,7 @@
         <v>6403911800</v>
       </c>
       <c r="B116" s="35" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29998,7 +30018,7 @@
         <v>6403919100</v>
       </c>
       <c r="B117" s="35" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30006,7 +30026,7 @@
         <v>6403919300</v>
       </c>
       <c r="B118" s="35" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30014,7 +30034,7 @@
         <v>6403919600</v>
       </c>
       <c r="B119" s="35" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30022,7 +30042,7 @@
         <v>6403919800</v>
       </c>
       <c r="B120" s="35" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30030,7 +30050,7 @@
         <v>6403990500</v>
       </c>
       <c r="B121" s="35" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30038,7 +30058,7 @@
         <v>6403991100</v>
       </c>
       <c r="B122" s="35" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30046,7 +30066,7 @@
         <v>6403993100</v>
       </c>
       <c r="B123" s="35" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30054,7 +30074,7 @@
         <v>6403993300</v>
       </c>
       <c r="B124" s="35" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30062,7 +30082,7 @@
         <v>6403993600</v>
       </c>
       <c r="B125" s="35" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30070,7 +30090,7 @@
         <v>6403993800</v>
       </c>
       <c r="B126" s="35" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30078,7 +30098,7 @@
         <v>6403995000</v>
       </c>
       <c r="B127" s="35" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30086,7 +30106,7 @@
         <v>6403999100</v>
       </c>
       <c r="B128" s="35" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30094,7 +30114,7 @@
         <v>6403999300</v>
       </c>
       <c r="B129" s="35" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30102,7 +30122,7 @@
         <v>6403999600</v>
       </c>
       <c r="B130" s="35" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30110,7 +30130,7 @@
         <v>6403999800</v>
       </c>
       <c r="B131" s="35" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30118,7 +30138,7 @@
         <v>6404</v>
       </c>
       <c r="B132" s="34" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30126,7 +30146,7 @@
         <v>6404110000</v>
       </c>
       <c r="B133" s="35" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30134,7 +30154,7 @@
         <v>6404191000</v>
       </c>
       <c r="B134" s="35" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30142,7 +30162,7 @@
         <v>6404199000</v>
       </c>
       <c r="B135" s="35" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30150,7 +30170,7 @@
         <v>6404191000</v>
       </c>
       <c r="B136" s="35" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30158,7 +30178,7 @@
         <v>6404209000</v>
       </c>
       <c r="B137" s="35" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30166,7 +30186,7 @@
         <v>6405</v>
       </c>
       <c r="B138" s="34" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30174,7 +30194,7 @@
         <v>6405100001</v>
       </c>
       <c r="B139" s="35" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30182,7 +30202,7 @@
         <v>6405100009</v>
       </c>
       <c r="B140" s="35" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30190,7 +30210,7 @@
         <v>6405201000</v>
       </c>
       <c r="B141" s="35" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30198,7 +30218,7 @@
         <v>6405209100</v>
       </c>
       <c r="B142" s="35" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30206,7 +30226,7 @@
         <v>6405209900</v>
       </c>
       <c r="B143" s="35" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30214,7 +30234,7 @@
         <v>6405901000</v>
       </c>
       <c r="B144" s="35" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30222,7 +30242,7 @@
         <v>6405909000</v>
       </c>
       <c r="B145" s="35" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
     </row>
   </sheetData>

--- a/app/download_dir/парфюм_по наборам.xlsx
+++ b/app/download_dir/парфюм_по наборам.xlsx
@@ -1083,7 +1083,7 @@
     <t xml:space="preserve">УПАКОВКА С ПУЛЬВЕРИЗАТОРОМ</t>
   </si>
   <si>
-    <t xml:space="preserve">КОРЕЯ, ДЕМОКРАТИЧЕСКАЯ НАРОДНАЯ РЕСПУБЛИКА</t>
+    <t xml:space="preserve">СЕВЕРНАЯ КОРЕЯ</t>
   </si>
   <si>
     <t xml:space="preserve">КОСТА-РИКА</t>
@@ -1299,7 +1299,7 @@
     <t xml:space="preserve">РЕСПУБЛИКА КОНГО</t>
   </si>
   <si>
-    <t xml:space="preserve">РЕСПУБЛИКА КОРЕЯ</t>
+    <t xml:space="preserve">ЮЖНАЯ КОРЕЯ</t>
   </si>
   <si>
     <t xml:space="preserve">РЕСПУБЛИКА МАКЕДОНИЯ, БЫВШАЯ ЮГОСЛАВСКАЯ РЕСПУБЛИКА</t>
@@ -1374,7 +1374,7 @@
     <t xml:space="preserve">СТАЛЬ/ЖЕЛЕЗО</t>
   </si>
   <si>
-    <t xml:space="preserve">СОЕДИНЕННЫЕ ШТАТЫ</t>
+    <t xml:space="preserve">США</t>
   </si>
   <si>
     <t xml:space="preserve">СОЛОМОНОВЫ ОСТРОВА</t>
@@ -3089,7 +3089,7 @@
       <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="46.42"/>
@@ -26020,10 +26020,10 @@
   <dimension ref="A1:J246"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I243" activeCellId="0" sqref="I243"/>
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="108.55"/>
@@ -29079,7 +29079,7 @@
       <selection pane="topLeft" activeCell="B59" activeCellId="0" sqref="B59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.48"/>

--- a/app/download_dir/парфюм_по наборам.xlsx
+++ b/app/download_dir/парфюм_по наборам.xlsx
@@ -1239,7 +1239,7 @@
     <t xml:space="preserve">НОРВЕГИЯ</t>
   </si>
   <si>
-    <t xml:space="preserve">ОБЪЕДИНЕННЫЕ АРАБСКИЕ ЭМИРАТЫ</t>
+    <t xml:space="preserve">ОАЭ</t>
   </si>
   <si>
     <t xml:space="preserve">ОМАН</t>
@@ -3089,7 +3089,7 @@
       <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="46.42"/>
@@ -26019,11 +26019,11 @@
   </sheetPr>
   <dimension ref="A1:J246"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G127" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I147" activeCellId="0" sqref="I147"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="108.55"/>
@@ -29079,7 +29079,7 @@
       <selection pane="topLeft" activeCell="B59" activeCellId="0" sqref="B59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.48"/>

--- a/app/download_dir/парфюм_по наборам.xlsx
+++ b/app/download_dir/парфюм_по наборам.xlsx
@@ -1308,7 +1308,7 @@
     <t xml:space="preserve">РЕЮНЬОН</t>
   </si>
   <si>
-    <t xml:space="preserve">РОССИЙСКАЯ ФЕДЕРАЦИЯ</t>
+    <t xml:space="preserve">РОССИЯ</t>
   </si>
   <si>
     <t xml:space="preserve">РУАНДА</t>
@@ -2635,7 +2635,7 @@
     <numFmt numFmtId="164" formatCode="@"/>
     <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2728,6 +2728,12 @@
       <name val="JetBrains Mono"/>
       <family val="3"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -2853,7 +2859,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2978,7 +2984,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2986,11 +2996,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2998,7 +3008,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3089,7 +3099,7 @@
       <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="46.42"/>
@@ -26019,11 +26029,11 @@
   </sheetPr>
   <dimension ref="A1:J246"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G127" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I147" activeCellId="0" sqref="I147"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G142" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I169" activeCellId="0" sqref="I169"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="108.55"/>
@@ -28383,7 +28393,7 @@
       <c r="B169" s="0" t="s">
         <v>234</v>
       </c>
-      <c r="I169" s="28" t="s">
+      <c r="I169" s="31" t="s">
         <v>426</v>
       </c>
     </row>
@@ -29079,25 +29089,25 @@
       <selection pane="topLeft" activeCell="B59" activeCellId="0" sqref="B59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.48"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>505</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="33" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="33" t="n">
+      <c r="A2" s="34" t="n">
         <v>4203</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="35" t="s">
         <v>507</v>
       </c>
     </row>
@@ -29105,7 +29115,7 @@
       <c r="A3" s="1" t="n">
         <v>4203100001</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="36" t="s">
         <v>508</v>
       </c>
     </row>
@@ -29113,15 +29123,15 @@
       <c r="A4" s="1" t="n">
         <v>4203100009</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="36" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="33" t="n">
+      <c r="A5" s="34" t="n">
         <v>6106</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="35" t="s">
         <v>510</v>
       </c>
     </row>
@@ -29129,7 +29139,7 @@
       <c r="A6" s="1" t="n">
         <v>6106100000</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="37" t="s">
         <v>511</v>
       </c>
     </row>
@@ -29137,7 +29147,7 @@
       <c r="A7" s="1" t="n">
         <v>6106200000</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="37" t="s">
         <v>512</v>
       </c>
     </row>
@@ -29145,7 +29155,7 @@
       <c r="A8" s="1" t="n">
         <v>6106901000</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="37" t="s">
         <v>513</v>
       </c>
     </row>
@@ -29153,7 +29163,7 @@
       <c r="A9" s="1" t="n">
         <v>6106903000</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="37" t="s">
         <v>514</v>
       </c>
     </row>
@@ -29161,7 +29171,7 @@
       <c r="A10" s="1" t="n">
         <v>6106905000</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="37" t="s">
         <v>515</v>
       </c>
     </row>
@@ -29169,15 +29179,15 @@
       <c r="A11" s="1" t="n">
         <v>6106909000</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="37" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="33" t="n">
+      <c r="A12" s="34" t="n">
         <v>6201</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="35" t="s">
         <v>517</v>
       </c>
     </row>
@@ -29185,7 +29195,7 @@
       <c r="A13" s="1" t="n">
         <v>6201200000</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="36" t="s">
         <v>518</v>
       </c>
     </row>
@@ -29193,7 +29203,7 @@
       <c r="A14" s="1" t="n">
         <v>6201300000</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="36" t="s">
         <v>519</v>
       </c>
     </row>
@@ -29201,7 +29211,7 @@
       <c r="A15" s="1" t="n">
         <v>6201400000</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="36" t="s">
         <v>520</v>
       </c>
     </row>
@@ -29209,7 +29219,7 @@
       <c r="A16" s="1" t="n">
         <v>6201900000</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="36" t="s">
         <v>521</v>
       </c>
     </row>
@@ -29217,7 +29227,7 @@
       <c r="A17" s="1" t="n">
         <v>6202</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="36" t="s">
         <v>522</v>
       </c>
     </row>
@@ -29225,7 +29235,7 @@
       <c r="A18" s="1" t="n">
         <v>6202200000</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="36" t="s">
         <v>523</v>
       </c>
     </row>
@@ -29233,7 +29243,7 @@
       <c r="A19" s="1" t="n">
         <v>6202300000</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="36" t="s">
         <v>524</v>
       </c>
     </row>
@@ -29241,7 +29251,7 @@
       <c r="A20" s="1" t="n">
         <v>6202400001</v>
       </c>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="36" t="s">
         <v>525</v>
       </c>
     </row>
@@ -29249,7 +29259,7 @@
       <c r="A21" s="1" t="n">
         <v>6202400009</v>
       </c>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="36" t="s">
         <v>526</v>
       </c>
     </row>
@@ -29257,7 +29267,7 @@
       <c r="A22" s="1" t="n">
         <v>6202900001</v>
       </c>
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="36" t="s">
         <v>527</v>
       </c>
     </row>
@@ -29265,15 +29275,15 @@
       <c r="A23" s="1" t="n">
         <v>6202900009</v>
       </c>
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="36" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="33" t="n">
+      <c r="A24" s="34" t="n">
         <v>6302</v>
       </c>
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="35" t="s">
         <v>529</v>
       </c>
     </row>
@@ -29281,7 +29291,7 @@
       <c r="A25" s="1" t="n">
         <v>6302100001</v>
       </c>
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="36" t="s">
         <v>530</v>
       </c>
     </row>
@@ -29289,7 +29299,7 @@
       <c r="A26" s="1" t="n">
         <v>6302100009</v>
       </c>
-      <c r="B26" s="35" t="s">
+      <c r="B26" s="36" t="s">
         <v>531</v>
       </c>
     </row>
@@ -29297,7 +29307,7 @@
       <c r="A27" s="1" t="n">
         <v>6302210000</v>
       </c>
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="36" t="s">
         <v>532</v>
       </c>
     </row>
@@ -29305,7 +29315,7 @@
       <c r="A28" s="1" t="n">
         <v>6302221000</v>
       </c>
-      <c r="B28" s="35" t="s">
+      <c r="B28" s="36" t="s">
         <v>533</v>
       </c>
     </row>
@@ -29313,7 +29323,7 @@
       <c r="A29" s="1" t="n">
         <v>6302229000</v>
       </c>
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="36" t="s">
         <v>534</v>
       </c>
     </row>
@@ -29321,7 +29331,7 @@
       <c r="A30" s="1" t="n">
         <v>6302310001</v>
       </c>
-      <c r="B30" s="35" t="s">
+      <c r="B30" s="36" t="s">
         <v>535</v>
       </c>
     </row>
@@ -29329,7 +29339,7 @@
       <c r="A31" s="1" t="n">
         <v>6302310009</v>
       </c>
-      <c r="B31" s="35" t="s">
+      <c r="B31" s="36" t="s">
         <v>536</v>
       </c>
     </row>
@@ -29337,7 +29347,7 @@
       <c r="A32" s="1" t="n">
         <v>6302321000</v>
       </c>
-      <c r="B32" s="35" t="s">
+      <c r="B32" s="36" t="s">
         <v>537</v>
       </c>
     </row>
@@ -29345,7 +29355,7 @@
       <c r="A33" s="1" t="n">
         <v>6302329000</v>
       </c>
-      <c r="B33" s="35" t="s">
+      <c r="B33" s="36" t="s">
         <v>538</v>
       </c>
     </row>
@@ -29353,7 +29363,7 @@
       <c r="A34" s="1" t="n">
         <v>6302392001</v>
       </c>
-      <c r="B34" s="35" t="s">
+      <c r="B34" s="36" t="s">
         <v>539</v>
       </c>
     </row>
@@ -29361,7 +29371,7 @@
       <c r="A35" s="1" t="n">
         <v>6302392009</v>
       </c>
-      <c r="B35" s="35" t="s">
+      <c r="B35" s="36" t="s">
         <v>540</v>
       </c>
     </row>
@@ -29369,7 +29379,7 @@
       <c r="A36" s="1" t="n">
         <v>6302399000</v>
       </c>
-      <c r="B36" s="35" t="s">
+      <c r="B36" s="36" t="s">
         <v>541</v>
       </c>
     </row>
@@ -29377,7 +29387,7 @@
       <c r="A37" s="1" t="n">
         <v>6302400000</v>
       </c>
-      <c r="B37" s="35" t="s">
+      <c r="B37" s="36" t="s">
         <v>542</v>
       </c>
     </row>
@@ -29385,7 +29395,7 @@
       <c r="A38" s="1" t="n">
         <v>6302510001</v>
       </c>
-      <c r="B38" s="35" t="s">
+      <c r="B38" s="36" t="s">
         <v>543</v>
       </c>
     </row>
@@ -29393,7 +29403,7 @@
       <c r="A39" s="1" t="n">
         <v>6302510009</v>
       </c>
-      <c r="B39" s="35" t="s">
+      <c r="B39" s="36" t="s">
         <v>544</v>
       </c>
     </row>
@@ -29401,7 +29411,7 @@
       <c r="A40" s="1" t="n">
         <v>6302531000</v>
       </c>
-      <c r="B40" s="35" t="s">
+      <c r="B40" s="36" t="s">
         <v>545</v>
       </c>
     </row>
@@ -29409,7 +29419,7 @@
       <c r="A41" s="1" t="n">
         <v>6302539000</v>
       </c>
-      <c r="B41" s="35" t="s">
+      <c r="B41" s="36" t="s">
         <v>546</v>
       </c>
     </row>
@@ -29417,7 +29427,7 @@
       <c r="A42" s="1" t="n">
         <v>6302591000</v>
       </c>
-      <c r="B42" s="35" t="s">
+      <c r="B42" s="36" t="s">
         <v>547</v>
       </c>
     </row>
@@ -29425,7 +29435,7 @@
       <c r="A43" s="1" t="n">
         <v>6302599000</v>
       </c>
-      <c r="B43" s="35" t="s">
+      <c r="B43" s="36" t="s">
         <v>548</v>
       </c>
     </row>
@@ -29433,7 +29443,7 @@
       <c r="A44" s="1" t="n">
         <v>6302600000</v>
       </c>
-      <c r="B44" s="35" t="s">
+      <c r="B44" s="36" t="s">
         <v>549</v>
       </c>
     </row>
@@ -29441,7 +29451,7 @@
       <c r="A45" s="1" t="n">
         <v>6302910000</v>
       </c>
-      <c r="B45" s="35" t="s">
+      <c r="B45" s="36" t="s">
         <v>550</v>
       </c>
     </row>
@@ -29449,7 +29459,7 @@
       <c r="A46" s="1" t="n">
         <v>6302931000</v>
       </c>
-      <c r="B46" s="35" t="s">
+      <c r="B46" s="36" t="s">
         <v>551</v>
       </c>
     </row>
@@ -29457,7 +29467,7 @@
       <c r="A47" s="1" t="n">
         <v>6302939000</v>
       </c>
-      <c r="B47" s="35" t="s">
+      <c r="B47" s="36" t="s">
         <v>552</v>
       </c>
     </row>
@@ -29465,7 +29475,7 @@
       <c r="A48" s="1" t="n">
         <v>6302991000</v>
       </c>
-      <c r="B48" s="35" t="s">
+      <c r="B48" s="36" t="s">
         <v>553</v>
       </c>
     </row>
@@ -29473,15 +29483,15 @@
       <c r="A49" s="1" t="n">
         <v>6302999000</v>
       </c>
-      <c r="B49" s="35" t="s">
+      <c r="B49" s="36" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="33" t="n">
+      <c r="A50" s="34" t="n">
         <v>4303</v>
       </c>
-      <c r="B50" s="34" t="s">
+      <c r="B50" s="35" t="s">
         <v>555</v>
       </c>
     </row>
@@ -29489,7 +29499,7 @@
       <c r="A51" s="1" t="n">
         <v>4303109010</v>
       </c>
-      <c r="B51" s="35" t="s">
+      <c r="B51" s="36" t="s">
         <v>556</v>
       </c>
     </row>
@@ -29497,7 +29507,7 @@
       <c r="A52" s="1" t="n">
         <v>4303109020</v>
       </c>
-      <c r="B52" s="35" t="s">
+      <c r="B52" s="36" t="s">
         <v>557</v>
       </c>
     </row>
@@ -29505,7 +29515,7 @@
       <c r="A53" s="1" t="n">
         <v>4303109030</v>
       </c>
-      <c r="B53" s="35" t="s">
+      <c r="B53" s="36" t="s">
         <v>558</v>
       </c>
     </row>
@@ -29513,7 +29523,7 @@
       <c r="A54" s="1" t="n">
         <v>4303109040</v>
       </c>
-      <c r="B54" s="35" t="s">
+      <c r="B54" s="36" t="s">
         <v>559</v>
       </c>
     </row>
@@ -29521,7 +29531,7 @@
       <c r="A55" s="1" t="n">
         <v>4303109050</v>
       </c>
-      <c r="B55" s="35" t="s">
+      <c r="B55" s="36" t="s">
         <v>560</v>
       </c>
     </row>
@@ -29529,7 +29539,7 @@
       <c r="A56" s="1" t="n">
         <v>4303109060</v>
       </c>
-      <c r="B56" s="35" t="s">
+      <c r="B56" s="36" t="s">
         <v>561</v>
       </c>
     </row>
@@ -29537,15 +29547,15 @@
       <c r="A57" s="1" t="n">
         <v>4303109080</v>
       </c>
-      <c r="B57" s="35" t="s">
+      <c r="B57" s="36" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="33" t="n">
+      <c r="A58" s="34" t="n">
         <v>3303</v>
       </c>
-      <c r="B58" s="37" t="s">
+      <c r="B58" s="38" t="s">
         <v>563</v>
       </c>
     </row>
@@ -29553,7 +29563,7 @@
       <c r="A59" s="1" t="n">
         <v>3303001000</v>
       </c>
-      <c r="B59" s="35" t="s">
+      <c r="B59" s="36" t="s">
         <v>564</v>
       </c>
     </row>
@@ -29561,15 +29571,15 @@
       <c r="A60" s="1" t="n">
         <v>3303009000</v>
       </c>
-      <c r="B60" s="35" t="s">
+      <c r="B60" s="36" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="33" t="n">
+      <c r="A61" s="34" t="n">
         <v>4011</v>
       </c>
-      <c r="B61" s="34" t="s">
+      <c r="B61" s="35" t="s">
         <v>566</v>
       </c>
     </row>
@@ -29577,7 +29587,7 @@
       <c r="A62" s="1" t="n">
         <v>4011100003</v>
       </c>
-      <c r="B62" s="35" t="s">
+      <c r="B62" s="36" t="s">
         <v>567</v>
       </c>
     </row>
@@ -29585,7 +29595,7 @@
       <c r="A63" s="1" t="n">
         <v>4011100009</v>
       </c>
-      <c r="B63" s="35" t="s">
+      <c r="B63" s="36" t="s">
         <v>568</v>
       </c>
     </row>
@@ -29593,7 +29603,7 @@
       <c r="A64" s="1" t="n">
         <v>4011201000</v>
       </c>
-      <c r="B64" s="35" t="s">
+      <c r="B64" s="36" t="s">
         <v>569</v>
       </c>
     </row>
@@ -29601,7 +29611,7 @@
       <c r="A65" s="1" t="n">
         <v>4011209000</v>
       </c>
-      <c r="B65" s="35" t="s">
+      <c r="B65" s="36" t="s">
         <v>570</v>
       </c>
     </row>
@@ -29609,7 +29619,7 @@
       <c r="A66" s="1" t="n">
         <v>4011400000</v>
       </c>
-      <c r="B66" s="35" t="s">
+      <c r="B66" s="36" t="s">
         <v>571</v>
       </c>
     </row>
@@ -29617,7 +29627,7 @@
       <c r="A67" s="1" t="n">
         <v>4011700000</v>
       </c>
-      <c r="B67" s="35" t="s">
+      <c r="B67" s="36" t="s">
         <v>572</v>
       </c>
     </row>
@@ -29625,7 +29635,7 @@
       <c r="A68" s="1" t="n">
         <v>4011800000</v>
       </c>
-      <c r="B68" s="35" t="s">
+      <c r="B68" s="36" t="s">
         <v>573</v>
       </c>
     </row>
@@ -29633,15 +29643,15 @@
       <c r="A69" s="1" t="n">
         <v>4011900000</v>
       </c>
-      <c r="B69" s="35" t="s">
+      <c r="B69" s="36" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="33" t="n">
+      <c r="A70" s="34" t="n">
         <v>6401</v>
       </c>
-      <c r="B70" s="34" t="s">
+      <c r="B70" s="35" t="s">
         <v>575</v>
       </c>
     </row>
@@ -29649,7 +29659,7 @@
       <c r="A71" s="1" t="n">
         <v>6401100000</v>
       </c>
-      <c r="B71" s="35" t="s">
+      <c r="B71" s="36" t="s">
         <v>576</v>
       </c>
     </row>
@@ -29657,7 +29667,7 @@
       <c r="A72" s="1" t="n">
         <v>6401921000</v>
       </c>
-      <c r="B72" s="35" t="s">
+      <c r="B72" s="36" t="s">
         <v>577</v>
       </c>
     </row>
@@ -29665,7 +29675,7 @@
       <c r="A73" s="1" t="n">
         <v>6401929000</v>
       </c>
-      <c r="B73" s="35" t="s">
+      <c r="B73" s="36" t="s">
         <v>578</v>
       </c>
     </row>
@@ -29673,15 +29683,15 @@
       <c r="A74" s="1" t="n">
         <v>6401990000</v>
       </c>
-      <c r="B74" s="35" t="s">
+      <c r="B74" s="36" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="33" t="n">
+      <c r="A75" s="34" t="n">
         <v>6402</v>
       </c>
-      <c r="B75" s="34" t="s">
+      <c r="B75" s="35" t="s">
         <v>580</v>
       </c>
     </row>
@@ -29689,7 +29699,7 @@
       <c r="A76" s="1" t="n">
         <v>6402121000</v>
       </c>
-      <c r="B76" s="35" t="s">
+      <c r="B76" s="36" t="s">
         <v>581</v>
       </c>
     </row>
@@ -29697,7 +29707,7 @@
       <c r="A77" s="1" t="n">
         <v>6402129000</v>
       </c>
-      <c r="B77" s="35" t="s">
+      <c r="B77" s="36" t="s">
         <v>582</v>
       </c>
     </row>
@@ -29705,7 +29715,7 @@
       <c r="A78" s="1" t="n">
         <v>6402190000</v>
       </c>
-      <c r="B78" s="35" t="s">
+      <c r="B78" s="36" t="s">
         <v>583</v>
       </c>
     </row>
@@ -29713,7 +29723,7 @@
       <c r="A79" s="1" t="n">
         <v>6402200000</v>
       </c>
-      <c r="B79" s="35" t="s">
+      <c r="B79" s="36" t="s">
         <v>584</v>
       </c>
     </row>
@@ -29721,7 +29731,7 @@
       <c r="A80" s="1" t="n">
         <v>6402911000</v>
       </c>
-      <c r="B80" s="35" t="s">
+      <c r="B80" s="36" t="s">
         <v>585</v>
       </c>
     </row>
@@ -29729,7 +29739,7 @@
       <c r="A81" s="1" t="n">
         <v>6402919000</v>
       </c>
-      <c r="B81" s="35" t="s">
+      <c r="B81" s="36" t="s">
         <v>586</v>
       </c>
     </row>
@@ -29737,7 +29747,7 @@
       <c r="A82" s="1" t="n">
         <v>6402990500</v>
       </c>
-      <c r="B82" s="35" t="s">
+      <c r="B82" s="36" t="s">
         <v>587</v>
       </c>
     </row>
@@ -29745,7 +29755,7 @@
       <c r="A83" s="1" t="n">
         <v>6402991000</v>
       </c>
-      <c r="B83" s="35" t="s">
+      <c r="B83" s="36" t="s">
         <v>588</v>
       </c>
     </row>
@@ -29753,7 +29763,7 @@
       <c r="A84" s="1" t="n">
         <v>6402993100</v>
       </c>
-      <c r="B84" s="35" t="s">
+      <c r="B84" s="36" t="s">
         <v>589</v>
       </c>
     </row>
@@ -29761,7 +29771,7 @@
       <c r="A85" s="1" t="n">
         <v>6402993900</v>
       </c>
-      <c r="B85" s="35" t="s">
+      <c r="B85" s="36" t="s">
         <v>590</v>
       </c>
     </row>
@@ -29769,7 +29779,7 @@
       <c r="A86" s="1" t="n">
         <v>6402995000</v>
       </c>
-      <c r="B86" s="35" t="s">
+      <c r="B86" s="36" t="s">
         <v>591</v>
       </c>
     </row>
@@ -29777,7 +29787,7 @@
       <c r="A87" s="1" t="n">
         <v>6402999100</v>
       </c>
-      <c r="B87" s="35" t="s">
+      <c r="B87" s="36" t="s">
         <v>592</v>
       </c>
     </row>
@@ -29785,7 +29795,7 @@
       <c r="A88" s="1" t="n">
         <v>6402999300</v>
       </c>
-      <c r="B88" s="35" t="s">
+      <c r="B88" s="36" t="s">
         <v>593</v>
       </c>
     </row>
@@ -29793,7 +29803,7 @@
       <c r="A89" s="1" t="n">
         <v>6402999600</v>
       </c>
-      <c r="B89" s="35" t="s">
+      <c r="B89" s="36" t="s">
         <v>594</v>
       </c>
     </row>
@@ -29801,15 +29811,15 @@
       <c r="A90" s="1" t="n">
         <v>6402999800</v>
       </c>
-      <c r="B90" s="35" t="s">
+      <c r="B90" s="36" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="33" t="n">
+      <c r="A91" s="34" t="n">
         <v>6403</v>
       </c>
-      <c r="B91" s="34" t="s">
+      <c r="B91" s="35" t="s">
         <v>595</v>
       </c>
     </row>
@@ -29817,7 +29827,7 @@
       <c r="A92" s="1" t="n">
         <v>6403120000</v>
       </c>
-      <c r="B92" s="35" t="s">
+      <c r="B92" s="36" t="s">
         <v>596</v>
       </c>
     </row>
@@ -29825,7 +29835,7 @@
       <c r="A93" s="1" t="n">
         <v>6403190000</v>
       </c>
-      <c r="B93" s="35" t="s">
+      <c r="B93" s="36" t="s">
         <v>597</v>
       </c>
     </row>
@@ -29833,7 +29843,7 @@
       <c r="A94" s="1" t="n">
         <v>6403200000</v>
       </c>
-      <c r="B94" s="35" t="s">
+      <c r="B94" s="36" t="s">
         <v>598</v>
       </c>
     </row>
@@ -29841,7 +29851,7 @@
       <c r="A95" s="1" t="n">
         <v>6403400000</v>
       </c>
-      <c r="B95" s="35" t="s">
+      <c r="B95" s="36" t="s">
         <v>599</v>
       </c>
     </row>
@@ -29849,7 +29859,7 @@
       <c r="A96" s="1" t="n">
         <v>6403510500</v>
       </c>
-      <c r="B96" s="35" t="s">
+      <c r="B96" s="36" t="s">
         <v>600</v>
       </c>
     </row>
@@ -29857,7 +29867,7 @@
       <c r="A97" s="1" t="n">
         <v>6403511100</v>
       </c>
-      <c r="B97" s="35" t="s">
+      <c r="B97" s="36" t="s">
         <v>601</v>
       </c>
     </row>
@@ -29865,7 +29875,7 @@
       <c r="A98" s="1" t="n">
         <v>6403511500</v>
       </c>
-      <c r="B98" s="35" t="s">
+      <c r="B98" s="36" t="s">
         <v>602</v>
       </c>
     </row>
@@ -29873,7 +29883,7 @@
       <c r="A99" s="1" t="n">
         <v>6403511900</v>
       </c>
-      <c r="B99" s="35" t="s">
+      <c r="B99" s="36" t="s">
         <v>603</v>
       </c>
     </row>
@@ -29881,7 +29891,7 @@
       <c r="A100" s="1" t="n">
         <v>6403519100</v>
       </c>
-      <c r="B100" s="35" t="s">
+      <c r="B100" s="36" t="s">
         <v>604</v>
       </c>
     </row>
@@ -29889,7 +29899,7 @@
       <c r="A101" s="1" t="n">
         <v>6403519500</v>
       </c>
-      <c r="B101" s="35" t="s">
+      <c r="B101" s="36" t="s">
         <v>605</v>
       </c>
     </row>
@@ -29897,7 +29907,7 @@
       <c r="A102" s="1" t="n">
         <v>6403519900</v>
       </c>
-      <c r="B102" s="35" t="s">
+      <c r="B102" s="36" t="s">
         <v>606</v>
       </c>
     </row>
@@ -29905,7 +29915,7 @@
       <c r="A103" s="1" t="n">
         <v>6403590500</v>
       </c>
-      <c r="B103" s="35" t="s">
+      <c r="B103" s="36" t="s">
         <v>607</v>
       </c>
     </row>
@@ -29913,7 +29923,7 @@
       <c r="A104" s="1" t="n">
         <v>6403591100</v>
       </c>
-      <c r="B104" s="35" t="s">
+      <c r="B104" s="36" t="s">
         <v>608</v>
       </c>
     </row>
@@ -29921,7 +29931,7 @@
       <c r="A105" s="1" t="n">
         <v>6403593100</v>
       </c>
-      <c r="B105" s="35" t="s">
+      <c r="B105" s="36" t="s">
         <v>609</v>
       </c>
     </row>
@@ -29929,7 +29939,7 @@
       <c r="A106" s="1" t="n">
         <v>6403593500</v>
       </c>
-      <c r="B106" s="35" t="s">
+      <c r="B106" s="36" t="s">
         <v>610</v>
       </c>
     </row>
@@ -29937,7 +29947,7 @@
       <c r="A107" s="1" t="n">
         <v>6403593900</v>
       </c>
-      <c r="B107" s="35" t="s">
+      <c r="B107" s="36" t="s">
         <v>611</v>
       </c>
     </row>
@@ -29945,7 +29955,7 @@
       <c r="A108" s="1" t="n">
         <v>6403595000</v>
       </c>
-      <c r="B108" s="35" t="s">
+      <c r="B108" s="36" t="s">
         <v>612</v>
       </c>
     </row>
@@ -29953,7 +29963,7 @@
       <c r="A109" s="1" t="n">
         <v>6403599100</v>
       </c>
-      <c r="B109" s="35" t="s">
+      <c r="B109" s="36" t="s">
         <v>613</v>
       </c>
     </row>
@@ -29961,7 +29971,7 @@
       <c r="A110" s="1" t="n">
         <v>6403599500</v>
       </c>
-      <c r="B110" s="35" t="s">
+      <c r="B110" s="36" t="s">
         <v>614</v>
       </c>
     </row>
@@ -29969,7 +29979,7 @@
       <c r="A111" s="1" t="n">
         <v>6403599900</v>
       </c>
-      <c r="B111" s="35" t="s">
+      <c r="B111" s="36" t="s">
         <v>615</v>
       </c>
     </row>
@@ -29977,7 +29987,7 @@
       <c r="A112" s="1" t="n">
         <v>6403910500</v>
       </c>
-      <c r="B112" s="35" t="s">
+      <c r="B112" s="36" t="s">
         <v>616</v>
       </c>
     </row>
@@ -29985,7 +29995,7 @@
       <c r="A113" s="1" t="n">
         <v>6403911100</v>
       </c>
-      <c r="B113" s="35" t="s">
+      <c r="B113" s="36" t="s">
         <v>617</v>
       </c>
     </row>
@@ -29993,7 +30003,7 @@
       <c r="A114" s="1" t="n">
         <v>6403911300</v>
       </c>
-      <c r="B114" s="35" t="s">
+      <c r="B114" s="36" t="s">
         <v>618</v>
       </c>
     </row>
@@ -30001,7 +30011,7 @@
       <c r="A115" s="1" t="n">
         <v>6403911600</v>
       </c>
-      <c r="B115" s="35" t="s">
+      <c r="B115" s="36" t="s">
         <v>619</v>
       </c>
     </row>
@@ -30009,7 +30019,7 @@
       <c r="A116" s="1" t="n">
         <v>6403911800</v>
       </c>
-      <c r="B116" s="35" t="s">
+      <c r="B116" s="36" t="s">
         <v>620</v>
       </c>
     </row>
@@ -30017,7 +30027,7 @@
       <c r="A117" s="1" t="n">
         <v>6403919100</v>
       </c>
-      <c r="B117" s="35" t="s">
+      <c r="B117" s="36" t="s">
         <v>621</v>
       </c>
     </row>
@@ -30025,7 +30035,7 @@
       <c r="A118" s="1" t="n">
         <v>6403919300</v>
       </c>
-      <c r="B118" s="35" t="s">
+      <c r="B118" s="36" t="s">
         <v>622</v>
       </c>
     </row>
@@ -30033,7 +30043,7 @@
       <c r="A119" s="1" t="n">
         <v>6403919600</v>
       </c>
-      <c r="B119" s="35" t="s">
+      <c r="B119" s="36" t="s">
         <v>623</v>
       </c>
     </row>
@@ -30041,7 +30051,7 @@
       <c r="A120" s="1" t="n">
         <v>6403919800</v>
       </c>
-      <c r="B120" s="35" t="s">
+      <c r="B120" s="36" t="s">
         <v>624</v>
       </c>
     </row>
@@ -30049,7 +30059,7 @@
       <c r="A121" s="1" t="n">
         <v>6403990500</v>
       </c>
-      <c r="B121" s="35" t="s">
+      <c r="B121" s="36" t="s">
         <v>625</v>
       </c>
     </row>
@@ -30057,7 +30067,7 @@
       <c r="A122" s="1" t="n">
         <v>6403991100</v>
       </c>
-      <c r="B122" s="35" t="s">
+      <c r="B122" s="36" t="s">
         <v>626</v>
       </c>
     </row>
@@ -30065,7 +30075,7 @@
       <c r="A123" s="1" t="n">
         <v>6403993100</v>
       </c>
-      <c r="B123" s="35" t="s">
+      <c r="B123" s="36" t="s">
         <v>627</v>
       </c>
     </row>
@@ -30073,7 +30083,7 @@
       <c r="A124" s="1" t="n">
         <v>6403993300</v>
       </c>
-      <c r="B124" s="35" t="s">
+      <c r="B124" s="36" t="s">
         <v>628</v>
       </c>
     </row>
@@ -30081,7 +30091,7 @@
       <c r="A125" s="1" t="n">
         <v>6403993600</v>
       </c>
-      <c r="B125" s="35" t="s">
+      <c r="B125" s="36" t="s">
         <v>629</v>
       </c>
     </row>
@@ -30089,7 +30099,7 @@
       <c r="A126" s="1" t="n">
         <v>6403993800</v>
       </c>
-      <c r="B126" s="35" t="s">
+      <c r="B126" s="36" t="s">
         <v>630</v>
       </c>
     </row>
@@ -30097,7 +30107,7 @@
       <c r="A127" s="1" t="n">
         <v>6403995000</v>
       </c>
-      <c r="B127" s="35" t="s">
+      <c r="B127" s="36" t="s">
         <v>631</v>
       </c>
     </row>
@@ -30105,7 +30115,7 @@
       <c r="A128" s="1" t="n">
         <v>6403999100</v>
       </c>
-      <c r="B128" s="35" t="s">
+      <c r="B128" s="36" t="s">
         <v>632</v>
       </c>
     </row>
@@ -30113,7 +30123,7 @@
       <c r="A129" s="1" t="n">
         <v>6403999300</v>
       </c>
-      <c r="B129" s="35" t="s">
+      <c r="B129" s="36" t="s">
         <v>633</v>
       </c>
     </row>
@@ -30121,7 +30131,7 @@
       <c r="A130" s="1" t="n">
         <v>6403999600</v>
       </c>
-      <c r="B130" s="35" t="s">
+      <c r="B130" s="36" t="s">
         <v>634</v>
       </c>
     </row>
@@ -30129,15 +30139,15 @@
       <c r="A131" s="1" t="n">
         <v>6403999800</v>
       </c>
-      <c r="B131" s="35" t="s">
+      <c r="B131" s="36" t="s">
         <v>635</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="33" t="n">
+      <c r="A132" s="34" t="n">
         <v>6404</v>
       </c>
-      <c r="B132" s="34" t="s">
+      <c r="B132" s="35" t="s">
         <v>636</v>
       </c>
     </row>
@@ -30145,7 +30155,7 @@
       <c r="A133" s="1" t="n">
         <v>6404110000</v>
       </c>
-      <c r="B133" s="35" t="s">
+      <c r="B133" s="36" t="s">
         <v>637</v>
       </c>
     </row>
@@ -30153,7 +30163,7 @@
       <c r="A134" s="1" t="n">
         <v>6404191000</v>
       </c>
-      <c r="B134" s="35" t="s">
+      <c r="B134" s="36" t="s">
         <v>638</v>
       </c>
     </row>
@@ -30161,7 +30171,7 @@
       <c r="A135" s="1" t="n">
         <v>6404199000</v>
       </c>
-      <c r="B135" s="35" t="s">
+      <c r="B135" s="36" t="s">
         <v>639</v>
       </c>
     </row>
@@ -30169,7 +30179,7 @@
       <c r="A136" s="1" t="n">
         <v>6404191000</v>
       </c>
-      <c r="B136" s="35" t="s">
+      <c r="B136" s="36" t="s">
         <v>640</v>
       </c>
     </row>
@@ -30177,15 +30187,15 @@
       <c r="A137" s="1" t="n">
         <v>6404209000</v>
       </c>
-      <c r="B137" s="35" t="s">
+      <c r="B137" s="36" t="s">
         <v>641</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="33" t="n">
+      <c r="A138" s="34" t="n">
         <v>6405</v>
       </c>
-      <c r="B138" s="34" t="s">
+      <c r="B138" s="35" t="s">
         <v>642</v>
       </c>
     </row>
@@ -30193,7 +30203,7 @@
       <c r="A139" s="1" t="n">
         <v>6405100001</v>
       </c>
-      <c r="B139" s="35" t="s">
+      <c r="B139" s="36" t="s">
         <v>643</v>
       </c>
     </row>
@@ -30201,7 +30211,7 @@
       <c r="A140" s="1" t="n">
         <v>6405100009</v>
       </c>
-      <c r="B140" s="35" t="s">
+      <c r="B140" s="36" t="s">
         <v>644</v>
       </c>
     </row>
@@ -30209,7 +30219,7 @@
       <c r="A141" s="1" t="n">
         <v>6405201000</v>
       </c>
-      <c r="B141" s="35" t="s">
+      <c r="B141" s="36" t="s">
         <v>645</v>
       </c>
     </row>
@@ -30217,7 +30227,7 @@
       <c r="A142" s="1" t="n">
         <v>6405209100</v>
       </c>
-      <c r="B142" s="35" t="s">
+      <c r="B142" s="36" t="s">
         <v>646</v>
       </c>
     </row>
@@ -30225,7 +30235,7 @@
       <c r="A143" s="1" t="n">
         <v>6405209900</v>
       </c>
-      <c r="B143" s="35" t="s">
+      <c r="B143" s="36" t="s">
         <v>647</v>
       </c>
     </row>
@@ -30233,7 +30243,7 @@
       <c r="A144" s="1" t="n">
         <v>6405901000</v>
       </c>
-      <c r="B144" s="35" t="s">
+      <c r="B144" s="36" t="s">
         <v>648</v>
       </c>
     </row>
@@ -30241,7 +30251,7 @@
       <c r="A145" s="1" t="n">
         <v>6405909000</v>
       </c>
-      <c r="B145" s="35" t="s">
+      <c r="B145" s="36" t="s">
         <v>649</v>
       </c>
     </row>

--- a/app/download_dir/парфюм_по наборам.xlsx
+++ b/app/download_dir/парфюм_по наборам.xlsx
@@ -459,7 +459,7 @@
     <t xml:space="preserve">ЖЕСТЬ</t>
   </si>
   <si>
-    <t xml:space="preserve">БЕЛОРУССИЯ</t>
+    <t xml:space="preserve">РЕСПУБЛИКА БЕЛАРУСЬ</t>
   </si>
   <si>
     <t xml:space="preserve">КЕЙС ДЛЯ БАНОК</t>
@@ -2734,6 +2734,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -3096,10 +3097,10 @@
   <dimension ref="A1:Q1723"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="L1638" activeCellId="0" sqref="L1638"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="46.42"/>
@@ -22393,3156 +22394,3787 @@
       <c r="O1007" s="23"/>
     </row>
     <row r="1008" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1008" s="18"/>
       <c r="M1008" s="22"/>
       <c r="N1008" s="23"/>
       <c r="O1008" s="23"/>
     </row>
     <row r="1009" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1009" s="18"/>
       <c r="M1009" s="22"/>
       <c r="N1009" s="23"/>
       <c r="O1009" s="23"/>
     </row>
     <row r="1010" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1010" s="18"/>
       <c r="M1010" s="22"/>
       <c r="N1010" s="23"/>
       <c r="O1010" s="23"/>
     </row>
     <row r="1011" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1011" s="18"/>
       <c r="M1011" s="22"/>
       <c r="N1011" s="23"/>
       <c r="O1011" s="23"/>
     </row>
     <row r="1012" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1012" s="18"/>
       <c r="M1012" s="22"/>
       <c r="N1012" s="23"/>
       <c r="O1012" s="23"/>
     </row>
     <row r="1013" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1013" s="18"/>
       <c r="M1013" s="22"/>
       <c r="N1013" s="23"/>
       <c r="O1013" s="23"/>
     </row>
     <row r="1014" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1014" s="18"/>
       <c r="M1014" s="22"/>
       <c r="N1014" s="23"/>
       <c r="O1014" s="23"/>
     </row>
     <row r="1015" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1015" s="18"/>
       <c r="M1015" s="22"/>
       <c r="N1015" s="23"/>
       <c r="O1015" s="23"/>
     </row>
     <row r="1016" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1016" s="18"/>
       <c r="M1016" s="22"/>
       <c r="N1016" s="23"/>
       <c r="O1016" s="23"/>
     </row>
     <row r="1017" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1017" s="18"/>
       <c r="M1017" s="22"/>
       <c r="N1017" s="23"/>
       <c r="O1017" s="23"/>
     </row>
     <row r="1018" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1018" s="18"/>
       <c r="M1018" s="22"/>
       <c r="N1018" s="23"/>
       <c r="O1018" s="23"/>
     </row>
     <row r="1019" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1019" s="18"/>
       <c r="M1019" s="22"/>
       <c r="N1019" s="23"/>
       <c r="O1019" s="23"/>
     </row>
     <row r="1020" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1020" s="18"/>
       <c r="M1020" s="22"/>
       <c r="N1020" s="23"/>
       <c r="O1020" s="23"/>
     </row>
     <row r="1021" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1021" s="18"/>
       <c r="M1021" s="22"/>
       <c r="N1021" s="23"/>
       <c r="O1021" s="23"/>
     </row>
     <row r="1022" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1022" s="18"/>
       <c r="M1022" s="22"/>
       <c r="N1022" s="23"/>
       <c r="O1022" s="23"/>
     </row>
     <row r="1023" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1023" s="18"/>
       <c r="M1023" s="22"/>
       <c r="N1023" s="23"/>
       <c r="O1023" s="23"/>
     </row>
     <row r="1024" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1024" s="18"/>
       <c r="M1024" s="22"/>
       <c r="N1024" s="23"/>
       <c r="O1024" s="23"/>
     </row>
     <row r="1025" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1025" s="18"/>
       <c r="M1025" s="22"/>
       <c r="N1025" s="23"/>
       <c r="O1025" s="23"/>
     </row>
     <row r="1026" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1026" s="18"/>
       <c r="M1026" s="22"/>
       <c r="N1026" s="23"/>
       <c r="O1026" s="23"/>
     </row>
     <row r="1027" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1027" s="18"/>
       <c r="M1027" s="22"/>
       <c r="N1027" s="23"/>
       <c r="O1027" s="23"/>
     </row>
     <row r="1028" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1028" s="18"/>
       <c r="M1028" s="22"/>
       <c r="N1028" s="23"/>
       <c r="O1028" s="23"/>
     </row>
     <row r="1029" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1029" s="18"/>
       <c r="M1029" s="22"/>
       <c r="N1029" s="23"/>
       <c r="O1029" s="23"/>
     </row>
     <row r="1030" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1030" s="18"/>
       <c r="M1030" s="22"/>
       <c r="N1030" s="23"/>
       <c r="O1030" s="23"/>
     </row>
     <row r="1031" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1031" s="18"/>
       <c r="M1031" s="22"/>
       <c r="N1031" s="23"/>
       <c r="O1031" s="23"/>
     </row>
     <row r="1032" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1032" s="18"/>
       <c r="M1032" s="22"/>
       <c r="N1032" s="23"/>
       <c r="O1032" s="23"/>
     </row>
     <row r="1033" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1033" s="18"/>
       <c r="M1033" s="22"/>
       <c r="N1033" s="23"/>
       <c r="O1033" s="23"/>
     </row>
     <row r="1034" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1034" s="18"/>
       <c r="M1034" s="22"/>
       <c r="N1034" s="23"/>
       <c r="O1034" s="23"/>
     </row>
     <row r="1035" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1035" s="18"/>
       <c r="M1035" s="22"/>
       <c r="N1035" s="23"/>
       <c r="O1035" s="23"/>
     </row>
     <row r="1036" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1036" s="18"/>
       <c r="M1036" s="22"/>
       <c r="N1036" s="23"/>
       <c r="O1036" s="23"/>
     </row>
     <row r="1037" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1037" s="18"/>
       <c r="M1037" s="22"/>
       <c r="N1037" s="23"/>
       <c r="O1037" s="23"/>
     </row>
     <row r="1038" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1038" s="18"/>
       <c r="M1038" s="22"/>
       <c r="N1038" s="23"/>
       <c r="O1038" s="23"/>
     </row>
     <row r="1039" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1039" s="18"/>
       <c r="M1039" s="22"/>
       <c r="N1039" s="23"/>
       <c r="O1039" s="23"/>
     </row>
     <row r="1040" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1040" s="18"/>
       <c r="M1040" s="22"/>
       <c r="N1040" s="23"/>
       <c r="O1040" s="23"/>
     </row>
     <row r="1041" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1041" s="18"/>
       <c r="M1041" s="22"/>
       <c r="N1041" s="23"/>
       <c r="O1041" s="23"/>
     </row>
     <row r="1042" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1042" s="18"/>
       <c r="M1042" s="22"/>
       <c r="N1042" s="23"/>
       <c r="O1042" s="23"/>
     </row>
     <row r="1043" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1043" s="18"/>
       <c r="M1043" s="22"/>
       <c r="N1043" s="23"/>
       <c r="O1043" s="23"/>
     </row>
     <row r="1044" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1044" s="18"/>
       <c r="M1044" s="22"/>
       <c r="N1044" s="23"/>
       <c r="O1044" s="23"/>
     </row>
     <row r="1045" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1045" s="18"/>
       <c r="M1045" s="22"/>
       <c r="N1045" s="23"/>
       <c r="O1045" s="23"/>
     </row>
     <row r="1046" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1046" s="18"/>
       <c r="M1046" s="22"/>
       <c r="N1046" s="23"/>
       <c r="O1046" s="23"/>
     </row>
     <row r="1047" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1047" s="18"/>
       <c r="M1047" s="22"/>
       <c r="N1047" s="23"/>
       <c r="O1047" s="23"/>
     </row>
     <row r="1048" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1048" s="18"/>
       <c r="M1048" s="22"/>
       <c r="N1048" s="23"/>
       <c r="O1048" s="23"/>
     </row>
     <row r="1049" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1049" s="18"/>
       <c r="M1049" s="22"/>
       <c r="N1049" s="23"/>
       <c r="O1049" s="23"/>
     </row>
     <row r="1050" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1050" s="18"/>
       <c r="M1050" s="22"/>
       <c r="N1050" s="23"/>
       <c r="O1050" s="23"/>
     </row>
     <row r="1051" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1051" s="18"/>
       <c r="M1051" s="22"/>
       <c r="N1051" s="23"/>
       <c r="O1051" s="23"/>
     </row>
     <row r="1052" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1052" s="18"/>
       <c r="M1052" s="22"/>
       <c r="N1052" s="23"/>
       <c r="O1052" s="23"/>
     </row>
     <row r="1053" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1053" s="18"/>
       <c r="M1053" s="22"/>
       <c r="N1053" s="23"/>
       <c r="O1053" s="23"/>
     </row>
     <row r="1054" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1054" s="18"/>
       <c r="M1054" s="22"/>
       <c r="N1054" s="23"/>
       <c r="O1054" s="23"/>
     </row>
     <row r="1055" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1055" s="18"/>
       <c r="M1055" s="22"/>
       <c r="N1055" s="23"/>
       <c r="O1055" s="23"/>
     </row>
     <row r="1056" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1056" s="18"/>
       <c r="M1056" s="22"/>
       <c r="N1056" s="23"/>
       <c r="O1056" s="23"/>
     </row>
     <row r="1057" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1057" s="18"/>
       <c r="M1057" s="22"/>
       <c r="N1057" s="23"/>
       <c r="O1057" s="23"/>
     </row>
     <row r="1058" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1058" s="18"/>
       <c r="M1058" s="22"/>
       <c r="N1058" s="23"/>
       <c r="O1058" s="23"/>
     </row>
     <row r="1059" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1059" s="18"/>
       <c r="M1059" s="22"/>
       <c r="N1059" s="23"/>
       <c r="O1059" s="23"/>
     </row>
     <row r="1060" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1060" s="18"/>
       <c r="M1060" s="22"/>
       <c r="N1060" s="23"/>
       <c r="O1060" s="23"/>
     </row>
     <row r="1061" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1061" s="18"/>
       <c r="M1061" s="22"/>
       <c r="N1061" s="23"/>
       <c r="O1061" s="23"/>
     </row>
     <row r="1062" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1062" s="18"/>
       <c r="M1062" s="22"/>
       <c r="N1062" s="23"/>
       <c r="O1062" s="23"/>
     </row>
     <row r="1063" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1063" s="18"/>
       <c r="M1063" s="22"/>
       <c r="N1063" s="23"/>
       <c r="O1063" s="23"/>
     </row>
     <row r="1064" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1064" s="18"/>
       <c r="M1064" s="22"/>
       <c r="N1064" s="23"/>
       <c r="O1064" s="23"/>
     </row>
     <row r="1065" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1065" s="18"/>
       <c r="M1065" s="22"/>
       <c r="N1065" s="23"/>
       <c r="O1065" s="23"/>
     </row>
     <row r="1066" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1066" s="18"/>
       <c r="M1066" s="22"/>
       <c r="N1066" s="23"/>
       <c r="O1066" s="23"/>
     </row>
     <row r="1067" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1067" s="18"/>
       <c r="M1067" s="22"/>
       <c r="N1067" s="23"/>
       <c r="O1067" s="23"/>
     </row>
     <row r="1068" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1068" s="18"/>
       <c r="M1068" s="22"/>
       <c r="N1068" s="23"/>
       <c r="O1068" s="23"/>
     </row>
     <row r="1069" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1069" s="18"/>
       <c r="M1069" s="22"/>
       <c r="N1069" s="23"/>
       <c r="O1069" s="23"/>
     </row>
     <row r="1070" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1070" s="18"/>
       <c r="M1070" s="22"/>
       <c r="N1070" s="23"/>
       <c r="O1070" s="23"/>
     </row>
     <row r="1071" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1071" s="18"/>
       <c r="M1071" s="22"/>
       <c r="N1071" s="23"/>
       <c r="O1071" s="23"/>
     </row>
     <row r="1072" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1072" s="18"/>
       <c r="M1072" s="22"/>
       <c r="N1072" s="23"/>
       <c r="O1072" s="23"/>
     </row>
     <row r="1073" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1073" s="18"/>
       <c r="M1073" s="22"/>
       <c r="N1073" s="23"/>
       <c r="O1073" s="23"/>
     </row>
     <row r="1074" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1074" s="18"/>
       <c r="M1074" s="22"/>
       <c r="N1074" s="23"/>
       <c r="O1074" s="23"/>
     </row>
     <row r="1075" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1075" s="18"/>
       <c r="M1075" s="22"/>
       <c r="N1075" s="23"/>
       <c r="O1075" s="23"/>
     </row>
     <row r="1076" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1076" s="18"/>
       <c r="M1076" s="22"/>
       <c r="N1076" s="23"/>
       <c r="O1076" s="23"/>
     </row>
     <row r="1077" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1077" s="18"/>
       <c r="M1077" s="22"/>
       <c r="N1077" s="23"/>
       <c r="O1077" s="23"/>
     </row>
     <row r="1078" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1078" s="18"/>
       <c r="M1078" s="22"/>
       <c r="N1078" s="23"/>
       <c r="O1078" s="23"/>
     </row>
     <row r="1079" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1079" s="18"/>
       <c r="M1079" s="22"/>
       <c r="N1079" s="23"/>
       <c r="O1079" s="23"/>
     </row>
     <row r="1080" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1080" s="18"/>
       <c r="M1080" s="22"/>
       <c r="N1080" s="23"/>
       <c r="O1080" s="23"/>
     </row>
     <row r="1081" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1081" s="18"/>
       <c r="M1081" s="22"/>
       <c r="N1081" s="23"/>
       <c r="O1081" s="23"/>
     </row>
     <row r="1082" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1082" s="18"/>
       <c r="M1082" s="22"/>
       <c r="N1082" s="23"/>
       <c r="O1082" s="23"/>
     </row>
     <row r="1083" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1083" s="18"/>
       <c r="M1083" s="22"/>
       <c r="N1083" s="23"/>
       <c r="O1083" s="23"/>
     </row>
     <row r="1084" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1084" s="18"/>
       <c r="M1084" s="22"/>
       <c r="N1084" s="23"/>
       <c r="O1084" s="23"/>
     </row>
     <row r="1085" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1085" s="18"/>
       <c r="M1085" s="22"/>
       <c r="N1085" s="23"/>
       <c r="O1085" s="23"/>
     </row>
     <row r="1086" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1086" s="18"/>
       <c r="M1086" s="22"/>
       <c r="N1086" s="23"/>
       <c r="O1086" s="23"/>
     </row>
     <row r="1087" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1087" s="18"/>
       <c r="M1087" s="22"/>
       <c r="N1087" s="23"/>
       <c r="O1087" s="23"/>
     </row>
     <row r="1088" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1088" s="18"/>
       <c r="M1088" s="22"/>
       <c r="N1088" s="23"/>
       <c r="O1088" s="23"/>
     </row>
     <row r="1089" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1089" s="18"/>
       <c r="M1089" s="22"/>
       <c r="N1089" s="23"/>
       <c r="O1089" s="23"/>
     </row>
     <row r="1090" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1090" s="18"/>
       <c r="M1090" s="22"/>
       <c r="N1090" s="23"/>
       <c r="O1090" s="23"/>
     </row>
     <row r="1091" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1091" s="18"/>
       <c r="M1091" s="22"/>
       <c r="N1091" s="23"/>
       <c r="O1091" s="23"/>
     </row>
     <row r="1092" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1092" s="18"/>
       <c r="M1092" s="22"/>
       <c r="N1092" s="23"/>
       <c r="O1092" s="23"/>
     </row>
     <row r="1093" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1093" s="18"/>
       <c r="M1093" s="22"/>
       <c r="N1093" s="23"/>
       <c r="O1093" s="23"/>
     </row>
     <row r="1094" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1094" s="18"/>
       <c r="M1094" s="22"/>
       <c r="N1094" s="23"/>
       <c r="O1094" s="23"/>
     </row>
     <row r="1095" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1095" s="18"/>
       <c r="M1095" s="22"/>
       <c r="N1095" s="23"/>
       <c r="O1095" s="23"/>
     </row>
     <row r="1096" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1096" s="18"/>
       <c r="M1096" s="22"/>
       <c r="N1096" s="23"/>
       <c r="O1096" s="23"/>
     </row>
     <row r="1097" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1097" s="18"/>
       <c r="M1097" s="22"/>
       <c r="N1097" s="23"/>
       <c r="O1097" s="23"/>
     </row>
     <row r="1098" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1098" s="18"/>
       <c r="M1098" s="22"/>
       <c r="N1098" s="23"/>
       <c r="O1098" s="23"/>
     </row>
     <row r="1099" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1099" s="18"/>
       <c r="M1099" s="22"/>
       <c r="N1099" s="23"/>
       <c r="O1099" s="23"/>
     </row>
     <row r="1100" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1100" s="18"/>
       <c r="M1100" s="22"/>
       <c r="N1100" s="23"/>
       <c r="O1100" s="23"/>
     </row>
     <row r="1101" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1101" s="18"/>
       <c r="M1101" s="22"/>
       <c r="N1101" s="23"/>
       <c r="O1101" s="23"/>
     </row>
     <row r="1102" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1102" s="18"/>
       <c r="M1102" s="22"/>
       <c r="N1102" s="23"/>
       <c r="O1102" s="23"/>
     </row>
     <row r="1103" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1103" s="18"/>
       <c r="M1103" s="22"/>
       <c r="N1103" s="23"/>
       <c r="O1103" s="23"/>
     </row>
     <row r="1104" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1104" s="18"/>
       <c r="M1104" s="22"/>
       <c r="N1104" s="23"/>
       <c r="O1104" s="23"/>
     </row>
     <row r="1105" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1105" s="18"/>
       <c r="M1105" s="22"/>
       <c r="N1105" s="23"/>
       <c r="O1105" s="23"/>
     </row>
     <row r="1106" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1106" s="18"/>
       <c r="M1106" s="22"/>
       <c r="N1106" s="23"/>
       <c r="O1106" s="23"/>
     </row>
     <row r="1107" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1107" s="18"/>
       <c r="M1107" s="22"/>
       <c r="N1107" s="23"/>
       <c r="O1107" s="23"/>
     </row>
     <row r="1108" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1108" s="18"/>
       <c r="M1108" s="22"/>
       <c r="N1108" s="23"/>
       <c r="O1108" s="23"/>
     </row>
     <row r="1109" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1109" s="18"/>
       <c r="M1109" s="22"/>
       <c r="N1109" s="23"/>
       <c r="O1109" s="23"/>
     </row>
     <row r="1110" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1110" s="18"/>
       <c r="M1110" s="22"/>
       <c r="N1110" s="23"/>
       <c r="O1110" s="23"/>
     </row>
     <row r="1111" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1111" s="18"/>
       <c r="M1111" s="22"/>
       <c r="N1111" s="23"/>
       <c r="O1111" s="23"/>
     </row>
     <row r="1112" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1112" s="18"/>
       <c r="M1112" s="22"/>
       <c r="N1112" s="23"/>
       <c r="O1112" s="23"/>
     </row>
     <row r="1113" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1113" s="18"/>
       <c r="M1113" s="22"/>
       <c r="N1113" s="23"/>
       <c r="O1113" s="23"/>
     </row>
     <row r="1114" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1114" s="18"/>
       <c r="M1114" s="22"/>
       <c r="N1114" s="23"/>
       <c r="O1114" s="23"/>
     </row>
     <row r="1115" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1115" s="18"/>
       <c r="M1115" s="22"/>
       <c r="N1115" s="23"/>
       <c r="O1115" s="23"/>
     </row>
     <row r="1116" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1116" s="18"/>
       <c r="M1116" s="22"/>
       <c r="N1116" s="23"/>
       <c r="O1116" s="23"/>
     </row>
     <row r="1117" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1117" s="18"/>
       <c r="M1117" s="22"/>
       <c r="N1117" s="23"/>
       <c r="O1117" s="23"/>
     </row>
     <row r="1118" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1118" s="18"/>
       <c r="M1118" s="22"/>
       <c r="N1118" s="23"/>
       <c r="O1118" s="23"/>
     </row>
     <row r="1119" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1119" s="18"/>
       <c r="M1119" s="22"/>
       <c r="N1119" s="23"/>
       <c r="O1119" s="23"/>
     </row>
     <row r="1120" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1120" s="18"/>
       <c r="M1120" s="22"/>
       <c r="N1120" s="23"/>
       <c r="O1120" s="23"/>
     </row>
     <row r="1121" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1121" s="18"/>
       <c r="M1121" s="22"/>
       <c r="N1121" s="23"/>
       <c r="O1121" s="23"/>
     </row>
     <row r="1122" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1122" s="18"/>
       <c r="M1122" s="22"/>
       <c r="N1122" s="23"/>
       <c r="O1122" s="23"/>
     </row>
     <row r="1123" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1123" s="18"/>
       <c r="M1123" s="22"/>
       <c r="N1123" s="23"/>
       <c r="O1123" s="23"/>
     </row>
     <row r="1124" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1124" s="18"/>
       <c r="M1124" s="22"/>
       <c r="N1124" s="23"/>
       <c r="O1124" s="23"/>
     </row>
     <row r="1125" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1125" s="18"/>
       <c r="M1125" s="22"/>
       <c r="N1125" s="23"/>
       <c r="O1125" s="23"/>
     </row>
     <row r="1126" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1126" s="18"/>
       <c r="M1126" s="22"/>
       <c r="N1126" s="23"/>
       <c r="O1126" s="23"/>
     </row>
     <row r="1127" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1127" s="18"/>
       <c r="M1127" s="22"/>
       <c r="N1127" s="23"/>
       <c r="O1127" s="23"/>
     </row>
     <row r="1128" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1128" s="18"/>
       <c r="M1128" s="22"/>
       <c r="N1128" s="23"/>
       <c r="O1128" s="23"/>
     </row>
     <row r="1129" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1129" s="18"/>
       <c r="M1129" s="22"/>
       <c r="N1129" s="23"/>
       <c r="O1129" s="23"/>
     </row>
     <row r="1130" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1130" s="18"/>
       <c r="M1130" s="22"/>
       <c r="N1130" s="23"/>
       <c r="O1130" s="23"/>
     </row>
     <row r="1131" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1131" s="18"/>
       <c r="M1131" s="22"/>
       <c r="N1131" s="23"/>
       <c r="O1131" s="23"/>
     </row>
     <row r="1132" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1132" s="18"/>
       <c r="M1132" s="22"/>
       <c r="N1132" s="23"/>
       <c r="O1132" s="23"/>
     </row>
     <row r="1133" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1133" s="18"/>
       <c r="M1133" s="22"/>
       <c r="N1133" s="23"/>
       <c r="O1133" s="23"/>
     </row>
     <row r="1134" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1134" s="18"/>
       <c r="M1134" s="22"/>
       <c r="N1134" s="23"/>
       <c r="O1134" s="23"/>
     </row>
     <row r="1135" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1135" s="18"/>
       <c r="M1135" s="22"/>
       <c r="N1135" s="23"/>
       <c r="O1135" s="23"/>
     </row>
     <row r="1136" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1136" s="18"/>
       <c r="M1136" s="22"/>
       <c r="N1136" s="23"/>
       <c r="O1136" s="23"/>
     </row>
     <row r="1137" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1137" s="18"/>
       <c r="M1137" s="22"/>
       <c r="N1137" s="23"/>
       <c r="O1137" s="23"/>
     </row>
     <row r="1138" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1138" s="18"/>
       <c r="M1138" s="22"/>
       <c r="N1138" s="23"/>
       <c r="O1138" s="23"/>
     </row>
     <row r="1139" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1139" s="18"/>
       <c r="M1139" s="22"/>
       <c r="N1139" s="23"/>
       <c r="O1139" s="23"/>
     </row>
     <row r="1140" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1140" s="18"/>
       <c r="M1140" s="22"/>
       <c r="N1140" s="23"/>
       <c r="O1140" s="23"/>
     </row>
     <row r="1141" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1141" s="18"/>
       <c r="M1141" s="22"/>
       <c r="N1141" s="23"/>
       <c r="O1141" s="23"/>
     </row>
     <row r="1142" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1142" s="18"/>
       <c r="M1142" s="22"/>
       <c r="N1142" s="23"/>
       <c r="O1142" s="23"/>
     </row>
     <row r="1143" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1143" s="18"/>
       <c r="M1143" s="22"/>
       <c r="N1143" s="23"/>
       <c r="O1143" s="23"/>
     </row>
     <row r="1144" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1144" s="18"/>
       <c r="M1144" s="22"/>
       <c r="N1144" s="23"/>
       <c r="O1144" s="23"/>
     </row>
     <row r="1145" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1145" s="18"/>
       <c r="M1145" s="22"/>
       <c r="N1145" s="23"/>
       <c r="O1145" s="23"/>
     </row>
     <row r="1146" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1146" s="18"/>
       <c r="M1146" s="22"/>
       <c r="N1146" s="23"/>
       <c r="O1146" s="23"/>
     </row>
     <row r="1147" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1147" s="18"/>
       <c r="M1147" s="22"/>
       <c r="N1147" s="23"/>
       <c r="O1147" s="23"/>
     </row>
     <row r="1148" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1148" s="18"/>
       <c r="M1148" s="22"/>
       <c r="N1148" s="23"/>
       <c r="O1148" s="23"/>
     </row>
     <row r="1149" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1149" s="18"/>
       <c r="M1149" s="22"/>
       <c r="N1149" s="23"/>
       <c r="O1149" s="23"/>
     </row>
     <row r="1150" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1150" s="18"/>
       <c r="M1150" s="22"/>
       <c r="N1150" s="23"/>
       <c r="O1150" s="23"/>
     </row>
     <row r="1151" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1151" s="18"/>
       <c r="M1151" s="22"/>
       <c r="N1151" s="23"/>
       <c r="O1151" s="23"/>
     </row>
     <row r="1152" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1152" s="18"/>
       <c r="M1152" s="22"/>
       <c r="N1152" s="23"/>
       <c r="O1152" s="23"/>
     </row>
     <row r="1153" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1153" s="18"/>
       <c r="M1153" s="22"/>
       <c r="N1153" s="23"/>
       <c r="O1153" s="23"/>
     </row>
     <row r="1154" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1154" s="18"/>
       <c r="M1154" s="22"/>
       <c r="N1154" s="23"/>
       <c r="O1154" s="23"/>
     </row>
     <row r="1155" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1155" s="18"/>
       <c r="M1155" s="22"/>
       <c r="N1155" s="23"/>
       <c r="O1155" s="23"/>
     </row>
     <row r="1156" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1156" s="18"/>
       <c r="M1156" s="22"/>
       <c r="N1156" s="23"/>
       <c r="O1156" s="23"/>
     </row>
     <row r="1157" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1157" s="18"/>
       <c r="M1157" s="22"/>
       <c r="N1157" s="23"/>
       <c r="O1157" s="23"/>
     </row>
     <row r="1158" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1158" s="18"/>
       <c r="M1158" s="22"/>
       <c r="N1158" s="23"/>
       <c r="O1158" s="23"/>
     </row>
     <row r="1159" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1159" s="18"/>
       <c r="M1159" s="22"/>
       <c r="N1159" s="23"/>
       <c r="O1159" s="23"/>
     </row>
     <row r="1160" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1160" s="18"/>
       <c r="M1160" s="22"/>
       <c r="N1160" s="23"/>
       <c r="O1160" s="23"/>
     </row>
     <row r="1161" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1161" s="18"/>
       <c r="M1161" s="22"/>
       <c r="N1161" s="23"/>
       <c r="O1161" s="23"/>
     </row>
     <row r="1162" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1162" s="18"/>
       <c r="M1162" s="22"/>
       <c r="N1162" s="23"/>
       <c r="O1162" s="23"/>
     </row>
     <row r="1163" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1163" s="18"/>
       <c r="M1163" s="22"/>
       <c r="N1163" s="23"/>
       <c r="O1163" s="23"/>
     </row>
     <row r="1164" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1164" s="18"/>
       <c r="M1164" s="22"/>
       <c r="N1164" s="23"/>
       <c r="O1164" s="23"/>
     </row>
     <row r="1165" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1165" s="18"/>
       <c r="M1165" s="22"/>
       <c r="N1165" s="23"/>
       <c r="O1165" s="23"/>
     </row>
     <row r="1166" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1166" s="18"/>
       <c r="M1166" s="22"/>
       <c r="N1166" s="23"/>
       <c r="O1166" s="23"/>
     </row>
     <row r="1167" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1167" s="18"/>
       <c r="M1167" s="22"/>
       <c r="N1167" s="23"/>
       <c r="O1167" s="23"/>
     </row>
     <row r="1168" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1168" s="18"/>
       <c r="M1168" s="22"/>
       <c r="N1168" s="23"/>
       <c r="O1168" s="23"/>
     </row>
     <row r="1169" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1169" s="18"/>
       <c r="M1169" s="22"/>
       <c r="N1169" s="23"/>
       <c r="O1169" s="23"/>
     </row>
     <row r="1170" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1170" s="18"/>
       <c r="M1170" s="22"/>
       <c r="N1170" s="23"/>
       <c r="O1170" s="23"/>
     </row>
     <row r="1171" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1171" s="18"/>
       <c r="M1171" s="22"/>
       <c r="N1171" s="23"/>
       <c r="O1171" s="23"/>
     </row>
     <row r="1172" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1172" s="18"/>
       <c r="M1172" s="22"/>
       <c r="N1172" s="23"/>
       <c r="O1172" s="23"/>
     </row>
     <row r="1173" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1173" s="18"/>
       <c r="M1173" s="22"/>
       <c r="N1173" s="23"/>
       <c r="O1173" s="23"/>
     </row>
     <row r="1174" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1174" s="18"/>
       <c r="M1174" s="22"/>
       <c r="N1174" s="23"/>
       <c r="O1174" s="23"/>
     </row>
     <row r="1175" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1175" s="18"/>
       <c r="M1175" s="22"/>
       <c r="N1175" s="23"/>
       <c r="O1175" s="23"/>
     </row>
     <row r="1176" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1176" s="18"/>
       <c r="M1176" s="22"/>
       <c r="N1176" s="23"/>
       <c r="O1176" s="23"/>
     </row>
     <row r="1177" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1177" s="18"/>
       <c r="M1177" s="22"/>
       <c r="N1177" s="23"/>
       <c r="O1177" s="23"/>
     </row>
     <row r="1178" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1178" s="18"/>
       <c r="M1178" s="22"/>
       <c r="N1178" s="23"/>
       <c r="O1178" s="23"/>
     </row>
     <row r="1179" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1179" s="18"/>
       <c r="M1179" s="22"/>
       <c r="N1179" s="23"/>
       <c r="O1179" s="23"/>
     </row>
     <row r="1180" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1180" s="18"/>
       <c r="M1180" s="22"/>
       <c r="N1180" s="23"/>
       <c r="O1180" s="23"/>
     </row>
     <row r="1181" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1181" s="18"/>
       <c r="M1181" s="22"/>
       <c r="N1181" s="23"/>
       <c r="O1181" s="23"/>
     </row>
     <row r="1182" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1182" s="18"/>
       <c r="M1182" s="22"/>
       <c r="N1182" s="23"/>
       <c r="O1182" s="23"/>
     </row>
     <row r="1183" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1183" s="18"/>
       <c r="M1183" s="22"/>
       <c r="N1183" s="23"/>
       <c r="O1183" s="23"/>
     </row>
     <row r="1184" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1184" s="18"/>
       <c r="M1184" s="22"/>
       <c r="N1184" s="23"/>
       <c r="O1184" s="23"/>
     </row>
     <row r="1185" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1185" s="18"/>
       <c r="M1185" s="22"/>
       <c r="N1185" s="23"/>
       <c r="O1185" s="23"/>
     </row>
     <row r="1186" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1186" s="18"/>
       <c r="M1186" s="22"/>
       <c r="N1186" s="23"/>
       <c r="O1186" s="23"/>
     </row>
     <row r="1187" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1187" s="18"/>
       <c r="M1187" s="22"/>
       <c r="N1187" s="23"/>
       <c r="O1187" s="23"/>
     </row>
     <row r="1188" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1188" s="18"/>
       <c r="M1188" s="22"/>
       <c r="N1188" s="23"/>
       <c r="O1188" s="23"/>
     </row>
     <row r="1189" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1189" s="18"/>
       <c r="M1189" s="22"/>
       <c r="N1189" s="23"/>
       <c r="O1189" s="23"/>
     </row>
     <row r="1190" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1190" s="18"/>
       <c r="M1190" s="22"/>
       <c r="N1190" s="23"/>
       <c r="O1190" s="23"/>
     </row>
     <row r="1191" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1191" s="18"/>
       <c r="M1191" s="22"/>
       <c r="N1191" s="23"/>
       <c r="O1191" s="23"/>
     </row>
     <row r="1192" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1192" s="18"/>
       <c r="M1192" s="22"/>
       <c r="N1192" s="23"/>
       <c r="O1192" s="23"/>
     </row>
     <row r="1193" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1193" s="18"/>
       <c r="M1193" s="22"/>
       <c r="N1193" s="23"/>
       <c r="O1193" s="23"/>
     </row>
     <row r="1194" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1194" s="18"/>
       <c r="M1194" s="22"/>
       <c r="N1194" s="23"/>
       <c r="O1194" s="23"/>
     </row>
     <row r="1195" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1195" s="18"/>
       <c r="M1195" s="22"/>
       <c r="N1195" s="23"/>
       <c r="O1195" s="23"/>
     </row>
     <row r="1196" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1196" s="18"/>
       <c r="M1196" s="22"/>
       <c r="N1196" s="23"/>
       <c r="O1196" s="23"/>
     </row>
     <row r="1197" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1197" s="18"/>
       <c r="M1197" s="22"/>
       <c r="N1197" s="23"/>
       <c r="O1197" s="23"/>
     </row>
     <row r="1198" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1198" s="18"/>
       <c r="M1198" s="22"/>
       <c r="N1198" s="23"/>
       <c r="O1198" s="23"/>
     </row>
     <row r="1199" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1199" s="18"/>
       <c r="M1199" s="22"/>
       <c r="N1199" s="23"/>
       <c r="O1199" s="23"/>
     </row>
     <row r="1200" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1200" s="18"/>
       <c r="M1200" s="22"/>
       <c r="N1200" s="23"/>
       <c r="O1200" s="23"/>
     </row>
     <row r="1201" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1201" s="18"/>
       <c r="M1201" s="22"/>
       <c r="N1201" s="23"/>
       <c r="O1201" s="23"/>
     </row>
     <row r="1202" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1202" s="18"/>
       <c r="M1202" s="22"/>
       <c r="N1202" s="23"/>
       <c r="O1202" s="23"/>
     </row>
     <row r="1203" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1203" s="18"/>
       <c r="M1203" s="22"/>
       <c r="N1203" s="23"/>
       <c r="O1203" s="23"/>
     </row>
     <row r="1204" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1204" s="18"/>
       <c r="M1204" s="22"/>
       <c r="N1204" s="23"/>
       <c r="O1204" s="23"/>
     </row>
     <row r="1205" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1205" s="18"/>
       <c r="M1205" s="22"/>
       <c r="N1205" s="23"/>
       <c r="O1205" s="23"/>
     </row>
     <row r="1206" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1206" s="18"/>
       <c r="M1206" s="22"/>
       <c r="N1206" s="23"/>
       <c r="O1206" s="23"/>
     </row>
     <row r="1207" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1207" s="18"/>
       <c r="M1207" s="22"/>
       <c r="N1207" s="23"/>
       <c r="O1207" s="23"/>
     </row>
     <row r="1208" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1208" s="18"/>
       <c r="M1208" s="22"/>
       <c r="N1208" s="23"/>
       <c r="O1208" s="23"/>
     </row>
     <row r="1209" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1209" s="18"/>
       <c r="M1209" s="22"/>
       <c r="N1209" s="23"/>
       <c r="O1209" s="23"/>
     </row>
     <row r="1210" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1210" s="18"/>
       <c r="M1210" s="22"/>
       <c r="N1210" s="23"/>
       <c r="O1210" s="23"/>
     </row>
     <row r="1211" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1211" s="18"/>
       <c r="M1211" s="22"/>
       <c r="N1211" s="23"/>
       <c r="O1211" s="23"/>
     </row>
     <row r="1212" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1212" s="18"/>
       <c r="M1212" s="22"/>
       <c r="N1212" s="23"/>
       <c r="O1212" s="23"/>
     </row>
     <row r="1213" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1213" s="18"/>
       <c r="M1213" s="22"/>
       <c r="N1213" s="23"/>
       <c r="O1213" s="23"/>
     </row>
     <row r="1214" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1214" s="18"/>
       <c r="M1214" s="22"/>
       <c r="N1214" s="23"/>
       <c r="O1214" s="23"/>
     </row>
     <row r="1215" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1215" s="18"/>
       <c r="M1215" s="22"/>
       <c r="N1215" s="23"/>
       <c r="O1215" s="23"/>
     </row>
     <row r="1216" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1216" s="18"/>
       <c r="M1216" s="22"/>
       <c r="N1216" s="23"/>
       <c r="O1216" s="23"/>
     </row>
     <row r="1217" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1217" s="18"/>
       <c r="M1217" s="22"/>
       <c r="N1217" s="23"/>
       <c r="O1217" s="23"/>
     </row>
     <row r="1218" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1218" s="18"/>
       <c r="M1218" s="22"/>
       <c r="N1218" s="23"/>
       <c r="O1218" s="23"/>
     </row>
     <row r="1219" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1219" s="18"/>
       <c r="M1219" s="22"/>
       <c r="N1219" s="23"/>
       <c r="O1219" s="23"/>
     </row>
     <row r="1220" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1220" s="18"/>
       <c r="M1220" s="22"/>
       <c r="N1220" s="23"/>
       <c r="O1220" s="23"/>
     </row>
     <row r="1221" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1221" s="18"/>
       <c r="M1221" s="22"/>
       <c r="N1221" s="23"/>
       <c r="O1221" s="23"/>
     </row>
     <row r="1222" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1222" s="18"/>
       <c r="M1222" s="22"/>
       <c r="N1222" s="23"/>
       <c r="O1222" s="23"/>
     </row>
     <row r="1223" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1223" s="18"/>
       <c r="M1223" s="22"/>
       <c r="N1223" s="23"/>
       <c r="O1223" s="23"/>
     </row>
     <row r="1224" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1224" s="18"/>
       <c r="M1224" s="22"/>
       <c r="N1224" s="23"/>
       <c r="O1224" s="23"/>
     </row>
     <row r="1225" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1225" s="18"/>
       <c r="M1225" s="22"/>
       <c r="N1225" s="23"/>
       <c r="O1225" s="23"/>
     </row>
     <row r="1226" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1226" s="18"/>
       <c r="M1226" s="22"/>
       <c r="N1226" s="23"/>
       <c r="O1226" s="23"/>
     </row>
     <row r="1227" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1227" s="18"/>
       <c r="M1227" s="22"/>
       <c r="N1227" s="23"/>
       <c r="O1227" s="23"/>
     </row>
     <row r="1228" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1228" s="18"/>
       <c r="M1228" s="22"/>
       <c r="N1228" s="23"/>
       <c r="O1228" s="23"/>
     </row>
     <row r="1229" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1229" s="18"/>
       <c r="M1229" s="22"/>
       <c r="N1229" s="23"/>
       <c r="O1229" s="23"/>
     </row>
     <row r="1230" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1230" s="18"/>
       <c r="M1230" s="22"/>
       <c r="N1230" s="23"/>
       <c r="O1230" s="23"/>
     </row>
     <row r="1231" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1231" s="18"/>
       <c r="M1231" s="22"/>
       <c r="N1231" s="23"/>
       <c r="O1231" s="23"/>
     </row>
     <row r="1232" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1232" s="18"/>
       <c r="M1232" s="22"/>
       <c r="N1232" s="23"/>
       <c r="O1232" s="23"/>
     </row>
     <row r="1233" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1233" s="18"/>
       <c r="M1233" s="22"/>
       <c r="N1233" s="23"/>
       <c r="O1233" s="23"/>
     </row>
     <row r="1234" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1234" s="18"/>
       <c r="M1234" s="22"/>
       <c r="N1234" s="23"/>
       <c r="O1234" s="23"/>
     </row>
     <row r="1235" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1235" s="18"/>
       <c r="M1235" s="22"/>
       <c r="N1235" s="23"/>
       <c r="O1235" s="23"/>
     </row>
     <row r="1236" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1236" s="18"/>
       <c r="M1236" s="22"/>
       <c r="N1236" s="23"/>
       <c r="O1236" s="23"/>
     </row>
     <row r="1237" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1237" s="18"/>
       <c r="M1237" s="22"/>
       <c r="N1237" s="23"/>
       <c r="O1237" s="23"/>
     </row>
     <row r="1238" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1238" s="18"/>
       <c r="M1238" s="22"/>
       <c r="N1238" s="23"/>
       <c r="O1238" s="23"/>
     </row>
     <row r="1239" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1239" s="18"/>
       <c r="M1239" s="22"/>
       <c r="N1239" s="23"/>
       <c r="O1239" s="23"/>
     </row>
     <row r="1240" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1240" s="18"/>
       <c r="M1240" s="22"/>
       <c r="N1240" s="23"/>
       <c r="O1240" s="23"/>
     </row>
     <row r="1241" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1241" s="18"/>
       <c r="M1241" s="22"/>
       <c r="N1241" s="23"/>
       <c r="O1241" s="23"/>
     </row>
     <row r="1242" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1242" s="18"/>
       <c r="M1242" s="22"/>
       <c r="N1242" s="23"/>
       <c r="O1242" s="23"/>
     </row>
     <row r="1243" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1243" s="18"/>
       <c r="M1243" s="22"/>
       <c r="N1243" s="23"/>
       <c r="O1243" s="23"/>
     </row>
     <row r="1244" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1244" s="18"/>
       <c r="M1244" s="22"/>
       <c r="N1244" s="23"/>
       <c r="O1244" s="23"/>
     </row>
     <row r="1245" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1245" s="18"/>
       <c r="M1245" s="22"/>
       <c r="N1245" s="23"/>
       <c r="O1245" s="23"/>
     </row>
     <row r="1246" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1246" s="18"/>
       <c r="M1246" s="22"/>
       <c r="N1246" s="23"/>
       <c r="O1246" s="23"/>
     </row>
     <row r="1247" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1247" s="18"/>
       <c r="M1247" s="22"/>
       <c r="N1247" s="23"/>
       <c r="O1247" s="23"/>
     </row>
     <row r="1248" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1248" s="18"/>
       <c r="M1248" s="22"/>
       <c r="N1248" s="23"/>
       <c r="O1248" s="23"/>
     </row>
     <row r="1249" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1249" s="18"/>
       <c r="M1249" s="22"/>
       <c r="N1249" s="23"/>
       <c r="O1249" s="23"/>
     </row>
     <row r="1250" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1250" s="18"/>
       <c r="M1250" s="22"/>
       <c r="N1250" s="23"/>
       <c r="O1250" s="23"/>
     </row>
     <row r="1251" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1251" s="18"/>
       <c r="M1251" s="22"/>
       <c r="N1251" s="23"/>
       <c r="O1251" s="23"/>
     </row>
     <row r="1252" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1252" s="18"/>
       <c r="M1252" s="22"/>
       <c r="N1252" s="23"/>
       <c r="O1252" s="23"/>
     </row>
     <row r="1253" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1253" s="18"/>
       <c r="M1253" s="22"/>
       <c r="N1253" s="23"/>
       <c r="O1253" s="23"/>
     </row>
     <row r="1254" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1254" s="18"/>
       <c r="M1254" s="22"/>
       <c r="N1254" s="23"/>
       <c r="O1254" s="23"/>
     </row>
     <row r="1255" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1255" s="18"/>
       <c r="M1255" s="22"/>
       <c r="N1255" s="23"/>
       <c r="O1255" s="23"/>
     </row>
     <row r="1256" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1256" s="18"/>
       <c r="M1256" s="22"/>
       <c r="N1256" s="23"/>
       <c r="O1256" s="23"/>
     </row>
     <row r="1257" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1257" s="18"/>
       <c r="M1257" s="22"/>
       <c r="N1257" s="23"/>
       <c r="O1257" s="23"/>
     </row>
     <row r="1258" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1258" s="18"/>
       <c r="M1258" s="22"/>
       <c r="N1258" s="23"/>
       <c r="O1258" s="23"/>
     </row>
     <row r="1259" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1259" s="18"/>
       <c r="M1259" s="22"/>
       <c r="N1259" s="23"/>
       <c r="O1259" s="23"/>
     </row>
     <row r="1260" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1260" s="18"/>
       <c r="M1260" s="22"/>
       <c r="N1260" s="23"/>
       <c r="O1260" s="23"/>
     </row>
     <row r="1261" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1261" s="18"/>
       <c r="M1261" s="22"/>
       <c r="N1261" s="23"/>
       <c r="O1261" s="23"/>
     </row>
     <row r="1262" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1262" s="18"/>
       <c r="M1262" s="22"/>
       <c r="N1262" s="23"/>
       <c r="O1262" s="23"/>
     </row>
     <row r="1263" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1263" s="18"/>
       <c r="M1263" s="22"/>
       <c r="N1263" s="23"/>
       <c r="O1263" s="23"/>
     </row>
     <row r="1264" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1264" s="18"/>
       <c r="M1264" s="22"/>
       <c r="N1264" s="23"/>
       <c r="O1264" s="23"/>
     </row>
     <row r="1265" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1265" s="18"/>
       <c r="M1265" s="22"/>
       <c r="N1265" s="23"/>
       <c r="O1265" s="23"/>
     </row>
     <row r="1266" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1266" s="18"/>
       <c r="M1266" s="22"/>
       <c r="N1266" s="23"/>
       <c r="O1266" s="23"/>
     </row>
     <row r="1267" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1267" s="18"/>
       <c r="M1267" s="22"/>
       <c r="N1267" s="23"/>
       <c r="O1267" s="23"/>
     </row>
     <row r="1268" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1268" s="18"/>
       <c r="M1268" s="22"/>
       <c r="N1268" s="23"/>
       <c r="O1268" s="23"/>
     </row>
     <row r="1269" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1269" s="18"/>
       <c r="M1269" s="22"/>
       <c r="N1269" s="23"/>
       <c r="O1269" s="23"/>
     </row>
     <row r="1270" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1270" s="18"/>
       <c r="M1270" s="22"/>
       <c r="N1270" s="23"/>
       <c r="O1270" s="23"/>
     </row>
     <row r="1271" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1271" s="18"/>
       <c r="M1271" s="22"/>
       <c r="N1271" s="23"/>
       <c r="O1271" s="23"/>
     </row>
     <row r="1272" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1272" s="18"/>
       <c r="M1272" s="22"/>
       <c r="N1272" s="23"/>
       <c r="O1272" s="23"/>
     </row>
     <row r="1273" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1273" s="18"/>
       <c r="M1273" s="22"/>
       <c r="N1273" s="23"/>
       <c r="O1273" s="23"/>
     </row>
     <row r="1274" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1274" s="18"/>
       <c r="M1274" s="22"/>
       <c r="N1274" s="23"/>
       <c r="O1274" s="23"/>
     </row>
     <row r="1275" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1275" s="18"/>
       <c r="M1275" s="22"/>
       <c r="N1275" s="23"/>
       <c r="O1275" s="23"/>
     </row>
     <row r="1276" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1276" s="18"/>
       <c r="M1276" s="22"/>
       <c r="N1276" s="23"/>
       <c r="O1276" s="23"/>
     </row>
     <row r="1277" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1277" s="18"/>
       <c r="M1277" s="22"/>
       <c r="N1277" s="23"/>
       <c r="O1277" s="23"/>
     </row>
     <row r="1278" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1278" s="18"/>
       <c r="M1278" s="22"/>
       <c r="N1278" s="23"/>
       <c r="O1278" s="23"/>
     </row>
     <row r="1279" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1279" s="18"/>
       <c r="M1279" s="22"/>
       <c r="N1279" s="23"/>
       <c r="O1279" s="23"/>
     </row>
     <row r="1280" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1280" s="18"/>
       <c r="M1280" s="22"/>
       <c r="N1280" s="23"/>
       <c r="O1280" s="23"/>
     </row>
     <row r="1281" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1281" s="18"/>
       <c r="M1281" s="22"/>
       <c r="N1281" s="23"/>
       <c r="O1281" s="23"/>
     </row>
     <row r="1282" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1282" s="18"/>
       <c r="M1282" s="22"/>
       <c r="N1282" s="23"/>
       <c r="O1282" s="23"/>
     </row>
     <row r="1283" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1283" s="18"/>
       <c r="M1283" s="22"/>
       <c r="N1283" s="23"/>
       <c r="O1283" s="23"/>
     </row>
     <row r="1284" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1284" s="18"/>
       <c r="M1284" s="22"/>
       <c r="N1284" s="23"/>
       <c r="O1284" s="23"/>
     </row>
     <row r="1285" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1285" s="18"/>
       <c r="M1285" s="22"/>
       <c r="N1285" s="23"/>
       <c r="O1285" s="23"/>
     </row>
     <row r="1286" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1286" s="18"/>
       <c r="M1286" s="22"/>
       <c r="N1286" s="23"/>
       <c r="O1286" s="23"/>
     </row>
     <row r="1287" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1287" s="18"/>
       <c r="M1287" s="22"/>
       <c r="N1287" s="23"/>
       <c r="O1287" s="23"/>
     </row>
     <row r="1288" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1288" s="18"/>
       <c r="M1288" s="22"/>
       <c r="N1288" s="23"/>
       <c r="O1288" s="23"/>
     </row>
     <row r="1289" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1289" s="18"/>
       <c r="M1289" s="22"/>
       <c r="N1289" s="23"/>
       <c r="O1289" s="23"/>
     </row>
     <row r="1290" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1290" s="18"/>
       <c r="M1290" s="22"/>
       <c r="N1290" s="23"/>
       <c r="O1290" s="23"/>
     </row>
     <row r="1291" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1291" s="18"/>
       <c r="M1291" s="22"/>
       <c r="N1291" s="23"/>
       <c r="O1291" s="23"/>
     </row>
     <row r="1292" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1292" s="18"/>
       <c r="M1292" s="22"/>
       <c r="N1292" s="23"/>
       <c r="O1292" s="23"/>
     </row>
     <row r="1293" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1293" s="18"/>
       <c r="M1293" s="22"/>
       <c r="N1293" s="23"/>
       <c r="O1293" s="23"/>
     </row>
     <row r="1294" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1294" s="18"/>
       <c r="M1294" s="22"/>
       <c r="N1294" s="23"/>
       <c r="O1294" s="23"/>
     </row>
     <row r="1295" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1295" s="18"/>
       <c r="M1295" s="22"/>
       <c r="N1295" s="23"/>
       <c r="O1295" s="23"/>
     </row>
     <row r="1296" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1296" s="18"/>
       <c r="M1296" s="22"/>
       <c r="N1296" s="23"/>
       <c r="O1296" s="23"/>
     </row>
     <row r="1297" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1297" s="18"/>
       <c r="M1297" s="22"/>
       <c r="N1297" s="23"/>
       <c r="O1297" s="23"/>
     </row>
     <row r="1298" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1298" s="18"/>
       <c r="M1298" s="22"/>
       <c r="N1298" s="23"/>
       <c r="O1298" s="23"/>
     </row>
     <row r="1299" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1299" s="18"/>
       <c r="M1299" s="22"/>
       <c r="N1299" s="23"/>
       <c r="O1299" s="23"/>
     </row>
     <row r="1300" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1300" s="18"/>
       <c r="M1300" s="22"/>
       <c r="N1300" s="23"/>
       <c r="O1300" s="23"/>
     </row>
     <row r="1301" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1301" s="18"/>
       <c r="M1301" s="22"/>
       <c r="N1301" s="23"/>
       <c r="O1301" s="23"/>
     </row>
     <row r="1302" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1302" s="18"/>
       <c r="M1302" s="22"/>
       <c r="N1302" s="23"/>
       <c r="O1302" s="23"/>
     </row>
     <row r="1303" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1303" s="18"/>
       <c r="M1303" s="22"/>
       <c r="N1303" s="23"/>
       <c r="O1303" s="23"/>
     </row>
     <row r="1304" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1304" s="18"/>
       <c r="M1304" s="22"/>
       <c r="N1304" s="23"/>
       <c r="O1304" s="23"/>
     </row>
     <row r="1305" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1305" s="18"/>
       <c r="M1305" s="22"/>
       <c r="N1305" s="23"/>
       <c r="O1305" s="23"/>
     </row>
     <row r="1306" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1306" s="18"/>
       <c r="M1306" s="22"/>
       <c r="N1306" s="23"/>
       <c r="O1306" s="23"/>
     </row>
     <row r="1307" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1307" s="18"/>
       <c r="M1307" s="22"/>
       <c r="N1307" s="23"/>
       <c r="O1307" s="23"/>
     </row>
     <row r="1308" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1308" s="18"/>
       <c r="M1308" s="22"/>
       <c r="N1308" s="23"/>
       <c r="O1308" s="23"/>
     </row>
     <row r="1309" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1309" s="18"/>
       <c r="M1309" s="22"/>
       <c r="N1309" s="23"/>
       <c r="O1309" s="23"/>
     </row>
     <row r="1310" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1310" s="18"/>
       <c r="M1310" s="22"/>
       <c r="N1310" s="23"/>
       <c r="O1310" s="23"/>
     </row>
     <row r="1311" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1311" s="18"/>
       <c r="M1311" s="22"/>
       <c r="N1311" s="23"/>
       <c r="O1311" s="23"/>
     </row>
     <row r="1312" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1312" s="18"/>
       <c r="M1312" s="22"/>
       <c r="N1312" s="23"/>
       <c r="O1312" s="23"/>
     </row>
     <row r="1313" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1313" s="18"/>
       <c r="M1313" s="22"/>
       <c r="N1313" s="23"/>
       <c r="O1313" s="23"/>
     </row>
     <row r="1314" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1314" s="18"/>
       <c r="M1314" s="22"/>
       <c r="N1314" s="23"/>
       <c r="O1314" s="23"/>
     </row>
     <row r="1315" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1315" s="18"/>
       <c r="M1315" s="22"/>
       <c r="N1315" s="23"/>
       <c r="O1315" s="23"/>
     </row>
     <row r="1316" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1316" s="18"/>
       <c r="M1316" s="22"/>
       <c r="N1316" s="23"/>
       <c r="O1316" s="23"/>
     </row>
     <row r="1317" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1317" s="18"/>
       <c r="M1317" s="22"/>
       <c r="N1317" s="23"/>
       <c r="O1317" s="23"/>
     </row>
     <row r="1318" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1318" s="18"/>
       <c r="M1318" s="22"/>
       <c r="N1318" s="23"/>
       <c r="O1318" s="23"/>
     </row>
     <row r="1319" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1319" s="18"/>
       <c r="M1319" s="22"/>
       <c r="N1319" s="23"/>
       <c r="O1319" s="23"/>
     </row>
     <row r="1320" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1320" s="18"/>
       <c r="M1320" s="22"/>
       <c r="N1320" s="23"/>
       <c r="O1320" s="23"/>
     </row>
     <row r="1321" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1321" s="18"/>
       <c r="M1321" s="22"/>
       <c r="N1321" s="23"/>
       <c r="O1321" s="23"/>
     </row>
     <row r="1322" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1322" s="18"/>
       <c r="M1322" s="22"/>
       <c r="N1322" s="23"/>
       <c r="O1322" s="23"/>
     </row>
     <row r="1323" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1323" s="18"/>
       <c r="M1323" s="22"/>
       <c r="N1323" s="23"/>
       <c r="O1323" s="23"/>
     </row>
     <row r="1324" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1324" s="18"/>
       <c r="M1324" s="22"/>
       <c r="N1324" s="23"/>
       <c r="O1324" s="23"/>
     </row>
     <row r="1325" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1325" s="18"/>
       <c r="M1325" s="22"/>
       <c r="N1325" s="23"/>
       <c r="O1325" s="23"/>
     </row>
     <row r="1326" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1326" s="18"/>
       <c r="M1326" s="22"/>
       <c r="N1326" s="23"/>
       <c r="O1326" s="23"/>
     </row>
     <row r="1327" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1327" s="18"/>
       <c r="M1327" s="22"/>
       <c r="N1327" s="23"/>
       <c r="O1327" s="23"/>
     </row>
     <row r="1328" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1328" s="18"/>
       <c r="M1328" s="22"/>
       <c r="N1328" s="23"/>
       <c r="O1328" s="23"/>
     </row>
     <row r="1329" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1329" s="18"/>
       <c r="M1329" s="22"/>
       <c r="N1329" s="23"/>
       <c r="O1329" s="23"/>
     </row>
     <row r="1330" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1330" s="18"/>
       <c r="M1330" s="22"/>
       <c r="N1330" s="23"/>
       <c r="O1330" s="23"/>
     </row>
     <row r="1331" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1331" s="18"/>
       <c r="M1331" s="22"/>
       <c r="N1331" s="23"/>
       <c r="O1331" s="23"/>
     </row>
     <row r="1332" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1332" s="18"/>
       <c r="M1332" s="22"/>
       <c r="N1332" s="23"/>
       <c r="O1332" s="23"/>
     </row>
     <row r="1333" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1333" s="18"/>
       <c r="M1333" s="22"/>
       <c r="N1333" s="23"/>
       <c r="O1333" s="23"/>
     </row>
     <row r="1334" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1334" s="18"/>
       <c r="M1334" s="22"/>
       <c r="N1334" s="23"/>
       <c r="O1334" s="23"/>
     </row>
     <row r="1335" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1335" s="18"/>
       <c r="M1335" s="22"/>
       <c r="N1335" s="23"/>
       <c r="O1335" s="23"/>
     </row>
     <row r="1336" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1336" s="18"/>
       <c r="M1336" s="22"/>
       <c r="N1336" s="23"/>
       <c r="O1336" s="23"/>
     </row>
     <row r="1337" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1337" s="18"/>
       <c r="M1337" s="22"/>
       <c r="N1337" s="23"/>
       <c r="O1337" s="23"/>
     </row>
     <row r="1338" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1338" s="18"/>
       <c r="M1338" s="22"/>
       <c r="N1338" s="23"/>
       <c r="O1338" s="23"/>
     </row>
     <row r="1339" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1339" s="18"/>
       <c r="M1339" s="22"/>
       <c r="N1339" s="23"/>
       <c r="O1339" s="23"/>
     </row>
     <row r="1340" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1340" s="18"/>
       <c r="M1340" s="22"/>
       <c r="N1340" s="23"/>
       <c r="O1340" s="23"/>
     </row>
     <row r="1341" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1341" s="18"/>
       <c r="M1341" s="22"/>
       <c r="N1341" s="23"/>
       <c r="O1341" s="23"/>
     </row>
     <row r="1342" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1342" s="18"/>
       <c r="M1342" s="22"/>
       <c r="N1342" s="23"/>
       <c r="O1342" s="23"/>
     </row>
     <row r="1343" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1343" s="18"/>
       <c r="M1343" s="22"/>
       <c r="N1343" s="23"/>
       <c r="O1343" s="23"/>
     </row>
     <row r="1344" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1344" s="18"/>
       <c r="M1344" s="22"/>
       <c r="N1344" s="23"/>
       <c r="O1344" s="23"/>
     </row>
     <row r="1345" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1345" s="18"/>
       <c r="M1345" s="22"/>
       <c r="N1345" s="23"/>
       <c r="O1345" s="23"/>
     </row>
     <row r="1346" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1346" s="18"/>
       <c r="M1346" s="22"/>
       <c r="N1346" s="23"/>
       <c r="O1346" s="23"/>
     </row>
     <row r="1347" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1347" s="18"/>
       <c r="M1347" s="22"/>
       <c r="N1347" s="23"/>
       <c r="O1347" s="23"/>
     </row>
     <row r="1348" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1348" s="18"/>
       <c r="M1348" s="22"/>
       <c r="N1348" s="23"/>
       <c r="O1348" s="23"/>
     </row>
     <row r="1349" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1349" s="18"/>
       <c r="M1349" s="22"/>
       <c r="N1349" s="23"/>
       <c r="O1349" s="23"/>
     </row>
     <row r="1350" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1350" s="18"/>
       <c r="M1350" s="22"/>
       <c r="N1350" s="23"/>
       <c r="O1350" s="23"/>
     </row>
     <row r="1351" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1351" s="18"/>
       <c r="M1351" s="22"/>
       <c r="N1351" s="23"/>
       <c r="O1351" s="23"/>
     </row>
     <row r="1352" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1352" s="18"/>
       <c r="M1352" s="22"/>
       <c r="N1352" s="23"/>
       <c r="O1352" s="23"/>
     </row>
     <row r="1353" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1353" s="18"/>
       <c r="M1353" s="22"/>
       <c r="N1353" s="23"/>
       <c r="O1353" s="23"/>
     </row>
     <row r="1354" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1354" s="18"/>
       <c r="M1354" s="22"/>
       <c r="N1354" s="23"/>
       <c r="O1354" s="23"/>
     </row>
     <row r="1355" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1355" s="18"/>
       <c r="M1355" s="22"/>
       <c r="N1355" s="23"/>
       <c r="O1355" s="23"/>
     </row>
     <row r="1356" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1356" s="18"/>
       <c r="M1356" s="22"/>
       <c r="N1356" s="23"/>
       <c r="O1356" s="23"/>
     </row>
     <row r="1357" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1357" s="18"/>
       <c r="M1357" s="22"/>
       <c r="N1357" s="23"/>
       <c r="O1357" s="23"/>
     </row>
     <row r="1358" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1358" s="18"/>
       <c r="M1358" s="22"/>
       <c r="N1358" s="23"/>
       <c r="O1358" s="23"/>
     </row>
     <row r="1359" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1359" s="18"/>
       <c r="M1359" s="22"/>
       <c r="N1359" s="23"/>
       <c r="O1359" s="23"/>
     </row>
     <row r="1360" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1360" s="18"/>
       <c r="M1360" s="22"/>
       <c r="N1360" s="23"/>
       <c r="O1360" s="23"/>
     </row>
     <row r="1361" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1361" s="18"/>
       <c r="M1361" s="22"/>
       <c r="N1361" s="23"/>
       <c r="O1361" s="23"/>
     </row>
     <row r="1362" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1362" s="18"/>
       <c r="M1362" s="22"/>
       <c r="N1362" s="23"/>
       <c r="O1362" s="23"/>
     </row>
     <row r="1363" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1363" s="18"/>
       <c r="M1363" s="22"/>
       <c r="N1363" s="23"/>
       <c r="O1363" s="23"/>
     </row>
     <row r="1364" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1364" s="18"/>
       <c r="M1364" s="22"/>
       <c r="N1364" s="23"/>
       <c r="O1364" s="23"/>
     </row>
     <row r="1365" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1365" s="18"/>
       <c r="M1365" s="22"/>
       <c r="N1365" s="23"/>
       <c r="O1365" s="23"/>
     </row>
     <row r="1366" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1366" s="18"/>
       <c r="M1366" s="22"/>
       <c r="N1366" s="23"/>
       <c r="O1366" s="23"/>
     </row>
     <row r="1367" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1367" s="18"/>
       <c r="M1367" s="22"/>
       <c r="N1367" s="23"/>
       <c r="O1367" s="23"/>
     </row>
     <row r="1368" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1368" s="18"/>
       <c r="M1368" s="22"/>
       <c r="N1368" s="23"/>
       <c r="O1368" s="23"/>
     </row>
     <row r="1369" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1369" s="18"/>
       <c r="M1369" s="22"/>
       <c r="N1369" s="23"/>
       <c r="O1369" s="23"/>
     </row>
     <row r="1370" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1370" s="18"/>
       <c r="M1370" s="22"/>
       <c r="N1370" s="23"/>
       <c r="O1370" s="23"/>
     </row>
     <row r="1371" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1371" s="18"/>
       <c r="M1371" s="22"/>
       <c r="N1371" s="23"/>
       <c r="O1371" s="23"/>
     </row>
     <row r="1372" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1372" s="18"/>
       <c r="M1372" s="22"/>
       <c r="N1372" s="23"/>
       <c r="O1372" s="23"/>
     </row>
     <row r="1373" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1373" s="18"/>
       <c r="M1373" s="22"/>
       <c r="N1373" s="23"/>
       <c r="O1373" s="23"/>
     </row>
     <row r="1374" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1374" s="18"/>
       <c r="M1374" s="22"/>
       <c r="N1374" s="23"/>
       <c r="O1374" s="23"/>
     </row>
     <row r="1375" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1375" s="18"/>
       <c r="M1375" s="22"/>
       <c r="N1375" s="23"/>
       <c r="O1375" s="23"/>
     </row>
     <row r="1376" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1376" s="18"/>
       <c r="M1376" s="22"/>
       <c r="N1376" s="23"/>
       <c r="O1376" s="23"/>
     </row>
     <row r="1377" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1377" s="18"/>
       <c r="M1377" s="22"/>
       <c r="N1377" s="23"/>
       <c r="O1377" s="23"/>
     </row>
     <row r="1378" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1378" s="18"/>
       <c r="M1378" s="22"/>
       <c r="N1378" s="23"/>
       <c r="O1378" s="23"/>
     </row>
     <row r="1379" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1379" s="18"/>
       <c r="M1379" s="22"/>
       <c r="N1379" s="23"/>
       <c r="O1379" s="23"/>
     </row>
     <row r="1380" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1380" s="18"/>
       <c r="M1380" s="22"/>
       <c r="N1380" s="23"/>
       <c r="O1380" s="23"/>
     </row>
     <row r="1381" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1381" s="18"/>
       <c r="M1381" s="22"/>
       <c r="N1381" s="23"/>
       <c r="O1381" s="23"/>
     </row>
     <row r="1382" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1382" s="18"/>
       <c r="M1382" s="22"/>
       <c r="N1382" s="23"/>
       <c r="O1382" s="23"/>
     </row>
     <row r="1383" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1383" s="18"/>
       <c r="M1383" s="22"/>
       <c r="N1383" s="23"/>
       <c r="O1383" s="23"/>
     </row>
     <row r="1384" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1384" s="18"/>
       <c r="M1384" s="22"/>
       <c r="N1384" s="23"/>
       <c r="O1384" s="23"/>
     </row>
     <row r="1385" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1385" s="18"/>
       <c r="M1385" s="22"/>
       <c r="N1385" s="23"/>
       <c r="O1385" s="23"/>
     </row>
     <row r="1386" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1386" s="18"/>
       <c r="M1386" s="22"/>
       <c r="N1386" s="23"/>
       <c r="O1386" s="23"/>
     </row>
     <row r="1387" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1387" s="18"/>
       <c r="M1387" s="22"/>
       <c r="N1387" s="23"/>
       <c r="O1387" s="23"/>
     </row>
     <row r="1388" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1388" s="18"/>
       <c r="M1388" s="22"/>
       <c r="N1388" s="23"/>
       <c r="O1388" s="23"/>
     </row>
     <row r="1389" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1389" s="18"/>
       <c r="M1389" s="22"/>
       <c r="N1389" s="23"/>
       <c r="O1389" s="23"/>
     </row>
     <row r="1390" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1390" s="18"/>
       <c r="M1390" s="22"/>
       <c r="N1390" s="23"/>
       <c r="O1390" s="23"/>
     </row>
     <row r="1391" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1391" s="18"/>
       <c r="M1391" s="22"/>
       <c r="N1391" s="23"/>
       <c r="O1391" s="23"/>
     </row>
     <row r="1392" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1392" s="18"/>
       <c r="M1392" s="22"/>
       <c r="N1392" s="23"/>
       <c r="O1392" s="23"/>
     </row>
     <row r="1393" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1393" s="18"/>
       <c r="M1393" s="22"/>
       <c r="N1393" s="23"/>
       <c r="O1393" s="23"/>
     </row>
     <row r="1394" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1394" s="18"/>
       <c r="M1394" s="22"/>
       <c r="N1394" s="23"/>
       <c r="O1394" s="23"/>
     </row>
     <row r="1395" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1395" s="18"/>
       <c r="M1395" s="22"/>
       <c r="N1395" s="23"/>
       <c r="O1395" s="23"/>
     </row>
     <row r="1396" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1396" s="18"/>
       <c r="M1396" s="22"/>
       <c r="N1396" s="23"/>
       <c r="O1396" s="23"/>
     </row>
     <row r="1397" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1397" s="18"/>
       <c r="M1397" s="22"/>
       <c r="N1397" s="23"/>
       <c r="O1397" s="23"/>
     </row>
     <row r="1398" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1398" s="18"/>
       <c r="M1398" s="22"/>
       <c r="N1398" s="23"/>
       <c r="O1398" s="23"/>
     </row>
     <row r="1399" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1399" s="18"/>
       <c r="M1399" s="22"/>
       <c r="N1399" s="23"/>
       <c r="O1399" s="23"/>
     </row>
     <row r="1400" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1400" s="18"/>
       <c r="M1400" s="22"/>
       <c r="N1400" s="23"/>
       <c r="O1400" s="23"/>
     </row>
     <row r="1401" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1401" s="18"/>
       <c r="M1401" s="22"/>
       <c r="N1401" s="23"/>
       <c r="O1401" s="23"/>
     </row>
     <row r="1402" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1402" s="18"/>
       <c r="M1402" s="22"/>
       <c r="N1402" s="23"/>
       <c r="O1402" s="23"/>
     </row>
     <row r="1403" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1403" s="18"/>
       <c r="M1403" s="22"/>
       <c r="N1403" s="23"/>
       <c r="O1403" s="23"/>
     </row>
     <row r="1404" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1404" s="18"/>
       <c r="M1404" s="22"/>
       <c r="N1404" s="23"/>
       <c r="O1404" s="23"/>
     </row>
     <row r="1405" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1405" s="18"/>
       <c r="M1405" s="22"/>
       <c r="N1405" s="23"/>
       <c r="O1405" s="23"/>
     </row>
     <row r="1406" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1406" s="18"/>
       <c r="M1406" s="22"/>
       <c r="N1406" s="23"/>
       <c r="O1406" s="23"/>
     </row>
     <row r="1407" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1407" s="18"/>
       <c r="M1407" s="22"/>
       <c r="N1407" s="23"/>
       <c r="O1407" s="23"/>
     </row>
     <row r="1408" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1408" s="18"/>
       <c r="M1408" s="22"/>
       <c r="N1408" s="23"/>
       <c r="O1408" s="23"/>
     </row>
     <row r="1409" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1409" s="18"/>
       <c r="M1409" s="22"/>
       <c r="N1409" s="23"/>
       <c r="O1409" s="23"/>
     </row>
     <row r="1410" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1410" s="18"/>
       <c r="M1410" s="22"/>
       <c r="N1410" s="23"/>
       <c r="O1410" s="23"/>
     </row>
     <row r="1411" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1411" s="18"/>
       <c r="M1411" s="22"/>
       <c r="N1411" s="23"/>
       <c r="O1411" s="23"/>
     </row>
     <row r="1412" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1412" s="18"/>
       <c r="M1412" s="22"/>
       <c r="N1412" s="23"/>
       <c r="O1412" s="23"/>
     </row>
     <row r="1413" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1413" s="18"/>
       <c r="M1413" s="22"/>
       <c r="N1413" s="23"/>
       <c r="O1413" s="23"/>
     </row>
     <row r="1414" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1414" s="18"/>
       <c r="M1414" s="22"/>
       <c r="N1414" s="23"/>
       <c r="O1414" s="23"/>
     </row>
     <row r="1415" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1415" s="18"/>
       <c r="M1415" s="22"/>
       <c r="N1415" s="23"/>
       <c r="O1415" s="23"/>
     </row>
     <row r="1416" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1416" s="18"/>
       <c r="M1416" s="22"/>
       <c r="N1416" s="23"/>
       <c r="O1416" s="23"/>
     </row>
     <row r="1417" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1417" s="18"/>
       <c r="M1417" s="22"/>
       <c r="N1417" s="23"/>
       <c r="O1417" s="23"/>
     </row>
     <row r="1418" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1418" s="18"/>
       <c r="M1418" s="22"/>
       <c r="N1418" s="23"/>
       <c r="O1418" s="23"/>
     </row>
     <row r="1419" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1419" s="18"/>
       <c r="M1419" s="22"/>
       <c r="N1419" s="23"/>
       <c r="O1419" s="23"/>
     </row>
     <row r="1420" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1420" s="18"/>
       <c r="M1420" s="22"/>
       <c r="N1420" s="23"/>
       <c r="O1420" s="23"/>
     </row>
     <row r="1421" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1421" s="18"/>
       <c r="M1421" s="22"/>
       <c r="N1421" s="23"/>
       <c r="O1421" s="23"/>
     </row>
     <row r="1422" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1422" s="18"/>
       <c r="M1422" s="22"/>
       <c r="N1422" s="23"/>
       <c r="O1422" s="23"/>
     </row>
     <row r="1423" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1423" s="18"/>
       <c r="M1423" s="22"/>
       <c r="N1423" s="23"/>
       <c r="O1423" s="23"/>
     </row>
     <row r="1424" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1424" s="18"/>
       <c r="M1424" s="22"/>
       <c r="N1424" s="23"/>
       <c r="O1424" s="23"/>
     </row>
     <row r="1425" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1425" s="18"/>
       <c r="M1425" s="22"/>
       <c r="N1425" s="23"/>
       <c r="O1425" s="23"/>
     </row>
     <row r="1426" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1426" s="18"/>
       <c r="M1426" s="22"/>
       <c r="N1426" s="23"/>
       <c r="O1426" s="23"/>
     </row>
     <row r="1427" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1427" s="18"/>
       <c r="M1427" s="22"/>
       <c r="N1427" s="23"/>
       <c r="O1427" s="23"/>
     </row>
     <row r="1428" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1428" s="18"/>
       <c r="M1428" s="22"/>
       <c r="N1428" s="23"/>
       <c r="O1428" s="23"/>
     </row>
     <row r="1429" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1429" s="18"/>
       <c r="M1429" s="22"/>
       <c r="N1429" s="23"/>
       <c r="O1429" s="23"/>
     </row>
     <row r="1430" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1430" s="18"/>
       <c r="M1430" s="22"/>
       <c r="N1430" s="23"/>
       <c r="O1430" s="23"/>
     </row>
     <row r="1431" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1431" s="18"/>
       <c r="M1431" s="22"/>
       <c r="N1431" s="23"/>
       <c r="O1431" s="23"/>
     </row>
     <row r="1432" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1432" s="18"/>
       <c r="M1432" s="22"/>
       <c r="N1432" s="23"/>
       <c r="O1432" s="23"/>
     </row>
     <row r="1433" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1433" s="18"/>
       <c r="M1433" s="22"/>
       <c r="N1433" s="23"/>
       <c r="O1433" s="23"/>
     </row>
     <row r="1434" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1434" s="18"/>
       <c r="M1434" s="22"/>
       <c r="N1434" s="23"/>
       <c r="O1434" s="23"/>
     </row>
     <row r="1435" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1435" s="18"/>
       <c r="M1435" s="22"/>
       <c r="N1435" s="23"/>
       <c r="O1435" s="23"/>
     </row>
     <row r="1436" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1436" s="18"/>
       <c r="M1436" s="22"/>
       <c r="N1436" s="23"/>
       <c r="O1436" s="23"/>
     </row>
     <row r="1437" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1437" s="18"/>
       <c r="M1437" s="22"/>
       <c r="N1437" s="23"/>
       <c r="O1437" s="23"/>
     </row>
     <row r="1438" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1438" s="18"/>
       <c r="M1438" s="22"/>
       <c r="N1438" s="23"/>
       <c r="O1438" s="23"/>
     </row>
     <row r="1439" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1439" s="18"/>
       <c r="M1439" s="22"/>
       <c r="N1439" s="23"/>
       <c r="O1439" s="23"/>
     </row>
     <row r="1440" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1440" s="18"/>
       <c r="M1440" s="22"/>
       <c r="N1440" s="23"/>
       <c r="O1440" s="23"/>
     </row>
     <row r="1441" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1441" s="18"/>
       <c r="M1441" s="22"/>
       <c r="N1441" s="23"/>
       <c r="O1441" s="23"/>
     </row>
     <row r="1442" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1442" s="18"/>
       <c r="M1442" s="22"/>
       <c r="N1442" s="23"/>
       <c r="O1442" s="23"/>
     </row>
     <row r="1443" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1443" s="18"/>
       <c r="M1443" s="22"/>
       <c r="N1443" s="23"/>
       <c r="O1443" s="23"/>
     </row>
     <row r="1444" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1444" s="18"/>
       <c r="M1444" s="22"/>
       <c r="N1444" s="23"/>
       <c r="O1444" s="23"/>
     </row>
     <row r="1445" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1445" s="18"/>
       <c r="M1445" s="22"/>
       <c r="N1445" s="23"/>
       <c r="O1445" s="23"/>
     </row>
     <row r="1446" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1446" s="18"/>
       <c r="M1446" s="22"/>
       <c r="N1446" s="23"/>
       <c r="O1446" s="23"/>
     </row>
     <row r="1447" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1447" s="18"/>
       <c r="M1447" s="22"/>
       <c r="N1447" s="23"/>
       <c r="O1447" s="23"/>
     </row>
     <row r="1448" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1448" s="18"/>
       <c r="M1448" s="22"/>
       <c r="N1448" s="23"/>
       <c r="O1448" s="23"/>
     </row>
     <row r="1449" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1449" s="18"/>
       <c r="M1449" s="22"/>
       <c r="N1449" s="23"/>
       <c r="O1449" s="23"/>
     </row>
     <row r="1450" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1450" s="18"/>
       <c r="M1450" s="22"/>
       <c r="N1450" s="23"/>
       <c r="O1450" s="23"/>
     </row>
     <row r="1451" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1451" s="18"/>
       <c r="M1451" s="22"/>
       <c r="N1451" s="23"/>
       <c r="O1451" s="23"/>
     </row>
     <row r="1452" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1452" s="18"/>
       <c r="M1452" s="22"/>
       <c r="N1452" s="23"/>
       <c r="O1452" s="23"/>
     </row>
     <row r="1453" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1453" s="18"/>
       <c r="M1453" s="22"/>
       <c r="N1453" s="23"/>
       <c r="O1453" s="23"/>
     </row>
     <row r="1454" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1454" s="18"/>
       <c r="M1454" s="22"/>
       <c r="N1454" s="23"/>
       <c r="O1454" s="23"/>
     </row>
     <row r="1455" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1455" s="18"/>
       <c r="M1455" s="22"/>
       <c r="N1455" s="23"/>
       <c r="O1455" s="23"/>
     </row>
     <row r="1456" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1456" s="18"/>
       <c r="M1456" s="22"/>
       <c r="N1456" s="23"/>
       <c r="O1456" s="23"/>
     </row>
     <row r="1457" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1457" s="18"/>
       <c r="M1457" s="22"/>
       <c r="N1457" s="23"/>
       <c r="O1457" s="23"/>
     </row>
     <row r="1458" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1458" s="18"/>
       <c r="M1458" s="22"/>
       <c r="N1458" s="23"/>
       <c r="O1458" s="23"/>
     </row>
     <row r="1459" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1459" s="18"/>
       <c r="M1459" s="22"/>
       <c r="N1459" s="23"/>
       <c r="O1459" s="23"/>
     </row>
     <row r="1460" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1460" s="18"/>
       <c r="M1460" s="22"/>
       <c r="N1460" s="23"/>
       <c r="O1460" s="23"/>
     </row>
     <row r="1461" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1461" s="18"/>
       <c r="M1461" s="22"/>
       <c r="N1461" s="23"/>
       <c r="O1461" s="23"/>
     </row>
     <row r="1462" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1462" s="18"/>
       <c r="M1462" s="22"/>
       <c r="N1462" s="23"/>
       <c r="O1462" s="23"/>
     </row>
     <row r="1463" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1463" s="18"/>
       <c r="M1463" s="22"/>
       <c r="N1463" s="23"/>
       <c r="O1463" s="23"/>
     </row>
     <row r="1464" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1464" s="18"/>
       <c r="M1464" s="22"/>
       <c r="N1464" s="23"/>
       <c r="O1464" s="23"/>
     </row>
     <row r="1465" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1465" s="18"/>
       <c r="M1465" s="22"/>
       <c r="N1465" s="23"/>
       <c r="O1465" s="23"/>
     </row>
     <row r="1466" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1466" s="18"/>
       <c r="M1466" s="22"/>
       <c r="N1466" s="23"/>
       <c r="O1466" s="23"/>
     </row>
     <row r="1467" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1467" s="18"/>
       <c r="M1467" s="22"/>
       <c r="N1467" s="23"/>
       <c r="O1467" s="23"/>
     </row>
     <row r="1468" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1468" s="18"/>
       <c r="M1468" s="22"/>
       <c r="N1468" s="23"/>
       <c r="O1468" s="23"/>
     </row>
     <row r="1469" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1469" s="18"/>
       <c r="M1469" s="22"/>
       <c r="N1469" s="23"/>
       <c r="O1469" s="23"/>
     </row>
     <row r="1470" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1470" s="18"/>
       <c r="M1470" s="22"/>
       <c r="N1470" s="23"/>
       <c r="O1470" s="23"/>
     </row>
     <row r="1471" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1471" s="18"/>
       <c r="M1471" s="22"/>
       <c r="N1471" s="23"/>
       <c r="O1471" s="23"/>
     </row>
     <row r="1472" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1472" s="18"/>
       <c r="M1472" s="22"/>
       <c r="N1472" s="23"/>
       <c r="O1472" s="23"/>
     </row>
     <row r="1473" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1473" s="18"/>
       <c r="M1473" s="22"/>
       <c r="N1473" s="23"/>
       <c r="O1473" s="23"/>
     </row>
     <row r="1474" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1474" s="18"/>
       <c r="M1474" s="22"/>
       <c r="N1474" s="23"/>
       <c r="O1474" s="23"/>
     </row>
     <row r="1475" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1475" s="18"/>
       <c r="M1475" s="22"/>
       <c r="N1475" s="23"/>
       <c r="O1475" s="23"/>
     </row>
     <row r="1476" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1476" s="18"/>
       <c r="M1476" s="22"/>
       <c r="N1476" s="23"/>
       <c r="O1476" s="23"/>
     </row>
     <row r="1477" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1477" s="18"/>
       <c r="M1477" s="22"/>
       <c r="N1477" s="23"/>
       <c r="O1477" s="23"/>
     </row>
     <row r="1478" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1478" s="18"/>
       <c r="M1478" s="22"/>
       <c r="N1478" s="23"/>
       <c r="O1478" s="23"/>
     </row>
     <row r="1479" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1479" s="18"/>
       <c r="M1479" s="22"/>
       <c r="N1479" s="23"/>
       <c r="O1479" s="23"/>
     </row>
     <row r="1480" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1480" s="18"/>
       <c r="M1480" s="22"/>
       <c r="N1480" s="23"/>
       <c r="O1480" s="23"/>
     </row>
     <row r="1481" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1481" s="18"/>
       <c r="M1481" s="22"/>
       <c r="N1481" s="23"/>
       <c r="O1481" s="23"/>
     </row>
     <row r="1482" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1482" s="18"/>
       <c r="M1482" s="22"/>
       <c r="N1482" s="23"/>
       <c r="O1482" s="23"/>
     </row>
     <row r="1483" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1483" s="18"/>
       <c r="M1483" s="22"/>
       <c r="N1483" s="23"/>
       <c r="O1483" s="23"/>
     </row>
     <row r="1484" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1484" s="18"/>
       <c r="M1484" s="22"/>
       <c r="N1484" s="23"/>
       <c r="O1484" s="23"/>
     </row>
     <row r="1485" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1485" s="18"/>
       <c r="M1485" s="22"/>
       <c r="N1485" s="23"/>
       <c r="O1485" s="23"/>
     </row>
     <row r="1486" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1486" s="18"/>
       <c r="M1486" s="22"/>
       <c r="N1486" s="23"/>
       <c r="O1486" s="23"/>
     </row>
     <row r="1487" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1487" s="18"/>
       <c r="M1487" s="22"/>
       <c r="N1487" s="23"/>
       <c r="O1487" s="23"/>
     </row>
     <row r="1488" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1488" s="18"/>
       <c r="M1488" s="22"/>
       <c r="N1488" s="23"/>
       <c r="O1488" s="23"/>
     </row>
     <row r="1489" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1489" s="18"/>
       <c r="M1489" s="22"/>
       <c r="N1489" s="23"/>
       <c r="O1489" s="23"/>
     </row>
     <row r="1490" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1490" s="18"/>
       <c r="M1490" s="22"/>
       <c r="N1490" s="23"/>
       <c r="O1490" s="23"/>
     </row>
     <row r="1491" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1491" s="18"/>
       <c r="M1491" s="22"/>
       <c r="N1491" s="23"/>
       <c r="O1491" s="23"/>
     </row>
     <row r="1492" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1492" s="18"/>
       <c r="M1492" s="22"/>
       <c r="N1492" s="23"/>
       <c r="O1492" s="23"/>
     </row>
     <row r="1493" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1493" s="18"/>
       <c r="M1493" s="22"/>
       <c r="N1493" s="23"/>
       <c r="O1493" s="23"/>
     </row>
     <row r="1494" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1494" s="18"/>
       <c r="M1494" s="22"/>
       <c r="N1494" s="23"/>
       <c r="O1494" s="23"/>
     </row>
     <row r="1495" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1495" s="18"/>
       <c r="M1495" s="22"/>
       <c r="N1495" s="23"/>
       <c r="O1495" s="23"/>
     </row>
     <row r="1496" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1496" s="18"/>
       <c r="M1496" s="22"/>
       <c r="N1496" s="23"/>
       <c r="O1496" s="23"/>
     </row>
     <row r="1497" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1497" s="18"/>
       <c r="M1497" s="22"/>
       <c r="N1497" s="23"/>
       <c r="O1497" s="23"/>
     </row>
     <row r="1498" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1498" s="18"/>
       <c r="M1498" s="22"/>
       <c r="N1498" s="23"/>
       <c r="O1498" s="23"/>
     </row>
     <row r="1499" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1499" s="18"/>
       <c r="M1499" s="22"/>
       <c r="N1499" s="23"/>
       <c r="O1499" s="23"/>
     </row>
     <row r="1500" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1500" s="18"/>
       <c r="M1500" s="22"/>
       <c r="N1500" s="23"/>
       <c r="O1500" s="23"/>
     </row>
     <row r="1501" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1501" s="18"/>
       <c r="M1501" s="22"/>
       <c r="N1501" s="23"/>
       <c r="O1501" s="23"/>
     </row>
     <row r="1502" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1502" s="18"/>
       <c r="M1502" s="22"/>
       <c r="N1502" s="23"/>
       <c r="O1502" s="23"/>
     </row>
     <row r="1503" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1503" s="18"/>
       <c r="M1503" s="22"/>
       <c r="N1503" s="23"/>
       <c r="O1503" s="23"/>
     </row>
     <row r="1504" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1504" s="18"/>
       <c r="M1504" s="22"/>
       <c r="N1504" s="23"/>
       <c r="O1504" s="23"/>
     </row>
     <row r="1505" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1505" s="18"/>
       <c r="M1505" s="22"/>
       <c r="N1505" s="23"/>
       <c r="O1505" s="23"/>
     </row>
     <row r="1506" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1506" s="18"/>
       <c r="M1506" s="22"/>
       <c r="N1506" s="23"/>
       <c r="O1506" s="23"/>
     </row>
     <row r="1507" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1507" s="18"/>
       <c r="M1507" s="22"/>
       <c r="N1507" s="23"/>
       <c r="O1507" s="23"/>
     </row>
     <row r="1508" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1508" s="18"/>
       <c r="M1508" s="22"/>
       <c r="N1508" s="23"/>
       <c r="O1508" s="23"/>
     </row>
     <row r="1509" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1509" s="18"/>
       <c r="M1509" s="22"/>
       <c r="N1509" s="23"/>
       <c r="O1509" s="23"/>
     </row>
     <row r="1510" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1510" s="18"/>
       <c r="M1510" s="22"/>
       <c r="N1510" s="23"/>
       <c r="O1510" s="23"/>
     </row>
     <row r="1511" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1511" s="18"/>
       <c r="M1511" s="22"/>
       <c r="N1511" s="23"/>
       <c r="O1511" s="23"/>
     </row>
     <row r="1512" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1512" s="18"/>
       <c r="M1512" s="22"/>
       <c r="N1512" s="23"/>
       <c r="O1512" s="23"/>
     </row>
     <row r="1513" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1513" s="18"/>
       <c r="M1513" s="22"/>
       <c r="N1513" s="23"/>
       <c r="O1513" s="23"/>
     </row>
     <row r="1514" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1514" s="18"/>
       <c r="M1514" s="22"/>
       <c r="N1514" s="23"/>
       <c r="O1514" s="23"/>
     </row>
     <row r="1515" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1515" s="18"/>
       <c r="M1515" s="22"/>
       <c r="N1515" s="23"/>
       <c r="O1515" s="23"/>
     </row>
     <row r="1516" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1516" s="18"/>
       <c r="M1516" s="22"/>
       <c r="N1516" s="23"/>
       <c r="O1516" s="23"/>
     </row>
     <row r="1517" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1517" s="18"/>
       <c r="M1517" s="22"/>
       <c r="N1517" s="23"/>
       <c r="O1517" s="23"/>
     </row>
     <row r="1518" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1518" s="18"/>
       <c r="M1518" s="22"/>
       <c r="N1518" s="23"/>
       <c r="O1518" s="23"/>
     </row>
     <row r="1519" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1519" s="18"/>
       <c r="M1519" s="22"/>
       <c r="N1519" s="23"/>
       <c r="O1519" s="23"/>
     </row>
     <row r="1520" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1520" s="18"/>
       <c r="M1520" s="22"/>
       <c r="N1520" s="23"/>
       <c r="O1520" s="23"/>
     </row>
     <row r="1521" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1521" s="18"/>
       <c r="M1521" s="22"/>
       <c r="N1521" s="23"/>
       <c r="O1521" s="23"/>
     </row>
     <row r="1522" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1522" s="18"/>
       <c r="M1522" s="22"/>
       <c r="N1522" s="23"/>
       <c r="O1522" s="23"/>
     </row>
     <row r="1523" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1523" s="18"/>
       <c r="M1523" s="22"/>
       <c r="N1523" s="23"/>
       <c r="O1523" s="23"/>
     </row>
     <row r="1524" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1524" s="18"/>
       <c r="M1524" s="22"/>
       <c r="N1524" s="23"/>
       <c r="O1524" s="23"/>
     </row>
     <row r="1525" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1525" s="18"/>
       <c r="M1525" s="22"/>
       <c r="N1525" s="23"/>
       <c r="O1525" s="23"/>
     </row>
     <row r="1526" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1526" s="18"/>
       <c r="M1526" s="22"/>
       <c r="N1526" s="23"/>
       <c r="O1526" s="23"/>
     </row>
     <row r="1527" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1527" s="18"/>
       <c r="M1527" s="22"/>
       <c r="N1527" s="23"/>
       <c r="O1527" s="23"/>
     </row>
     <row r="1528" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1528" s="18"/>
       <c r="M1528" s="22"/>
       <c r="N1528" s="23"/>
       <c r="O1528" s="23"/>
     </row>
     <row r="1529" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1529" s="18"/>
       <c r="M1529" s="22"/>
       <c r="N1529" s="23"/>
       <c r="O1529" s="23"/>
     </row>
     <row r="1530" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1530" s="18"/>
       <c r="M1530" s="22"/>
       <c r="N1530" s="23"/>
       <c r="O1530" s="23"/>
     </row>
     <row r="1531" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1531" s="18"/>
       <c r="M1531" s="22"/>
       <c r="N1531" s="23"/>
       <c r="O1531" s="23"/>
     </row>
     <row r="1532" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1532" s="18"/>
       <c r="M1532" s="22"/>
       <c r="N1532" s="23"/>
       <c r="O1532" s="23"/>
     </row>
     <row r="1533" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1533" s="18"/>
       <c r="M1533" s="22"/>
       <c r="N1533" s="23"/>
       <c r="O1533" s="23"/>
     </row>
     <row r="1534" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1534" s="18"/>
       <c r="M1534" s="22"/>
       <c r="N1534" s="23"/>
       <c r="O1534" s="23"/>
     </row>
     <row r="1535" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1535" s="18"/>
       <c r="M1535" s="22"/>
       <c r="N1535" s="23"/>
       <c r="O1535" s="23"/>
     </row>
     <row r="1536" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1536" s="18"/>
       <c r="M1536" s="22"/>
       <c r="N1536" s="23"/>
       <c r="O1536" s="23"/>
     </row>
     <row r="1537" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1537" s="18"/>
       <c r="M1537" s="22"/>
       <c r="N1537" s="23"/>
       <c r="O1537" s="23"/>
     </row>
     <row r="1538" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1538" s="18"/>
       <c r="M1538" s="22"/>
       <c r="N1538" s="23"/>
       <c r="O1538" s="23"/>
     </row>
     <row r="1539" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1539" s="18"/>
       <c r="M1539" s="22"/>
       <c r="N1539" s="23"/>
       <c r="O1539" s="23"/>
     </row>
     <row r="1540" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1540" s="18"/>
       <c r="M1540" s="22"/>
       <c r="N1540" s="23"/>
       <c r="O1540" s="23"/>
     </row>
     <row r="1541" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1541" s="18"/>
       <c r="M1541" s="22"/>
       <c r="N1541" s="23"/>
       <c r="O1541" s="23"/>
     </row>
     <row r="1542" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1542" s="18"/>
       <c r="M1542" s="22"/>
       <c r="N1542" s="23"/>
       <c r="O1542" s="23"/>
     </row>
     <row r="1543" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1543" s="18"/>
       <c r="M1543" s="22"/>
       <c r="N1543" s="23"/>
       <c r="O1543" s="23"/>
     </row>
     <row r="1544" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1544" s="18"/>
       <c r="M1544" s="22"/>
       <c r="N1544" s="23"/>
       <c r="O1544" s="23"/>
     </row>
     <row r="1545" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1545" s="18"/>
       <c r="M1545" s="22"/>
       <c r="N1545" s="23"/>
       <c r="O1545" s="23"/>
     </row>
     <row r="1546" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1546" s="18"/>
       <c r="M1546" s="22"/>
       <c r="N1546" s="23"/>
       <c r="O1546" s="23"/>
     </row>
     <row r="1547" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1547" s="18"/>
       <c r="M1547" s="22"/>
       <c r="N1547" s="23"/>
       <c r="O1547" s="23"/>
     </row>
     <row r="1548" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1548" s="18"/>
       <c r="M1548" s="22"/>
       <c r="N1548" s="23"/>
       <c r="O1548" s="23"/>
     </row>
     <row r="1549" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1549" s="18"/>
       <c r="M1549" s="22"/>
       <c r="N1549" s="23"/>
       <c r="O1549" s="23"/>
     </row>
     <row r="1550" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1550" s="18"/>
       <c r="M1550" s="22"/>
       <c r="N1550" s="23"/>
       <c r="O1550" s="23"/>
     </row>
     <row r="1551" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1551" s="18"/>
       <c r="M1551" s="22"/>
       <c r="N1551" s="23"/>
       <c r="O1551" s="23"/>
     </row>
     <row r="1552" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1552" s="18"/>
       <c r="M1552" s="22"/>
       <c r="N1552" s="23"/>
       <c r="O1552" s="23"/>
     </row>
     <row r="1553" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1553" s="18"/>
       <c r="M1553" s="22"/>
       <c r="N1553" s="23"/>
       <c r="O1553" s="23"/>
     </row>
     <row r="1554" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1554" s="18"/>
       <c r="M1554" s="22"/>
       <c r="N1554" s="23"/>
       <c r="O1554" s="23"/>
     </row>
     <row r="1555" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1555" s="18"/>
       <c r="M1555" s="22"/>
       <c r="N1555" s="23"/>
       <c r="O1555" s="23"/>
     </row>
     <row r="1556" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1556" s="18"/>
       <c r="M1556" s="22"/>
       <c r="N1556" s="23"/>
       <c r="O1556" s="23"/>
     </row>
     <row r="1557" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1557" s="18"/>
       <c r="M1557" s="22"/>
       <c r="N1557" s="23"/>
       <c r="O1557" s="23"/>
     </row>
     <row r="1558" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1558" s="18"/>
       <c r="M1558" s="22"/>
       <c r="N1558" s="23"/>
       <c r="O1558" s="23"/>
     </row>
     <row r="1559" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1559" s="18"/>
       <c r="M1559" s="22"/>
       <c r="N1559" s="23"/>
       <c r="O1559" s="23"/>
     </row>
     <row r="1560" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1560" s="18"/>
       <c r="M1560" s="22"/>
       <c r="N1560" s="23"/>
       <c r="O1560" s="23"/>
     </row>
     <row r="1561" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1561" s="18"/>
       <c r="M1561" s="22"/>
       <c r="N1561" s="23"/>
       <c r="O1561" s="23"/>
     </row>
     <row r="1562" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1562" s="18"/>
       <c r="M1562" s="22"/>
       <c r="N1562" s="23"/>
       <c r="O1562" s="23"/>
     </row>
     <row r="1563" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1563" s="18"/>
       <c r="M1563" s="22"/>
       <c r="N1563" s="23"/>
       <c r="O1563" s="23"/>
     </row>
     <row r="1564" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1564" s="18"/>
       <c r="M1564" s="22"/>
       <c r="N1564" s="23"/>
       <c r="O1564" s="23"/>
     </row>
     <row r="1565" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1565" s="18"/>
       <c r="M1565" s="22"/>
       <c r="N1565" s="23"/>
       <c r="O1565" s="23"/>
     </row>
     <row r="1566" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1566" s="18"/>
       <c r="M1566" s="22"/>
       <c r="N1566" s="23"/>
       <c r="O1566" s="23"/>
     </row>
     <row r="1567" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1567" s="18"/>
       <c r="M1567" s="22"/>
       <c r="N1567" s="23"/>
       <c r="O1567" s="23"/>
     </row>
     <row r="1568" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1568" s="18"/>
       <c r="M1568" s="22"/>
       <c r="N1568" s="23"/>
       <c r="O1568" s="23"/>
     </row>
     <row r="1569" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1569" s="18"/>
       <c r="M1569" s="22"/>
       <c r="N1569" s="23"/>
       <c r="O1569" s="23"/>
     </row>
     <row r="1570" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1570" s="18"/>
       <c r="M1570" s="22"/>
       <c r="N1570" s="23"/>
       <c r="O1570" s="23"/>
     </row>
     <row r="1571" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1571" s="18"/>
       <c r="M1571" s="22"/>
       <c r="N1571" s="23"/>
       <c r="O1571" s="23"/>
     </row>
     <row r="1572" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1572" s="18"/>
       <c r="M1572" s="22"/>
       <c r="N1572" s="23"/>
       <c r="O1572" s="23"/>
     </row>
     <row r="1573" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1573" s="18"/>
       <c r="M1573" s="22"/>
       <c r="N1573" s="23"/>
       <c r="O1573" s="23"/>
     </row>
     <row r="1574" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1574" s="18"/>
       <c r="M1574" s="22"/>
       <c r="N1574" s="23"/>
       <c r="O1574" s="23"/>
     </row>
     <row r="1575" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1575" s="18"/>
       <c r="M1575" s="22"/>
       <c r="N1575" s="23"/>
       <c r="O1575" s="23"/>
     </row>
     <row r="1576" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1576" s="18"/>
       <c r="M1576" s="22"/>
       <c r="N1576" s="23"/>
       <c r="O1576" s="23"/>
     </row>
     <row r="1577" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1577" s="18"/>
       <c r="M1577" s="22"/>
       <c r="N1577" s="23"/>
       <c r="O1577" s="23"/>
     </row>
     <row r="1578" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1578" s="18"/>
       <c r="M1578" s="22"/>
       <c r="N1578" s="23"/>
       <c r="O1578" s="23"/>
     </row>
     <row r="1579" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1579" s="18"/>
       <c r="M1579" s="22"/>
       <c r="N1579" s="23"/>
       <c r="O1579" s="23"/>
     </row>
     <row r="1580" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1580" s="18"/>
       <c r="M1580" s="22"/>
       <c r="N1580" s="23"/>
       <c r="O1580" s="23"/>
     </row>
     <row r="1581" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1581" s="18"/>
       <c r="M1581" s="22"/>
       <c r="N1581" s="23"/>
       <c r="O1581" s="23"/>
     </row>
     <row r="1582" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1582" s="18"/>
       <c r="M1582" s="22"/>
       <c r="N1582" s="23"/>
       <c r="O1582" s="23"/>
     </row>
     <row r="1583" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1583" s="18"/>
       <c r="M1583" s="22"/>
       <c r="N1583" s="23"/>
       <c r="O1583" s="23"/>
     </row>
     <row r="1584" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1584" s="18"/>
       <c r="M1584" s="22"/>
       <c r="N1584" s="23"/>
       <c r="O1584" s="23"/>
     </row>
     <row r="1585" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1585" s="18"/>
       <c r="M1585" s="22"/>
       <c r="N1585" s="23"/>
       <c r="O1585" s="23"/>
     </row>
     <row r="1586" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1586" s="18"/>
       <c r="M1586" s="22"/>
       <c r="N1586" s="23"/>
       <c r="O1586" s="23"/>
     </row>
     <row r="1587" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1587" s="18"/>
       <c r="M1587" s="22"/>
       <c r="N1587" s="23"/>
       <c r="O1587" s="23"/>
     </row>
     <row r="1588" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1588" s="18"/>
       <c r="M1588" s="22"/>
       <c r="N1588" s="23"/>
       <c r="O1588" s="23"/>
     </row>
     <row r="1589" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1589" s="18"/>
       <c r="M1589" s="22"/>
       <c r="N1589" s="23"/>
       <c r="O1589" s="23"/>
     </row>
     <row r="1590" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1590" s="18"/>
       <c r="M1590" s="22"/>
       <c r="N1590" s="23"/>
       <c r="O1590" s="23"/>
     </row>
     <row r="1591" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1591" s="18"/>
       <c r="M1591" s="22"/>
       <c r="N1591" s="23"/>
       <c r="O1591" s="23"/>
     </row>
     <row r="1592" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1592" s="18"/>
       <c r="M1592" s="22"/>
       <c r="N1592" s="23"/>
       <c r="O1592" s="23"/>
     </row>
     <row r="1593" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1593" s="18"/>
       <c r="M1593" s="22"/>
       <c r="N1593" s="23"/>
       <c r="O1593" s="23"/>
     </row>
     <row r="1594" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1594" s="18"/>
       <c r="M1594" s="22"/>
       <c r="N1594" s="23"/>
       <c r="O1594" s="23"/>
     </row>
     <row r="1595" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1595" s="18"/>
       <c r="M1595" s="22"/>
       <c r="N1595" s="23"/>
       <c r="O1595" s="23"/>
     </row>
     <row r="1596" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1596" s="18"/>
       <c r="M1596" s="22"/>
       <c r="N1596" s="23"/>
       <c r="O1596" s="23"/>
     </row>
     <row r="1597" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1597" s="18"/>
       <c r="M1597" s="22"/>
       <c r="N1597" s="23"/>
       <c r="O1597" s="23"/>
     </row>
     <row r="1598" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1598" s="18"/>
       <c r="M1598" s="22"/>
       <c r="N1598" s="23"/>
       <c r="O1598" s="23"/>
     </row>
     <row r="1599" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1599" s="18"/>
       <c r="M1599" s="22"/>
       <c r="N1599" s="23"/>
       <c r="O1599" s="23"/>
     </row>
     <row r="1600" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1600" s="18"/>
       <c r="M1600" s="22"/>
       <c r="N1600" s="23"/>
       <c r="O1600" s="23"/>
     </row>
     <row r="1601" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1601" s="18"/>
       <c r="M1601" s="22"/>
       <c r="N1601" s="23"/>
       <c r="O1601" s="23"/>
     </row>
     <row r="1602" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1602" s="18"/>
       <c r="M1602" s="22"/>
       <c r="N1602" s="23"/>
       <c r="O1602" s="23"/>
     </row>
     <row r="1603" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1603" s="18"/>
       <c r="M1603" s="22"/>
       <c r="N1603" s="23"/>
       <c r="O1603" s="23"/>
     </row>
     <row r="1604" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1604" s="18"/>
       <c r="M1604" s="22"/>
       <c r="N1604" s="23"/>
       <c r="O1604" s="23"/>
     </row>
     <row r="1605" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1605" s="18"/>
       <c r="M1605" s="22"/>
       <c r="N1605" s="23"/>
       <c r="O1605" s="23"/>
     </row>
     <row r="1606" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1606" s="18"/>
       <c r="M1606" s="22"/>
       <c r="N1606" s="23"/>
       <c r="O1606" s="23"/>
     </row>
     <row r="1607" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1607" s="18"/>
       <c r="M1607" s="22"/>
       <c r="N1607" s="23"/>
       <c r="O1607" s="23"/>
     </row>
     <row r="1608" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1608" s="18"/>
       <c r="M1608" s="22"/>
       <c r="N1608" s="23"/>
       <c r="O1608" s="23"/>
     </row>
     <row r="1609" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1609" s="18"/>
       <c r="M1609" s="22"/>
       <c r="N1609" s="23"/>
       <c r="O1609" s="23"/>
     </row>
     <row r="1610" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1610" s="18"/>
       <c r="M1610" s="22"/>
       <c r="N1610" s="23"/>
       <c r="O1610" s="23"/>
     </row>
     <row r="1611" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1611" s="18"/>
       <c r="M1611" s="22"/>
       <c r="N1611" s="23"/>
       <c r="O1611" s="23"/>
     </row>
     <row r="1612" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1612" s="18"/>
       <c r="M1612" s="22"/>
       <c r="N1612" s="23"/>
       <c r="O1612" s="23"/>
     </row>
     <row r="1613" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1613" s="18"/>
       <c r="M1613" s="22"/>
       <c r="N1613" s="23"/>
       <c r="O1613" s="23"/>
     </row>
     <row r="1614" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1614" s="18"/>
       <c r="M1614" s="22"/>
       <c r="N1614" s="23"/>
       <c r="O1614" s="23"/>
     </row>
     <row r="1615" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1615" s="18"/>
       <c r="M1615" s="22"/>
       <c r="N1615" s="23"/>
       <c r="O1615" s="23"/>
     </row>
     <row r="1616" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1616" s="18"/>
       <c r="M1616" s="22"/>
       <c r="N1616" s="23"/>
       <c r="O1616" s="23"/>
     </row>
     <row r="1617" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1617" s="18"/>
       <c r="M1617" s="22"/>
       <c r="N1617" s="23"/>
       <c r="O1617" s="23"/>
     </row>
     <row r="1618" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1618" s="18"/>
       <c r="M1618" s="22"/>
       <c r="N1618" s="23"/>
       <c r="O1618" s="23"/>
     </row>
     <row r="1619" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1619" s="18"/>
       <c r="M1619" s="22"/>
       <c r="N1619" s="23"/>
       <c r="O1619" s="23"/>
     </row>
     <row r="1620" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1620" s="18"/>
       <c r="M1620" s="22"/>
       <c r="N1620" s="23"/>
       <c r="O1620" s="23"/>
     </row>
     <row r="1621" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1621" s="18"/>
       <c r="M1621" s="22"/>
       <c r="N1621" s="23"/>
       <c r="O1621" s="23"/>
     </row>
     <row r="1622" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1622" s="18"/>
       <c r="M1622" s="22"/>
       <c r="N1622" s="23"/>
       <c r="O1622" s="23"/>
     </row>
     <row r="1623" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1623" s="18"/>
       <c r="M1623" s="22"/>
       <c r="N1623" s="23"/>
       <c r="O1623" s="23"/>
     </row>
     <row r="1624" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1624" s="18"/>
       <c r="M1624" s="22"/>
       <c r="N1624" s="23"/>
       <c r="O1624" s="23"/>
     </row>
     <row r="1625" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1625" s="18"/>
       <c r="M1625" s="22"/>
       <c r="N1625" s="23"/>
       <c r="O1625" s="23"/>
     </row>
     <row r="1626" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1626" s="18"/>
       <c r="M1626" s="22"/>
       <c r="N1626" s="23"/>
       <c r="O1626" s="23"/>
     </row>
     <row r="1627" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1627" s="18"/>
       <c r="M1627" s="22"/>
       <c r="N1627" s="23"/>
       <c r="O1627" s="23"/>
     </row>
     <row r="1628" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1628" s="18"/>
       <c r="M1628" s="22"/>
       <c r="N1628" s="23"/>
       <c r="O1628" s="23"/>
     </row>
     <row r="1629" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1629" s="18"/>
       <c r="M1629" s="22"/>
       <c r="N1629" s="23"/>
       <c r="O1629" s="23"/>
     </row>
     <row r="1630" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1630" s="18"/>
       <c r="M1630" s="22"/>
       <c r="N1630" s="23"/>
       <c r="O1630" s="23"/>
     </row>
     <row r="1631" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1631" s="18"/>
       <c r="M1631" s="22"/>
       <c r="N1631" s="23"/>
       <c r="O1631" s="23"/>
     </row>
     <row r="1632" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1632" s="18"/>
       <c r="M1632" s="22"/>
       <c r="N1632" s="23"/>
       <c r="O1632" s="23"/>
     </row>
     <row r="1633" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1633" s="18"/>
       <c r="M1633" s="22"/>
       <c r="N1633" s="23"/>
       <c r="O1633" s="23"/>
     </row>
     <row r="1634" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1634" s="18"/>
       <c r="M1634" s="22"/>
       <c r="N1634" s="23"/>
       <c r="O1634" s="23"/>
     </row>
     <row r="1635" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1635" s="18"/>
       <c r="M1635" s="22"/>
       <c r="N1635" s="23"/>
       <c r="O1635" s="23"/>
     </row>
     <row r="1636" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1636" s="18"/>
       <c r="M1636" s="22"/>
       <c r="N1636" s="23"/>
       <c r="O1636" s="23"/>
     </row>
     <row r="1637" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1637" s="18"/>
       <c r="M1637" s="22"/>
       <c r="N1637" s="23"/>
       <c r="O1637" s="23"/>
     </row>
     <row r="1638" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1638" s="18"/>
       <c r="M1638" s="22"/>
       <c r="N1638" s="23"/>
       <c r="O1638" s="23"/>
@@ -25991,10 +26623,6 @@
       <formula1>Справочники!$E$2:$E$4</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="L7:L1007" type="list">
-      <formula1>Справочники!$I$2:$I$246</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="M7:M1723" type="list">
       <formula1>Справочники!$J$2:$J$4</formula1>
       <formula2>0</formula2>
@@ -26009,6 +26637,10 @@
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H7:H1686" type="list">
       <formula1>Справочники!$H$2:$H$9</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="L7:L1638" type="list">
+      <formula1>Справочники!$I$2:$I$243</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -26029,11 +26661,11 @@
   </sheetPr>
   <dimension ref="A1:J246"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G142" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I169" activeCellId="0" sqref="I169"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I25" activeCellId="0" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="108.55"/>
@@ -29089,7 +29721,7 @@
       <selection pane="topLeft" activeCell="B59" activeCellId="0" sqref="B59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.48"/>

--- a/app/download_dir/парфюм_по наборам.xlsx
+++ b/app/download_dir/парфюм_по наборам.xlsx
@@ -459,7 +459,7 @@
     <t xml:space="preserve">ЖЕСТЬ</t>
   </si>
   <si>
-    <t xml:space="preserve">РЕСПУБЛИКА БЕЛАРУСЬ</t>
+    <t xml:space="preserve">БЕЛОРУССИЯ</t>
   </si>
   <si>
     <t xml:space="preserve">КЕЙС ДЛЯ БАНОК</t>
@@ -3100,7 +3100,7 @@
       <selection pane="topLeft" activeCell="L1638" activeCellId="0" sqref="L1638"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="46.42"/>
@@ -26665,7 +26665,7 @@
       <selection pane="topLeft" activeCell="I25" activeCellId="0" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="108.55"/>
@@ -27111,7 +27111,7 @@
       <c r="G25" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="I25" s="28" t="s">
+      <c r="I25" s="31" t="s">
         <v>143</v>
       </c>
     </row>
@@ -29721,7 +29721,7 @@
       <selection pane="topLeft" activeCell="B59" activeCellId="0" sqref="B59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.48"/>
